--- a/GTR1 and GTR2 SpotSize_G315_z0_sigma_comparision_analysis.xlsx
+++ b/GTR1 and GTR2 SpotSize_G315_z0_sigma_comparision_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johanrensfeldt/Library/Mobile Documents/com~apple~CloudDocs/Plot_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94519AA6-740B-5547-98C3-7F3221E92C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D8E37D-4381-C841-8D4F-64922BCFDA1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47300" yWindow="-5880" windowWidth="30240" windowHeight="17300" tabRatio="790" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31940" yWindow="-7420" windowWidth="39700" windowHeight="22980" tabRatio="790" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GTR1 G315 z0 x" sheetId="7" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="34">
   <si>
     <t>E [MeV]</t>
   </si>
@@ -1162,35 +1162,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="40">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7D7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7575"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="36">
     <dxf>
       <fill>
         <patternFill>
@@ -6641,10 +6613,10 @@
   <dimension ref="A1:BF53"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="5" ySplit="11" topLeftCell="AK12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="11" topLeftCell="F12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="AT18" sqref="AT18"/>
+      <selection pane="bottomRight" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14334,50 +14306,50 @@
     <mergeCell ref="D32:D34"/>
   </mergeCells>
   <conditionalFormatting sqref="A35:C52 E35:XFD52">
-    <cfRule type="cellIs" dxfId="39" priority="253" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="35" priority="253" operator="greaterThanOrEqual">
       <formula>0.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="254" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="34" priority="254" operator="lessThanOrEqual">
       <formula>-0.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="255" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="33" priority="255" operator="lessThanOrEqual">
       <formula>-0.08</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="256" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="32" priority="256" operator="greaterThanOrEqual">
       <formula>0.08</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="257" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="31" priority="257" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="258" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="30" priority="258" operator="lessThanOrEqual">
       <formula>-0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:C6">
-    <cfRule type="cellIs" dxfId="33" priority="217" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="29" priority="217" operator="greaterThanOrEqual">
       <formula>0.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="218" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="28" priority="218" operator="lessThanOrEqual">
       <formula>-0.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="219" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="27" priority="219" operator="lessThanOrEqual">
       <formula>-0.08</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="220" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="26" priority="220" operator="greaterThanOrEqual">
       <formula>0.08</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="221" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="25" priority="221" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="222" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="24" priority="222" operator="lessThanOrEqual">
       <formula>-0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:O8">
-    <cfRule type="cellIs" dxfId="27" priority="259" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="259" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="260" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="260" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14395,7 +14367,7 @@
       <pane xSplit="4" ySplit="11" topLeftCell="E12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="P34" sqref="P34"/>
+      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -21656,24 +21628,24 @@
     <mergeCell ref="D32:D34"/>
   </mergeCells>
   <conditionalFormatting sqref="A35:C52 E35:XFD52">
-    <cfRule type="cellIs" dxfId="25" priority="125" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="21" priority="125" operator="greaterThanOrEqual">
       <formula>0.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="126" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="20" priority="126" operator="lessThanOrEqual">
       <formula>-0.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="127" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="19" priority="127" operator="lessThanOrEqual">
       <formula>-0.08</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="130" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="18" priority="130" operator="greaterThanOrEqual">
       <formula>0.08</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:O8">
-    <cfRule type="cellIs" dxfId="21" priority="132" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="132" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="133" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21692,7 +21664,7 @@
       <selection activeCell="A13" sqref="A13"/>
       <selection pane="topRight" activeCell="D13" sqref="D13"/>
       <selection pane="bottomLeft" activeCell="A33" sqref="A33"/>
-      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomRight" activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -30215,10 +30187,10 @@
     <row r="87" spans="3:53" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <conditionalFormatting sqref="D13:I20">
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30232,11 +30204,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AX53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="5" ySplit="11" topLeftCell="W12" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="5" ySplit="11" topLeftCell="F12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="AA1" sqref="AA1:AA1048576"/>
+      <selection pane="bottomRight" activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -36467,24 +36439,24 @@
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <conditionalFormatting sqref="A35:C52 F35:XFD52">
-    <cfRule type="cellIs" dxfId="17" priority="57" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="13" priority="57" operator="greaterThanOrEqual">
       <formula>0.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="58" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="12" priority="58" operator="lessThanOrEqual">
       <formula>-0.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="59" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="11" priority="59" operator="lessThanOrEqual">
       <formula>-0.08</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="60" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="10" priority="60" operator="greaterThanOrEqual">
       <formula>0.08</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:I8">
-    <cfRule type="cellIs" dxfId="13" priority="61" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="61" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="62" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36495,13 +36467,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:BD53"/>
+  <dimension ref="A1:BA53"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="4" ySplit="11" topLeftCell="AJ12" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="4" ySplit="11" topLeftCell="L12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="AU12" sqref="AU12:AU29"/>
+      <selection pane="bottomRight" activeCell="Z5" sqref="Z5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -36510,68 +36482,67 @@
     <col min="5" max="5" width="11" style="73" customWidth="1"/>
     <col min="6" max="6" width="12" style="73" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.6640625" style="73" customWidth="1"/>
-    <col min="8" max="12" width="12" style="73" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.83203125" style="73" customWidth="1"/>
-    <col min="14" max="14" width="12" style="73" customWidth="1"/>
-    <col min="15" max="15" width="16" style="73" customWidth="1"/>
-    <col min="16" max="16" width="18.6640625" style="73" customWidth="1"/>
-    <col min="17" max="18" width="12" style="73" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.83203125" style="73" customWidth="1"/>
-    <col min="20" max="20" width="12.6640625" style="73" customWidth="1"/>
-    <col min="21" max="22" width="12.83203125" style="73" bestFit="1" customWidth="1"/>
-    <col min="23" max="27" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.5" customWidth="1"/>
-    <col min="31" max="31" width="12.83203125" style="73" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="13.5" style="73" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="12.83203125" style="73" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="12.83203125" style="73" hidden="1" customWidth="1"/>
-    <col min="38" max="38" width="12.83203125" style="73" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="14" style="73" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="12.83203125" style="73" bestFit="1" customWidth="1"/>
-    <col min="41" max="44" width="14" style="73" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="12.83203125" style="73" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="14" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="14.33203125" customWidth="1"/>
+    <col min="8" max="10" width="12" style="73" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.83203125" style="73" customWidth="1"/>
+    <col min="12" max="12" width="12" style="73" customWidth="1"/>
+    <col min="13" max="13" width="16" style="73" customWidth="1"/>
+    <col min="14" max="14" width="18.6640625" style="73" customWidth="1"/>
+    <col min="15" max="16" width="12" style="73" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.83203125" style="73" customWidth="1"/>
+    <col min="18" max="18" width="12.6640625" style="73" customWidth="1"/>
+    <col min="19" max="20" width="12.83203125" style="73" bestFit="1" customWidth="1"/>
+    <col min="21" max="25" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.5" customWidth="1"/>
+    <col min="28" max="28" width="12.83203125" style="73" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="13.5" style="73" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="12.83203125" style="73" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.83203125" style="73" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="12.83203125" style="73" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14" style="73" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.83203125" style="73" bestFit="1" customWidth="1"/>
+    <col min="38" max="41" width="14" style="73" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="12.83203125" style="73" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="14" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:53" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="3"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
     </row>
-    <row r="2" spans="1:56" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="O2" s="74"/>
-      <c r="P2" s="74"/>
-      <c r="V2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="74"/>
+      <c r="T2" s="74"/>
     </row>
-    <row r="3" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="O3" s="74"/>
-      <c r="P3" s="74"/>
-      <c r="V3" s="74"/>
+    <row r="3" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="T3" s="74"/>
     </row>
-    <row r="4" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="O4" s="74"/>
-      <c r="P4" s="74"/>
-      <c r="V4" s="74"/>
+    <row r="4" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="M4" s="74"/>
+      <c r="N4" s="74"/>
+      <c r="T4" s="74"/>
     </row>
-    <row r="5" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.2">
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="74"/>
-      <c r="V5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="T5" s="74"/>
     </row>
-    <row r="6" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -36579,11 +36550,11 @@
         <v>0.08</v>
       </c>
       <c r="D6" s="7"/>
-      <c r="O6" s="74"/>
-      <c r="P6" s="74"/>
-      <c r="V6" s="74"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="74"/>
+      <c r="T6" s="74"/>
     </row>
-    <row r="7" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -36591,25 +36562,25 @@
         <v>0.1</v>
       </c>
       <c r="D7" s="7"/>
-      <c r="O7" s="74"/>
-      <c r="P7" s="74"/>
-      <c r="V7" s="74"/>
+      <c r="M7" s="74"/>
+      <c r="N7" s="74"/>
+      <c r="T7" s="74"/>
     </row>
-    <row r="8" spans="1:56" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="O8" s="74"/>
-      <c r="P8" s="74"/>
-      <c r="V8" s="74"/>
-      <c r="AK8" t="s">
+    <row r="8" spans="1:53" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M8" s="74"/>
+      <c r="N8" s="74"/>
+      <c r="T8" s="74"/>
+      <c r="AH8" t="s">
         <v>31</v>
       </c>
-      <c r="AO8" s="73" t="s">
+      <c r="AL8" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="AS8" s="73" t="s">
+      <c r="AP8" s="73" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:56" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:53" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="D9" s="140" t="s">
         <v>0</v>
       </c>
@@ -36623,44 +36594,48 @@
       <c r="J9" s="59"/>
       <c r="K9" s="59"/>
       <c r="L9" s="59"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="59"/>
-      <c r="O9" s="82" t="s">
+      <c r="M9" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="P9" s="82" t="s">
+      <c r="N9" s="82" t="s">
         <v>20</v>
       </c>
+      <c r="O9" s="59"/>
+      <c r="P9" s="59"/>
       <c r="Q9" s="59"/>
       <c r="R9" s="59"/>
       <c r="S9" s="59"/>
-      <c r="T9" s="59"/>
-      <c r="U9" s="59"/>
+      <c r="T9" s="60"/>
+      <c r="U9" s="60"/>
       <c r="V9" s="60"/>
       <c r="W9" s="60"/>
       <c r="X9" s="60"/>
       <c r="Y9" s="60"/>
       <c r="Z9" s="60"/>
-      <c r="AA9" s="60"/>
-      <c r="AB9" s="60"/>
-      <c r="AC9" s="13" t="s">
+      <c r="AA9" s="103" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB9" s="112" t="s">
         <v>28</v>
       </c>
-      <c r="AD9" s="103" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE9" s="112" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF9" s="103" t="s">
+      <c r="AC9" s="103" t="s">
         <v>30</v>
       </c>
+      <c r="AD9" s="112"/>
+      <c r="AE9" s="112"/>
+      <c r="AF9" s="112"/>
       <c r="AG9" s="112"/>
       <c r="AH9" s="112"/>
       <c r="AI9" s="112"/>
-      <c r="AJ9" s="112"/>
-      <c r="AK9" s="112"/>
-      <c r="AL9" s="112"/>
+      <c r="AJ9" s="113" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK9" s="113" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL9" s="113" t="s">
+        <v>30</v>
+      </c>
       <c r="AM9" s="113" t="s">
         <v>30</v>
       </c>
@@ -36676,15 +36651,9 @@
       <c r="AQ9" s="113" t="s">
         <v>30</v>
       </c>
-      <c r="AR9" s="113" t="s">
-        <v>30</v>
-      </c>
-      <c r="AS9" s="113" t="s">
-        <v>30</v>
-      </c>
-      <c r="AT9" s="113" t="s">
-        <v>30</v>
-      </c>
+      <c r="AR9" s="112"/>
+      <c r="AS9" s="112"/>
+      <c r="AT9" s="112"/>
       <c r="AU9" s="112"/>
       <c r="AV9" s="112"/>
       <c r="AW9" s="112"/>
@@ -36692,11 +36661,8 @@
       <c r="AY9" s="112"/>
       <c r="AZ9" s="112"/>
       <c r="BA9" s="112"/>
-      <c r="BB9" s="112"/>
-      <c r="BC9" s="112"/>
-      <c r="BD9" s="112"/>
     </row>
-    <row r="10" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.2">
       <c r="D10" s="141"/>
       <c r="E10" s="147"/>
       <c r="F10" s="15">
@@ -36712,130 +36678,121 @@
         <v>43844</v>
       </c>
       <c r="J10" s="55">
-        <v>43844</v>
+        <v>43867</v>
       </c>
       <c r="K10" s="55">
-        <v>43867</v>
+        <v>43949</v>
       </c>
       <c r="L10" s="55">
-        <v>43867</v>
+        <v>43979</v>
       </c>
       <c r="M10" s="55">
-        <v>43949</v>
+        <v>43998</v>
       </c>
       <c r="N10" s="55">
-        <v>43979</v>
+        <v>44017</v>
       </c>
       <c r="O10" s="55">
-        <v>43998</v>
+        <v>44039</v>
       </c>
       <c r="P10" s="55">
-        <v>44017</v>
+        <v>44131</v>
       </c>
       <c r="Q10" s="55">
-        <v>44039</v>
+        <v>44144</v>
       </c>
       <c r="R10" s="55">
-        <v>44131</v>
+        <v>44145</v>
       </c>
       <c r="S10" s="55">
-        <v>44144</v>
-      </c>
-      <c r="T10" s="55">
-        <v>44145</v>
-      </c>
-      <c r="U10" s="55">
         <v>44173</v>
       </c>
+      <c r="T10" s="92">
+        <v>44208</v>
+      </c>
+      <c r="U10" s="92">
+        <v>44236</v>
+      </c>
       <c r="V10" s="92">
-        <v>44208</v>
+        <v>44286</v>
       </c>
       <c r="W10" s="92">
-        <v>44236</v>
+        <v>44306</v>
       </c>
       <c r="X10" s="92">
-        <v>44286</v>
+        <v>44341</v>
       </c>
       <c r="Y10" s="92">
-        <v>44306</v>
+        <v>44378</v>
       </c>
       <c r="Z10" s="92">
-        <v>44341</v>
-      </c>
-      <c r="AA10" s="92">
-        <v>44378</v>
-      </c>
-      <c r="AB10" s="92">
         <v>44410</v>
       </c>
-      <c r="AC10" s="93">
+      <c r="AA10" s="105">
         <v>44488</v>
       </c>
-      <c r="AD10" s="105">
-        <v>44488</v>
+      <c r="AB10" s="107">
+        <v>44515</v>
+      </c>
+      <c r="AC10" s="105">
+        <v>44540</v>
+      </c>
+      <c r="AD10" s="107">
+        <v>44564</v>
       </c>
       <c r="AE10" s="107">
-        <v>44515</v>
-      </c>
-      <c r="AF10" s="105">
-        <v>44540</v>
+        <v>44606</v>
+      </c>
+      <c r="AF10" s="107">
+        <v>44634</v>
       </c>
       <c r="AG10" s="107">
-        <v>44564</v>
+        <v>44690</v>
       </c>
       <c r="AH10" s="107">
-        <v>44606</v>
+        <v>44750</v>
       </c>
       <c r="AI10" s="107">
-        <v>44634</v>
+        <v>44753</v>
       </c>
       <c r="AJ10" s="107">
-        <v>44690</v>
+        <v>44757</v>
       </c>
       <c r="AK10" s="107">
-        <v>44750</v>
+        <v>44813</v>
       </c>
       <c r="AL10" s="107">
-        <v>44753</v>
+        <v>44842</v>
       </c>
       <c r="AM10" s="107">
-        <v>44757</v>
+        <v>44874</v>
       </c>
       <c r="AN10" s="107">
-        <v>44813</v>
+        <v>44910</v>
       </c>
       <c r="AO10" s="107">
-        <v>44842</v>
-      </c>
-      <c r="AP10" s="107">
-        <v>44874</v>
-      </c>
-      <c r="AQ10" s="107">
-        <v>44910</v>
+        <v>44961</v>
+      </c>
+      <c r="AP10" s="24">
+        <v>45006</v>
+      </c>
+      <c r="AQ10" s="15">
+        <v>45040</v>
       </c>
       <c r="AR10" s="107">
-        <v>44961</v>
-      </c>
-      <c r="AS10" s="24">
-        <v>45006</v>
-      </c>
-      <c r="AT10" s="15">
-        <v>45040</v>
-      </c>
-      <c r="AU10" s="107">
         <v>45073</v>
       </c>
+      <c r="AS10" s="107"/>
+      <c r="AT10" s="107"/>
+      <c r="AU10" s="107"/>
       <c r="AV10" s="107"/>
       <c r="AW10" s="107"/>
       <c r="AX10" s="107"/>
       <c r="AY10" s="107"/>
       <c r="AZ10" s="107"/>
       <c r="BA10" s="107"/>
-      <c r="BB10" s="107"/>
-      <c r="BC10" s="107"/>
-      <c r="BD10" s="107"/>
     </row>
-    <row r="11" spans="1:56" s="9" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:53" s="9" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D11" s="142"/>
       <c r="E11" s="148"/>
       <c r="F11" s="19" t="s">
@@ -36901,13 +36858,13 @@
       <c r="Z11" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="AA11" s="19" t="s">
+      <c r="AA11" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="AB11" s="19" t="s">
+      <c r="AB11" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="AC11" s="19" t="s">
+      <c r="AC11" s="106" t="s">
         <v>3</v>
       </c>
       <c r="AD11" s="106" t="s">
@@ -36946,7 +36903,7 @@
       <c r="AO11" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="AP11" s="106" t="s">
+      <c r="AP11" s="25" t="s">
         <v>3</v>
       </c>
       <c r="AQ11" s="106" t="s">
@@ -36955,7 +36912,7 @@
       <c r="AR11" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="AS11" s="25" t="s">
+      <c r="AS11" s="106" t="s">
         <v>3</v>
       </c>
       <c r="AT11" s="106" t="s">
@@ -36982,17 +36939,8 @@
       <c r="BA11" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="BB11" s="106" t="s">
-        <v>3</v>
-      </c>
-      <c r="BC11" s="106" t="s">
-        <v>3</v>
-      </c>
-      <c r="BD11" s="106" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="12" spans="1:56" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:53" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="D12" s="10">
         <v>60</v>
       </c>
@@ -37012,130 +36960,121 @@
         <v>6.62</v>
       </c>
       <c r="J12" s="58">
-        <v>6.62</v>
+        <v>6.6</v>
       </c>
       <c r="K12" s="58">
         <v>6.6</v>
       </c>
       <c r="L12" s="58">
-        <v>6.6</v>
+        <v>6.66</v>
       </c>
       <c r="M12" s="58">
-        <v>6.6</v>
+        <v>6.66</v>
       </c>
       <c r="N12" s="58">
-        <v>6.66</v>
+        <v>6.62</v>
       </c>
       <c r="O12" s="58">
         <v>6.66</v>
       </c>
       <c r="P12" s="58">
-        <v>6.62</v>
+        <v>6.67</v>
       </c>
       <c r="Q12" s="58">
-        <v>6.66</v>
+        <v>6.64</v>
       </c>
       <c r="R12" s="58">
+        <v>6.74</v>
+      </c>
+      <c r="S12" s="58">
+        <v>6.7</v>
+      </c>
+      <c r="T12" s="76">
+        <v>6.59</v>
+      </c>
+      <c r="U12" s="76">
+        <v>6.64</v>
+      </c>
+      <c r="V12" s="76">
         <v>6.67</v>
       </c>
-      <c r="S12" s="58">
-        <v>6.64</v>
-      </c>
-      <c r="T12" s="58">
-        <v>6.74</v>
-      </c>
-      <c r="U12" s="58">
-        <v>6.7</v>
-      </c>
-      <c r="V12" s="76">
+      <c r="W12" s="76">
+        <v>6.67</v>
+      </c>
+      <c r="X12" s="76">
         <v>6.59</v>
       </c>
-      <c r="W12" s="76">
-        <v>6.64</v>
-      </c>
-      <c r="X12" s="76">
-        <v>6.67</v>
-      </c>
       <c r="Y12" s="76">
-        <v>6.67</v>
+        <v>6.63</v>
       </c>
       <c r="Z12" s="76">
-        <v>6.59</v>
-      </c>
-      <c r="AA12" s="76">
         <v>6.63</v>
       </c>
-      <c r="AB12" s="76">
-        <v>6.63</v>
+      <c r="AA12" s="98">
+        <v>6.68</v>
+      </c>
+      <c r="AB12" s="98">
+        <v>6.61</v>
       </c>
       <c r="AC12" s="98">
-        <v>6.66</v>
-      </c>
-      <c r="AD12" s="98">
-        <v>6.68</v>
-      </c>
-      <c r="AE12" s="98">
+        <v>6.65</v>
+      </c>
+      <c r="AD12" s="100">
+        <v>6.57</v>
+      </c>
+      <c r="AE12" s="100">
+        <v>6.65</v>
+      </c>
+      <c r="AF12" s="100">
         <v>6.61</v>
-      </c>
-      <c r="AF12" s="98">
-        <v>6.65</v>
       </c>
       <c r="AG12" s="100">
         <v>6.57</v>
       </c>
       <c r="AH12" s="100">
-        <v>6.65</v>
+        <v>6.63</v>
       </c>
       <c r="AI12" s="100">
         <v>6.61</v>
       </c>
       <c r="AJ12" s="100">
+        <v>6.59</v>
+      </c>
+      <c r="AK12" s="100">
         <v>6.57</v>
       </c>
-      <c r="AK12" s="100">
-        <v>6.63</v>
-      </c>
       <c r="AL12" s="100">
-        <v>6.61</v>
+        <v>6.54</v>
       </c>
       <c r="AM12" s="100">
         <v>6.59</v>
       </c>
       <c r="AN12" s="100">
-        <v>6.57</v>
+        <v>6.61</v>
       </c>
       <c r="AO12" s="100">
-        <v>6.54</v>
-      </c>
-      <c r="AP12" s="100">
-        <v>6.59</v>
+        <v>6.64</v>
+      </c>
+      <c r="AP12" s="62">
+        <v>6.6</v>
       </c>
       <c r="AQ12" s="100">
-        <v>6.61</v>
+        <v>6.68</v>
       </c>
       <c r="AR12" s="100">
-        <v>6.64</v>
-      </c>
-      <c r="AS12" s="62">
         <v>6.6</v>
       </c>
-      <c r="AT12" s="100">
-        <v>6.68</v>
-      </c>
-      <c r="AU12" s="100">
-        <v>6.6</v>
-      </c>
+      <c r="AS12" s="100"/>
+      <c r="AT12" s="100"/>
+      <c r="AU12" s="100"/>
       <c r="AV12" s="100"/>
       <c r="AW12" s="100"/>
       <c r="AX12" s="100"/>
       <c r="AY12" s="100"/>
       <c r="AZ12" s="100"/>
       <c r="BA12" s="100"/>
-      <c r="BB12" s="100"/>
-      <c r="BC12" s="100"/>
-      <c r="BD12" s="100"/>
     </row>
-    <row r="13" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.2">
       <c r="D13" s="14">
         <v>70</v>
       </c>
@@ -37155,130 +37094,121 @@
         <v>5.96</v>
       </c>
       <c r="J13" s="64">
-        <v>5.96</v>
+        <v>5.97</v>
       </c>
       <c r="K13" s="64">
         <v>5.97</v>
       </c>
       <c r="L13" s="64">
-        <v>5.97</v>
+        <v>6.02</v>
       </c>
       <c r="M13" s="64">
         <v>5.97</v>
       </c>
       <c r="N13" s="64">
-        <v>6.02</v>
+        <v>5.94</v>
       </c>
       <c r="O13" s="64">
+        <v>5.99</v>
+      </c>
+      <c r="P13" s="64">
         <v>5.97</v>
-      </c>
-      <c r="P13" s="64">
-        <v>5.94</v>
       </c>
       <c r="Q13" s="64">
         <v>5.99</v>
       </c>
       <c r="R13" s="64">
+        <v>6.01</v>
+      </c>
+      <c r="S13" s="64">
+        <v>6.02</v>
+      </c>
+      <c r="T13" s="77">
+        <v>5.94</v>
+      </c>
+      <c r="U13" s="77">
         <v>5.97</v>
       </c>
-      <c r="S13" s="64">
-        <v>5.99</v>
-      </c>
-      <c r="T13" s="64">
-        <v>6.01</v>
-      </c>
-      <c r="U13" s="64">
-        <v>6.02</v>
-      </c>
       <c r="V13" s="77">
-        <v>5.94</v>
+        <v>5.95</v>
       </c>
       <c r="W13" s="77">
         <v>5.97</v>
       </c>
       <c r="X13" s="77">
+        <v>5.97</v>
+      </c>
+      <c r="Y13" s="77">
+        <v>5.98</v>
+      </c>
+      <c r="Z13" s="77">
+        <v>5.98</v>
+      </c>
+      <c r="AA13" s="50">
+        <v>5.91</v>
+      </c>
+      <c r="AB13" s="50">
         <v>5.95</v>
       </c>
-      <c r="Y13" s="77">
-        <v>5.97</v>
-      </c>
-      <c r="Z13" s="77">
-        <v>5.97</v>
-      </c>
-      <c r="AA13" s="77">
+      <c r="AC13" s="50">
+        <v>5.99</v>
+      </c>
+      <c r="AD13" s="101">
+        <v>5.94</v>
+      </c>
+      <c r="AE13" s="101">
+        <v>5.92</v>
+      </c>
+      <c r="AF13" s="101">
+        <v>5.91</v>
+      </c>
+      <c r="AG13" s="101">
+        <v>5.86</v>
+      </c>
+      <c r="AH13" s="101">
+        <v>5.94</v>
+      </c>
+      <c r="AI13" s="101">
+        <v>5.92</v>
+      </c>
+      <c r="AJ13" s="101">
         <v>5.98</v>
       </c>
-      <c r="AB13" s="77">
-        <v>5.98</v>
-      </c>
-      <c r="AC13" s="50">
+      <c r="AK13" s="101">
+        <v>5.92</v>
+      </c>
+      <c r="AL13" s="101">
+        <v>5.88</v>
+      </c>
+      <c r="AM13" s="101">
+        <v>5.88</v>
+      </c>
+      <c r="AN13" s="101">
+        <v>5.89</v>
+      </c>
+      <c r="AO13" s="101">
+        <v>5.93</v>
+      </c>
+      <c r="AP13" s="63">
         <v>5.9</v>
-      </c>
-      <c r="AD13" s="50">
-        <v>5.91</v>
-      </c>
-      <c r="AE13" s="50">
-        <v>5.95</v>
-      </c>
-      <c r="AF13" s="50">
-        <v>5.99</v>
-      </c>
-      <c r="AG13" s="101">
-        <v>5.94</v>
-      </c>
-      <c r="AH13" s="101">
-        <v>5.92</v>
-      </c>
-      <c r="AI13" s="101">
-        <v>5.91</v>
-      </c>
-      <c r="AJ13" s="101">
-        <v>5.86</v>
-      </c>
-      <c r="AK13" s="101">
-        <v>5.94</v>
-      </c>
-      <c r="AL13" s="101">
-        <v>5.92</v>
-      </c>
-      <c r="AM13" s="101">
-        <v>5.98</v>
-      </c>
-      <c r="AN13" s="101">
-        <v>5.92</v>
-      </c>
-      <c r="AO13" s="101">
-        <v>5.88</v>
-      </c>
-      <c r="AP13" s="101">
-        <v>5.88</v>
       </c>
       <c r="AQ13" s="101">
         <v>5.89</v>
       </c>
       <c r="AR13" s="101">
-        <v>5.93</v>
-      </c>
-      <c r="AS13" s="63">
-        <v>5.9</v>
-      </c>
-      <c r="AT13" s="101">
-        <v>5.89</v>
-      </c>
-      <c r="AU13" s="101">
         <v>5.86</v>
       </c>
+      <c r="AS13" s="101"/>
+      <c r="AT13" s="101"/>
+      <c r="AU13" s="101"/>
       <c r="AV13" s="101"/>
       <c r="AW13" s="101"/>
       <c r="AX13" s="101"/>
       <c r="AY13" s="101"/>
       <c r="AZ13" s="101"/>
       <c r="BA13" s="101"/>
-      <c r="BB13" s="101"/>
-      <c r="BC13" s="101"/>
-      <c r="BD13" s="101"/>
     </row>
-    <row r="14" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.2">
       <c r="D14" s="14">
         <v>80</v>
       </c>
@@ -37298,130 +37228,121 @@
         <v>5.41</v>
       </c>
       <c r="J14" s="64">
+        <v>5.4</v>
+      </c>
+      <c r="K14" s="64">
+        <v>5.43</v>
+      </c>
+      <c r="L14" s="64">
+        <v>5.42</v>
+      </c>
+      <c r="M14" s="64">
         <v>5.41</v>
       </c>
-      <c r="K14" s="64">
-        <v>5.4</v>
-      </c>
-      <c r="L14" s="64">
-        <v>5.4</v>
-      </c>
-      <c r="M14" s="64">
-        <v>5.43</v>
-      </c>
       <c r="N14" s="64">
+        <v>5.39</v>
+      </c>
+      <c r="O14" s="64">
+        <v>5.39</v>
+      </c>
+      <c r="P14" s="64">
         <v>5.42</v>
       </c>
-      <c r="O14" s="64">
+      <c r="Q14" s="64">
+        <v>5.42</v>
+      </c>
+      <c r="R14" s="64">
+        <v>5.45</v>
+      </c>
+      <c r="S14" s="64">
+        <v>5.39</v>
+      </c>
+      <c r="T14" s="77">
+        <v>5.35</v>
+      </c>
+      <c r="U14" s="77">
+        <v>5.39</v>
+      </c>
+      <c r="V14" s="77">
+        <v>5.37</v>
+      </c>
+      <c r="W14" s="77">
         <v>5.41</v>
-      </c>
-      <c r="P14" s="64">
-        <v>5.39</v>
-      </c>
-      <c r="Q14" s="64">
-        <v>5.39</v>
-      </c>
-      <c r="R14" s="64">
-        <v>5.42</v>
-      </c>
-      <c r="S14" s="64">
-        <v>5.42</v>
-      </c>
-      <c r="T14" s="64">
-        <v>5.45</v>
-      </c>
-      <c r="U14" s="64">
-        <v>5.39</v>
-      </c>
-      <c r="V14" s="77">
-        <v>5.35</v>
-      </c>
-      <c r="W14" s="77">
-        <v>5.39</v>
       </c>
       <c r="X14" s="77">
         <v>5.37</v>
       </c>
       <c r="Y14" s="77">
+        <v>5.4</v>
+      </c>
+      <c r="Z14" s="77">
+        <v>5.4</v>
+      </c>
+      <c r="AA14" s="50">
+        <v>5.36</v>
+      </c>
+      <c r="AB14" s="50">
         <v>5.41</v>
       </c>
-      <c r="Z14" s="77">
-        <v>5.37</v>
-      </c>
-      <c r="AA14" s="77">
+      <c r="AC14" s="50">
+        <v>5.36</v>
+      </c>
+      <c r="AD14" s="101">
         <v>5.4</v>
       </c>
-      <c r="AB14" s="77">
-        <v>5.4</v>
-      </c>
-      <c r="AC14" s="50">
-        <v>5.38</v>
-      </c>
-      <c r="AD14" s="50">
-        <v>5.36</v>
-      </c>
-      <c r="AE14" s="50">
-        <v>5.41</v>
-      </c>
-      <c r="AF14" s="50">
+      <c r="AE14" s="101">
+        <v>5.34</v>
+      </c>
+      <c r="AF14" s="101">
         <v>5.36</v>
       </c>
       <c r="AG14" s="101">
         <v>5.4</v>
       </c>
       <c r="AH14" s="101">
+        <v>5.38</v>
+      </c>
+      <c r="AI14" s="101">
+        <v>5.45</v>
+      </c>
+      <c r="AJ14" s="101">
+        <v>5.39</v>
+      </c>
+      <c r="AK14" s="101">
+        <v>5.36</v>
+      </c>
+      <c r="AL14" s="101">
         <v>5.34</v>
       </c>
-      <c r="AI14" s="101">
+      <c r="AM14" s="101">
+        <v>5.35</v>
+      </c>
+      <c r="AN14" s="101">
+        <v>5.32</v>
+      </c>
+      <c r="AO14" s="101">
+        <v>5.38</v>
+      </c>
+      <c r="AP14" s="63">
+        <v>5.34</v>
+      </c>
+      <c r="AQ14" s="101">
         <v>5.36</v>
       </c>
-      <c r="AJ14" s="101">
-        <v>5.4</v>
-      </c>
-      <c r="AK14" s="101">
-        <v>5.38</v>
-      </c>
-      <c r="AL14" s="101">
-        <v>5.45</v>
-      </c>
-      <c r="AM14" s="101">
-        <v>5.39</v>
-      </c>
-      <c r="AN14" s="101">
-        <v>5.36</v>
-      </c>
-      <c r="AO14" s="101">
-        <v>5.34</v>
-      </c>
-      <c r="AP14" s="101">
-        <v>5.35</v>
-      </c>
-      <c r="AQ14" s="101">
-        <v>5.32</v>
-      </c>
       <c r="AR14" s="101">
-        <v>5.38</v>
-      </c>
-      <c r="AS14" s="63">
-        <v>5.34</v>
-      </c>
-      <c r="AT14" s="101">
-        <v>5.36</v>
-      </c>
-      <c r="AU14" s="101">
         <v>5.31</v>
       </c>
+      <c r="AS14" s="101"/>
+      <c r="AT14" s="101"/>
+      <c r="AU14" s="101"/>
       <c r="AV14" s="101"/>
       <c r="AW14" s="101"/>
       <c r="AX14" s="101"/>
       <c r="AY14" s="101"/>
       <c r="AZ14" s="101"/>
       <c r="BA14" s="101"/>
-      <c r="BB14" s="101"/>
-      <c r="BC14" s="101"/>
-      <c r="BD14" s="101"/>
     </row>
-    <row r="15" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.2">
       <c r="D15" s="14">
         <v>90</v>
       </c>
@@ -37441,130 +37362,121 @@
         <v>4.99</v>
       </c>
       <c r="J15" s="64">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="K15" s="64">
+        <v>4.96</v>
+      </c>
+      <c r="L15" s="64">
+        <v>4.97</v>
+      </c>
+      <c r="M15" s="64">
+        <v>4.95</v>
+      </c>
+      <c r="N15" s="64">
+        <v>5</v>
+      </c>
+      <c r="O15" s="64">
         <v>4.99</v>
       </c>
-      <c r="K15" s="64">
+      <c r="P15" s="64">
+        <v>4.97</v>
+      </c>
+      <c r="Q15" s="64">
+        <v>4.96</v>
+      </c>
+      <c r="R15" s="64">
+        <v>5</v>
+      </c>
+      <c r="S15" s="64">
+        <v>4.97</v>
+      </c>
+      <c r="T15" s="77">
+        <v>4.97</v>
+      </c>
+      <c r="U15" s="77">
         <v>4.9800000000000004</v>
       </c>
-      <c r="L15" s="64">
+      <c r="V15" s="77">
         <v>4.9800000000000004</v>
       </c>
-      <c r="M15" s="64">
-        <v>4.96</v>
-      </c>
-      <c r="N15" s="64">
+      <c r="W15" s="77">
+        <v>5</v>
+      </c>
+      <c r="X15" s="77">
+        <v>4.92</v>
+      </c>
+      <c r="Y15" s="77">
         <v>4.97</v>
       </c>
-      <c r="O15" s="64">
+      <c r="Z15" s="77">
+        <v>4.97</v>
+      </c>
+      <c r="AA15" s="50">
+        <v>4.93</v>
+      </c>
+      <c r="AB15" s="50">
         <v>4.95</v>
       </c>
-      <c r="P15" s="64">
-        <v>5</v>
-      </c>
-      <c r="Q15" s="64">
-        <v>4.99</v>
-      </c>
-      <c r="R15" s="64">
+      <c r="AC15" s="50">
         <v>4.97</v>
       </c>
-      <c r="S15" s="64">
-        <v>4.96</v>
-      </c>
-      <c r="T15" s="64">
-        <v>5</v>
-      </c>
-      <c r="U15" s="64">
+      <c r="AD15" s="101">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AE15" s="101">
+        <v>4.93</v>
+      </c>
+      <c r="AF15" s="101">
+        <v>4.93</v>
+      </c>
+      <c r="AG15" s="101">
+        <v>4.92</v>
+      </c>
+      <c r="AH15" s="101">
         <v>4.97</v>
       </c>
-      <c r="V15" s="77">
+      <c r="AI15" s="101">
+        <v>5.01</v>
+      </c>
+      <c r="AJ15" s="101">
         <v>4.97</v>
       </c>
-      <c r="W15" s="77">
-        <v>4.9800000000000004</v>
-      </c>
-      <c r="X15" s="77">
-        <v>4.9800000000000004</v>
-      </c>
-      <c r="Y15" s="77">
-        <v>5</v>
-      </c>
-      <c r="Z15" s="77">
+      <c r="AK15" s="101">
+        <v>4.95</v>
+      </c>
+      <c r="AL15" s="101">
         <v>4.92</v>
       </c>
-      <c r="AA15" s="77">
-        <v>4.97</v>
-      </c>
-      <c r="AB15" s="77">
-        <v>4.97</v>
-      </c>
-      <c r="AC15" s="50">
+      <c r="AM15" s="101">
+        <v>4.92</v>
+      </c>
+      <c r="AN15" s="101">
+        <v>4.88</v>
+      </c>
+      <c r="AO15" s="101">
         <v>4.95</v>
       </c>
-      <c r="AD15" s="50">
+      <c r="AP15" s="63">
         <v>4.93</v>
       </c>
-      <c r="AE15" s="50">
-        <v>4.95</v>
-      </c>
-      <c r="AF15" s="50">
-        <v>4.97</v>
-      </c>
-      <c r="AG15" s="101">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="AH15" s="101">
+      <c r="AQ15" s="101">
+        <v>4.91</v>
+      </c>
+      <c r="AR15" s="101">
         <v>4.93</v>
       </c>
-      <c r="AI15" s="101">
-        <v>4.93</v>
-      </c>
-      <c r="AJ15" s="101">
-        <v>4.92</v>
-      </c>
-      <c r="AK15" s="101">
-        <v>4.97</v>
-      </c>
-      <c r="AL15" s="101">
-        <v>5.01</v>
-      </c>
-      <c r="AM15" s="101">
-        <v>4.97</v>
-      </c>
-      <c r="AN15" s="101">
-        <v>4.95</v>
-      </c>
-      <c r="AO15" s="101">
-        <v>4.92</v>
-      </c>
-      <c r="AP15" s="101">
-        <v>4.92</v>
-      </c>
-      <c r="AQ15" s="101">
-        <v>4.88</v>
-      </c>
-      <c r="AR15" s="101">
-        <v>4.95</v>
-      </c>
-      <c r="AS15" s="63">
-        <v>4.93</v>
-      </c>
-      <c r="AT15" s="101">
-        <v>4.91</v>
-      </c>
-      <c r="AU15" s="101">
-        <v>4.93</v>
-      </c>
+      <c r="AS15" s="101"/>
+      <c r="AT15" s="101"/>
+      <c r="AU15" s="101"/>
       <c r="AV15" s="101"/>
       <c r="AW15" s="101"/>
       <c r="AX15" s="101"/>
       <c r="AY15" s="101"/>
       <c r="AZ15" s="101"/>
       <c r="BA15" s="101"/>
-      <c r="BB15" s="101"/>
-      <c r="BC15" s="101"/>
-      <c r="BD15" s="101"/>
     </row>
-    <row r="16" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.2">
       <c r="D16" s="14">
         <v>100</v>
       </c>
@@ -37584,130 +37496,121 @@
         <v>4.71</v>
       </c>
       <c r="J16" s="64">
+        <v>4.7</v>
+      </c>
+      <c r="K16" s="64">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="L16" s="64">
         <v>4.71</v>
       </c>
-      <c r="K16" s="64">
+      <c r="M16" s="64">
+        <v>4.68</v>
+      </c>
+      <c r="N16" s="64">
+        <v>4.67</v>
+      </c>
+      <c r="O16" s="64">
+        <v>4.72</v>
+      </c>
+      <c r="P16" s="64">
         <v>4.7</v>
       </c>
-      <c r="L16" s="64">
+      <c r="Q16" s="64">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="R16" s="64">
+        <v>4.74</v>
+      </c>
+      <c r="S16" s="64">
         <v>4.7</v>
       </c>
-      <c r="M16" s="64">
+      <c r="T16" s="77">
+        <v>4.67</v>
+      </c>
+      <c r="U16" s="77">
+        <v>4.68</v>
+      </c>
+      <c r="V16" s="77">
+        <v>4.7</v>
+      </c>
+      <c r="W16" s="77">
+        <v>4.7</v>
+      </c>
+      <c r="X16" s="77">
         <v>4.6900000000000004</v>
       </c>
-      <c r="N16" s="64">
-        <v>4.71</v>
-      </c>
-      <c r="O16" s="64">
+      <c r="Y16" s="77">
         <v>4.68</v>
-      </c>
-      <c r="P16" s="64">
-        <v>4.67</v>
-      </c>
-      <c r="Q16" s="64">
-        <v>4.72</v>
-      </c>
-      <c r="R16" s="64">
-        <v>4.7</v>
-      </c>
-      <c r="S16" s="64">
-        <v>4.6900000000000004</v>
-      </c>
-      <c r="T16" s="64">
-        <v>4.74</v>
-      </c>
-      <c r="U16" s="64">
-        <v>4.7</v>
-      </c>
-      <c r="V16" s="77">
-        <v>4.67</v>
-      </c>
-      <c r="W16" s="77">
-        <v>4.68</v>
-      </c>
-      <c r="X16" s="77">
-        <v>4.7</v>
-      </c>
-      <c r="Y16" s="77">
-        <v>4.7</v>
       </c>
       <c r="Z16" s="77">
         <v>4.6900000000000004</v>
       </c>
-      <c r="AA16" s="77">
+      <c r="AA16" s="50">
         <v>4.68</v>
       </c>
-      <c r="AB16" s="77">
+      <c r="AB16" s="50">
+        <v>4.7</v>
+      </c>
+      <c r="AC16" s="50">
+        <v>4.7</v>
+      </c>
+      <c r="AD16" s="101">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="AE16" s="101">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="AF16" s="101">
+        <v>4.67</v>
+      </c>
+      <c r="AG16" s="101">
+        <v>4.68</v>
+      </c>
+      <c r="AH16" s="101">
+        <v>4.67</v>
+      </c>
+      <c r="AI16" s="101">
         <v>4.6900000000000004</v>
       </c>
-      <c r="AC16" s="50">
+      <c r="AJ16" s="101">
         <v>4.66</v>
       </c>
-      <c r="AD16" s="50">
+      <c r="AK16" s="101">
         <v>4.68</v>
       </c>
-      <c r="AE16" s="50">
-        <v>4.7</v>
-      </c>
-      <c r="AF16" s="50">
-        <v>4.7</v>
-      </c>
-      <c r="AG16" s="101">
+      <c r="AL16" s="101">
         <v>4.6500000000000004</v>
       </c>
-      <c r="AH16" s="101">
-        <v>4.6500000000000004</v>
-      </c>
-      <c r="AI16" s="101">
+      <c r="AM16" s="101">
         <v>4.67</v>
       </c>
-      <c r="AJ16" s="101">
+      <c r="AN16" s="101">
+        <v>4.66</v>
+      </c>
+      <c r="AO16" s="101">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="AP16" s="63">
         <v>4.68</v>
-      </c>
-      <c r="AK16" s="101">
-        <v>4.67</v>
-      </c>
-      <c r="AL16" s="101">
-        <v>4.6900000000000004</v>
-      </c>
-      <c r="AM16" s="101">
-        <v>4.66</v>
-      </c>
-      <c r="AN16" s="101">
-        <v>4.68</v>
-      </c>
-      <c r="AO16" s="101">
-        <v>4.6500000000000004</v>
-      </c>
-      <c r="AP16" s="101">
-        <v>4.67</v>
       </c>
       <c r="AQ16" s="101">
         <v>4.66</v>
       </c>
       <c r="AR16" s="101">
-        <v>4.6900000000000004</v>
-      </c>
-      <c r="AS16" s="63">
-        <v>4.68</v>
-      </c>
-      <c r="AT16" s="101">
-        <v>4.66</v>
-      </c>
-      <c r="AU16" s="101">
         <v>4.67</v>
       </c>
+      <c r="AS16" s="101"/>
+      <c r="AT16" s="101"/>
+      <c r="AU16" s="101"/>
       <c r="AV16" s="101"/>
       <c r="AW16" s="101"/>
       <c r="AX16" s="101"/>
       <c r="AY16" s="101"/>
       <c r="AZ16" s="101"/>
       <c r="BA16" s="101"/>
-      <c r="BB16" s="101"/>
-      <c r="BC16" s="101"/>
-      <c r="BD16" s="101"/>
     </row>
-    <row r="17" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:53" x14ac:dyDescent="0.2">
       <c r="D17" s="14">
         <v>110</v>
       </c>
@@ -37730,16 +37633,16 @@
         <v>4.3499999999999996</v>
       </c>
       <c r="K17" s="64">
-        <v>4.3499999999999996</v>
+        <v>4.34</v>
       </c>
       <c r="L17" s="64">
-        <v>4.3499999999999996</v>
+        <v>4.33</v>
       </c>
       <c r="M17" s="64">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="N17" s="64">
         <v>4.34</v>
-      </c>
-      <c r="N17" s="64">
-        <v>4.33</v>
       </c>
       <c r="O17" s="64">
         <v>4.3600000000000003</v>
@@ -37748,109 +37651,100 @@
         <v>4.34</v>
       </c>
       <c r="Q17" s="64">
-        <v>4.3600000000000003</v>
+        <v>4.34</v>
       </c>
       <c r="R17" s="64">
+        <v>4.38</v>
+      </c>
+      <c r="S17" s="64">
+        <v>4.33</v>
+      </c>
+      <c r="T17" s="77">
+        <v>4.33</v>
+      </c>
+      <c r="U17" s="77">
+        <v>4.33</v>
+      </c>
+      <c r="V17" s="77">
         <v>4.34</v>
       </c>
-      <c r="S17" s="64">
+      <c r="W17" s="77">
         <v>4.34</v>
       </c>
-      <c r="T17" s="64">
-        <v>4.38</v>
-      </c>
-      <c r="U17" s="64">
-        <v>4.33</v>
-      </c>
-      <c r="V17" s="77">
-        <v>4.33</v>
-      </c>
-      <c r="W17" s="77">
-        <v>4.33</v>
-      </c>
       <c r="X17" s="77">
-        <v>4.34</v>
+        <v>4.32</v>
       </c>
       <c r="Y17" s="77">
         <v>4.34</v>
       </c>
       <c r="Z17" s="77">
+        <v>4.33</v>
+      </c>
+      <c r="AA17" s="50">
         <v>4.32</v>
       </c>
-      <c r="AA17" s="77">
-        <v>4.34</v>
-      </c>
-      <c r="AB17" s="77">
+      <c r="AB17" s="50">
         <v>4.33</v>
       </c>
       <c r="AC17" s="50">
+        <v>4.32</v>
+      </c>
+      <c r="AD17" s="101">
         <v>4.3099999999999996</v>
       </c>
-      <c r="AD17" s="50">
+      <c r="AE17" s="101">
         <v>4.32</v>
       </c>
-      <c r="AE17" s="50">
+      <c r="AF17" s="101">
         <v>4.33</v>
-      </c>
-      <c r="AF17" s="50">
-        <v>4.32</v>
       </c>
       <c r="AG17" s="101">
         <v>4.3099999999999996</v>
       </c>
       <c r="AH17" s="101">
+        <v>4.33</v>
+      </c>
+      <c r="AI17" s="101">
+        <v>4.34</v>
+      </c>
+      <c r="AJ17" s="101">
         <v>4.32</v>
       </c>
-      <c r="AI17" s="101">
-        <v>4.33</v>
-      </c>
-      <c r="AJ17" s="101">
+      <c r="AK17" s="101">
+        <v>4.34</v>
+      </c>
+      <c r="AL17" s="101">
         <v>4.3099999999999996</v>
-      </c>
-      <c r="AK17" s="101">
-        <v>4.33</v>
-      </c>
-      <c r="AL17" s="101">
-        <v>4.34</v>
       </c>
       <c r="AM17" s="101">
         <v>4.32</v>
       </c>
       <c r="AN17" s="101">
-        <v>4.34</v>
+        <v>4.29</v>
       </c>
       <c r="AO17" s="101">
+        <v>4.32</v>
+      </c>
+      <c r="AP17" s="63">
         <v>4.3099999999999996</v>
       </c>
-      <c r="AP17" s="101">
+      <c r="AQ17" s="101">
         <v>4.32</v>
       </c>
-      <c r="AQ17" s="101">
-        <v>4.29</v>
-      </c>
       <c r="AR17" s="101">
-        <v>4.32</v>
-      </c>
-      <c r="AS17" s="63">
         <v>4.3099999999999996</v>
       </c>
-      <c r="AT17" s="101">
-        <v>4.32</v>
-      </c>
-      <c r="AU17" s="101">
-        <v>4.3099999999999996</v>
-      </c>
+      <c r="AS17" s="101"/>
+      <c r="AT17" s="101"/>
+      <c r="AU17" s="101"/>
       <c r="AV17" s="101"/>
       <c r="AW17" s="101"/>
       <c r="AX17" s="101"/>
       <c r="AY17" s="101"/>
       <c r="AZ17" s="101"/>
       <c r="BA17" s="101"/>
-      <c r="BB17" s="101"/>
-      <c r="BC17" s="101"/>
-      <c r="BD17" s="101"/>
     </row>
-    <row r="18" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:53" x14ac:dyDescent="0.2">
       <c r="D18" s="14">
         <v>120</v>
       </c>
@@ -37870,130 +37764,121 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="J18" s="64">
-        <v>4.0999999999999996</v>
+        <v>4.07</v>
       </c>
       <c r="K18" s="64">
         <v>4.07</v>
       </c>
       <c r="L18" s="64">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="M18" s="64">
+        <v>4.08</v>
+      </c>
+      <c r="N18" s="64">
         <v>4.07</v>
       </c>
-      <c r="M18" s="64">
+      <c r="O18" s="64">
+        <v>4.05</v>
+      </c>
+      <c r="P18" s="64">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="Q18" s="64">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="R18" s="64">
+        <v>4.08</v>
+      </c>
+      <c r="S18" s="64">
+        <v>4.05</v>
+      </c>
+      <c r="T18" s="77">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="U18" s="77">
+        <v>4.03</v>
+      </c>
+      <c r="V18" s="77">
+        <v>4.08</v>
+      </c>
+      <c r="W18" s="77">
         <v>4.07</v>
       </c>
-      <c r="N18" s="64">
+      <c r="X18" s="77">
+        <v>4.07</v>
+      </c>
+      <c r="Y18" s="77">
+        <v>4.04</v>
+      </c>
+      <c r="Z18" s="77">
+        <v>4.05</v>
+      </c>
+      <c r="AA18" s="50">
+        <v>4.01</v>
+      </c>
+      <c r="AB18" s="50">
+        <v>4.04</v>
+      </c>
+      <c r="AC18" s="50">
+        <v>4.03</v>
+      </c>
+      <c r="AD18" s="101">
         <v>4.0599999999999996</v>
       </c>
-      <c r="O18" s="64">
+      <c r="AE18" s="101">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="AF18" s="101">
+        <v>4.05</v>
+      </c>
+      <c r="AG18" s="101">
+        <v>4.05</v>
+      </c>
+      <c r="AH18" s="101">
+        <v>4.04</v>
+      </c>
+      <c r="AI18" s="101">
+        <v>4.09</v>
+      </c>
+      <c r="AJ18" s="101">
+        <v>4.09</v>
+      </c>
+      <c r="AK18" s="101">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="AL18" s="101">
+        <v>4.01</v>
+      </c>
+      <c r="AM18" s="101">
+        <v>4.01</v>
+      </c>
+      <c r="AN18" s="101">
+        <v>4.01</v>
+      </c>
+      <c r="AO18" s="101">
         <v>4.08</v>
       </c>
-      <c r="P18" s="64">
-        <v>4.07</v>
-      </c>
-      <c r="Q18" s="64">
-        <v>4.05</v>
-      </c>
-      <c r="R18" s="64">
-        <v>4.0599999999999996</v>
-      </c>
-      <c r="S18" s="64">
-        <v>4.0599999999999996</v>
-      </c>
-      <c r="T18" s="64">
-        <v>4.08</v>
-      </c>
-      <c r="U18" s="64">
-        <v>4.05</v>
-      </c>
-      <c r="V18" s="77">
-        <v>4.0599999999999996</v>
-      </c>
-      <c r="W18" s="77">
+      <c r="AP18" s="63">
+        <v>4.04</v>
+      </c>
+      <c r="AQ18" s="101">
         <v>4.03</v>
       </c>
-      <c r="X18" s="77">
-        <v>4.08</v>
-      </c>
-      <c r="Y18" s="77">
-        <v>4.07</v>
-      </c>
-      <c r="Z18" s="77">
-        <v>4.07</v>
-      </c>
-      <c r="AA18" s="77">
-        <v>4.04</v>
-      </c>
-      <c r="AB18" s="77">
-        <v>4.05</v>
-      </c>
-      <c r="AC18" s="50">
+      <c r="AR18" s="101">
         <v>4.0199999999999996</v>
       </c>
-      <c r="AD18" s="50">
-        <v>4.01</v>
-      </c>
-      <c r="AE18" s="50">
-        <v>4.04</v>
-      </c>
-      <c r="AF18" s="50">
-        <v>4.03</v>
-      </c>
-      <c r="AG18" s="101">
-        <v>4.0599999999999996</v>
-      </c>
-      <c r="AH18" s="101">
-        <v>4.0199999999999996</v>
-      </c>
-      <c r="AI18" s="101">
-        <v>4.05</v>
-      </c>
-      <c r="AJ18" s="101">
-        <v>4.05</v>
-      </c>
-      <c r="AK18" s="101">
-        <v>4.04</v>
-      </c>
-      <c r="AL18" s="101">
-        <v>4.09</v>
-      </c>
-      <c r="AM18" s="101">
-        <v>4.09</v>
-      </c>
-      <c r="AN18" s="101">
-        <v>4.0599999999999996</v>
-      </c>
-      <c r="AO18" s="101">
-        <v>4.01</v>
-      </c>
-      <c r="AP18" s="101">
-        <v>4.01</v>
-      </c>
-      <c r="AQ18" s="101">
-        <v>4.01</v>
-      </c>
-      <c r="AR18" s="101">
-        <v>4.08</v>
-      </c>
-      <c r="AS18" s="63">
-        <v>4.04</v>
-      </c>
-      <c r="AT18" s="101">
-        <v>4.03</v>
-      </c>
-      <c r="AU18" s="101">
-        <v>4.0199999999999996</v>
-      </c>
+      <c r="AS18" s="101"/>
+      <c r="AT18" s="101"/>
+      <c r="AU18" s="101"/>
       <c r="AV18" s="101"/>
       <c r="AW18" s="101"/>
       <c r="AX18" s="101"/>
       <c r="AY18" s="101"/>
       <c r="AZ18" s="101"/>
       <c r="BA18" s="101"/>
-      <c r="BB18" s="101"/>
-      <c r="BC18" s="101"/>
-      <c r="BD18" s="101"/>
     </row>
-    <row r="19" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:53" x14ac:dyDescent="0.2">
       <c r="D19" s="14">
         <v>130</v>
       </c>
@@ -38013,130 +37898,121 @@
         <v>3.83</v>
       </c>
       <c r="J19" s="64">
-        <v>3.83</v>
+        <v>3.81</v>
       </c>
       <c r="K19" s="64">
-        <v>3.81</v>
+        <v>3.8</v>
       </c>
       <c r="L19" s="64">
-        <v>3.81</v>
+        <v>3.84</v>
       </c>
       <c r="M19" s="64">
         <v>3.8</v>
       </c>
       <c r="N19" s="64">
-        <v>3.84</v>
+        <v>3.8</v>
       </c>
       <c r="O19" s="64">
-        <v>3.8</v>
+        <v>3.79</v>
       </c>
       <c r="P19" s="64">
-        <v>3.8</v>
+        <v>3.82</v>
       </c>
       <c r="Q19" s="64">
         <v>3.79</v>
       </c>
       <c r="R19" s="64">
-        <v>3.82</v>
+        <v>3.83</v>
       </c>
       <c r="S19" s="64">
+        <v>3.8</v>
+      </c>
+      <c r="T19" s="77">
+        <v>3.78</v>
+      </c>
+      <c r="U19" s="77">
+        <v>3.78</v>
+      </c>
+      <c r="V19" s="77">
+        <v>3.81</v>
+      </c>
+      <c r="W19" s="77">
+        <v>3.8</v>
+      </c>
+      <c r="X19" s="77">
+        <v>3.8</v>
+      </c>
+      <c r="Y19" s="77">
+        <v>3.81</v>
+      </c>
+      <c r="Z19" s="77">
+        <v>3.83</v>
+      </c>
+      <c r="AA19" s="50">
+        <v>3.76</v>
+      </c>
+      <c r="AB19" s="50">
         <v>3.79</v>
       </c>
-      <c r="T19" s="64">
-        <v>3.83</v>
-      </c>
-      <c r="U19" s="64">
-        <v>3.8</v>
-      </c>
-      <c r="V19" s="77">
+      <c r="AC19" s="50">
         <v>3.78</v>
       </c>
-      <c r="W19" s="77">
+      <c r="AD19" s="101">
+        <v>3.77</v>
+      </c>
+      <c r="AE19" s="101">
         <v>3.78</v>
       </c>
-      <c r="X19" s="77">
-        <v>3.81</v>
-      </c>
-      <c r="Y19" s="77">
-        <v>3.8</v>
-      </c>
-      <c r="Z19" s="77">
-        <v>3.8</v>
-      </c>
-      <c r="AA19" s="77">
-        <v>3.81</v>
-      </c>
-      <c r="AB19" s="77">
-        <v>3.83</v>
-      </c>
-      <c r="AC19" s="50">
-        <v>3.75</v>
-      </c>
-      <c r="AD19" s="50">
+      <c r="AF19" s="101">
         <v>3.76</v>
-      </c>
-      <c r="AE19" s="50">
-        <v>3.79</v>
-      </c>
-      <c r="AF19" s="50">
-        <v>3.78</v>
       </c>
       <c r="AG19" s="101">
         <v>3.77</v>
       </c>
       <c r="AH19" s="101">
+        <v>3.77</v>
+      </c>
+      <c r="AI19" s="101">
+        <v>3.83</v>
+      </c>
+      <c r="AJ19" s="101">
+        <v>3.82</v>
+      </c>
+      <c r="AK19" s="101">
+        <v>3.82</v>
+      </c>
+      <c r="AL19" s="101">
+        <v>3.74</v>
+      </c>
+      <c r="AM19" s="101">
+        <v>3.79</v>
+      </c>
+      <c r="AN19" s="101">
+        <v>3.74</v>
+      </c>
+      <c r="AO19" s="101">
         <v>3.78</v>
       </c>
-      <c r="AI19" s="101">
+      <c r="AP19" s="63">
         <v>3.76</v>
       </c>
-      <c r="AJ19" s="101">
-        <v>3.77</v>
-      </c>
-      <c r="AK19" s="101">
-        <v>3.77</v>
-      </c>
-      <c r="AL19" s="101">
-        <v>3.83</v>
-      </c>
-      <c r="AM19" s="101">
-        <v>3.82</v>
-      </c>
-      <c r="AN19" s="101">
-        <v>3.82</v>
-      </c>
-      <c r="AO19" s="101">
-        <v>3.74</v>
-      </c>
-      <c r="AP19" s="101">
-        <v>3.79</v>
-      </c>
       <c r="AQ19" s="101">
-        <v>3.74</v>
+        <v>3.75</v>
       </c>
       <c r="AR19" s="101">
-        <v>3.78</v>
-      </c>
-      <c r="AS19" s="63">
-        <v>3.76</v>
-      </c>
-      <c r="AT19" s="101">
         <v>3.75</v>
       </c>
-      <c r="AU19" s="101">
-        <v>3.75</v>
-      </c>
+      <c r="AS19" s="101"/>
+      <c r="AT19" s="101"/>
+      <c r="AU19" s="101"/>
       <c r="AV19" s="101"/>
       <c r="AW19" s="101"/>
       <c r="AX19" s="101"/>
       <c r="AY19" s="101"/>
       <c r="AZ19" s="101"/>
       <c r="BA19" s="101"/>
-      <c r="BB19" s="101"/>
-      <c r="BC19" s="101"/>
-      <c r="BD19" s="101"/>
     </row>
-    <row r="20" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:53" x14ac:dyDescent="0.2">
       <c r="D20" s="14">
         <v>140</v>
       </c>
@@ -38156,130 +38032,121 @@
         <v>3.63</v>
       </c>
       <c r="J20" s="64">
-        <v>3.63</v>
+        <v>3.57</v>
       </c>
       <c r="K20" s="64">
-        <v>3.57</v>
+        <v>3.61</v>
       </c>
       <c r="L20" s="64">
-        <v>3.57</v>
+        <v>3.6</v>
       </c>
       <c r="M20" s="64">
-        <v>3.61</v>
+        <v>3.6</v>
       </c>
       <c r="N20" s="64">
         <v>3.6</v>
       </c>
       <c r="O20" s="64">
+        <v>3.59</v>
+      </c>
+      <c r="P20" s="64">
+        <v>3.61</v>
+      </c>
+      <c r="Q20" s="64">
         <v>3.6</v>
       </c>
-      <c r="P20" s="64">
+      <c r="R20" s="64">
+        <v>3.63</v>
+      </c>
+      <c r="S20" s="64">
+        <v>3.59</v>
+      </c>
+      <c r="T20" s="77">
         <v>3.6</v>
       </c>
-      <c r="Q20" s="64">
+      <c r="U20" s="77">
+        <v>3.61</v>
+      </c>
+      <c r="V20" s="77">
+        <v>3.62</v>
+      </c>
+      <c r="W20" s="77">
+        <v>3.63</v>
+      </c>
+      <c r="X20" s="77">
+        <v>3.67</v>
+      </c>
+      <c r="Y20" s="77">
         <v>3.59</v>
       </c>
-      <c r="R20" s="64">
+      <c r="Z20" s="77">
+        <v>3.63</v>
+      </c>
+      <c r="AA20" s="50">
+        <v>3.57</v>
+      </c>
+      <c r="AB20" s="50">
+        <v>3.58</v>
+      </c>
+      <c r="AC20" s="50">
+        <v>3.59</v>
+      </c>
+      <c r="AD20" s="101">
+        <v>3.59</v>
+      </c>
+      <c r="AE20" s="101">
         <v>3.61</v>
       </c>
-      <c r="S20" s="64">
+      <c r="AF20" s="101">
         <v>3.6</v>
       </c>
-      <c r="T20" s="64">
-        <v>3.63</v>
-      </c>
-      <c r="U20" s="64">
-        <v>3.59</v>
-      </c>
-      <c r="V20" s="77">
-        <v>3.6</v>
-      </c>
-      <c r="W20" s="77">
+      <c r="AG20" s="101">
         <v>3.61</v>
-      </c>
-      <c r="X20" s="77">
-        <v>3.62</v>
-      </c>
-      <c r="Y20" s="77">
-        <v>3.63</v>
-      </c>
-      <c r="Z20" s="77">
-        <v>3.67</v>
-      </c>
-      <c r="AA20" s="77">
-        <v>3.59</v>
-      </c>
-      <c r="AB20" s="77">
-        <v>3.63</v>
-      </c>
-      <c r="AC20" s="50">
-        <v>3.58</v>
-      </c>
-      <c r="AD20" s="50">
-        <v>3.57</v>
-      </c>
-      <c r="AE20" s="50">
-        <v>3.58</v>
-      </c>
-      <c r="AF20" s="50">
-        <v>3.59</v>
-      </c>
-      <c r="AG20" s="101">
-        <v>3.59</v>
       </c>
       <c r="AH20" s="101">
         <v>3.61</v>
       </c>
       <c r="AI20" s="101">
+        <v>3.7</v>
+      </c>
+      <c r="AJ20" s="101">
+        <v>3.7</v>
+      </c>
+      <c r="AK20" s="101">
+        <v>3.67</v>
+      </c>
+      <c r="AL20" s="101">
+        <v>3.55</v>
+      </c>
+      <c r="AM20" s="101">
         <v>3.6</v>
       </c>
-      <c r="AJ20" s="101">
-        <v>3.61</v>
-      </c>
-      <c r="AK20" s="101">
-        <v>3.61</v>
-      </c>
-      <c r="AL20" s="101">
-        <v>3.7</v>
-      </c>
-      <c r="AM20" s="101">
-        <v>3.7</v>
-      </c>
       <c r="AN20" s="101">
-        <v>3.67</v>
+        <v>3.58</v>
       </c>
       <c r="AO20" s="101">
-        <v>3.55</v>
-      </c>
-      <c r="AP20" s="101">
         <v>3.6</v>
+      </c>
+      <c r="AP20" s="63">
+        <v>3.59</v>
       </c>
       <c r="AQ20" s="101">
         <v>3.58</v>
       </c>
       <c r="AR20" s="101">
-        <v>3.6</v>
-      </c>
-      <c r="AS20" s="63">
-        <v>3.59</v>
-      </c>
-      <c r="AT20" s="101">
         <v>3.58</v>
       </c>
-      <c r="AU20" s="101">
-        <v>3.58</v>
-      </c>
+      <c r="AS20" s="101"/>
+      <c r="AT20" s="101"/>
+      <c r="AU20" s="101"/>
       <c r="AV20" s="101"/>
       <c r="AW20" s="101"/>
       <c r="AX20" s="101"/>
       <c r="AY20" s="101"/>
       <c r="AZ20" s="101"/>
       <c r="BA20" s="101"/>
-      <c r="BB20" s="101"/>
-      <c r="BC20" s="101"/>
-      <c r="BD20" s="101"/>
     </row>
-    <row r="21" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:53" x14ac:dyDescent="0.2">
       <c r="D21" s="14">
         <v>150</v>
       </c>
@@ -38299,130 +38166,121 @@
         <v>3.44</v>
       </c>
       <c r="J21" s="64">
+        <v>3.4</v>
+      </c>
+      <c r="K21" s="64">
+        <v>3.41</v>
+      </c>
+      <c r="L21" s="64">
+        <v>3.42</v>
+      </c>
+      <c r="M21" s="64">
+        <v>3.43</v>
+      </c>
+      <c r="N21" s="64">
+        <v>3.4</v>
+      </c>
+      <c r="O21" s="64">
+        <v>3.4</v>
+      </c>
+      <c r="P21" s="64">
+        <v>3.42</v>
+      </c>
+      <c r="Q21" s="64">
+        <v>3.41</v>
+      </c>
+      <c r="R21" s="64">
         <v>3.44</v>
       </c>
-      <c r="K21" s="64">
+      <c r="S21" s="64">
+        <v>3.42</v>
+      </c>
+      <c r="T21" s="77">
+        <v>3.42</v>
+      </c>
+      <c r="U21" s="77">
+        <v>3.42</v>
+      </c>
+      <c r="V21" s="77">
+        <v>3.44</v>
+      </c>
+      <c r="W21" s="77">
+        <v>3.44</v>
+      </c>
+      <c r="X21" s="77">
+        <v>3.45</v>
+      </c>
+      <c r="Y21" s="77">
+        <v>3.43</v>
+      </c>
+      <c r="Z21" s="77">
+        <v>3.43</v>
+      </c>
+      <c r="AA21" s="50">
+        <v>3.39</v>
+      </c>
+      <c r="AB21" s="50">
         <v>3.4</v>
       </c>
-      <c r="L21" s="64">
+      <c r="AC21" s="50">
+        <v>3.42</v>
+      </c>
+      <c r="AD21" s="101">
         <v>3.4</v>
       </c>
-      <c r="M21" s="64">
+      <c r="AE21" s="101">
         <v>3.41</v>
       </c>
-      <c r="N21" s="64">
+      <c r="AF21" s="101">
+        <v>3.43</v>
+      </c>
+      <c r="AG21" s="101">
+        <v>3.41</v>
+      </c>
+      <c r="AH21" s="101">
         <v>3.42</v>
       </c>
-      <c r="O21" s="64">
-        <v>3.43</v>
-      </c>
-      <c r="P21" s="64">
+      <c r="AI21" s="101">
+        <v>3.53</v>
+      </c>
+      <c r="AJ21" s="101">
+        <v>3.51</v>
+      </c>
+      <c r="AK21" s="101">
+        <v>3.49</v>
+      </c>
+      <c r="AL21" s="101">
+        <v>3.37</v>
+      </c>
+      <c r="AM21" s="101">
+        <v>3.38</v>
+      </c>
+      <c r="AN21" s="101">
+        <v>3.38</v>
+      </c>
+      <c r="AO21" s="101">
+        <v>3.42</v>
+      </c>
+      <c r="AP21" s="63">
         <v>3.4</v>
       </c>
-      <c r="Q21" s="64">
-        <v>3.4</v>
-      </c>
-      <c r="R21" s="64">
-        <v>3.42</v>
-      </c>
-      <c r="S21" s="64">
-        <v>3.41</v>
-      </c>
-      <c r="T21" s="64">
-        <v>3.44</v>
-      </c>
-      <c r="U21" s="64">
-        <v>3.42</v>
-      </c>
-      <c r="V21" s="77">
-        <v>3.42</v>
-      </c>
-      <c r="W21" s="77">
-        <v>3.42</v>
-      </c>
-      <c r="X21" s="77">
-        <v>3.44</v>
-      </c>
-      <c r="Y21" s="77">
-        <v>3.44</v>
-      </c>
-      <c r="Z21" s="77">
-        <v>3.45</v>
-      </c>
-      <c r="AA21" s="77">
-        <v>3.43</v>
-      </c>
-      <c r="AB21" s="77">
-        <v>3.43</v>
-      </c>
-      <c r="AC21" s="50">
-        <v>3.37</v>
-      </c>
-      <c r="AD21" s="50">
+      <c r="AQ21" s="101">
         <v>3.39</v>
       </c>
-      <c r="AE21" s="50">
-        <v>3.4</v>
-      </c>
-      <c r="AF21" s="50">
-        <v>3.42</v>
-      </c>
-      <c r="AG21" s="101">
-        <v>3.4</v>
-      </c>
-      <c r="AH21" s="101">
-        <v>3.41</v>
-      </c>
-      <c r="AI21" s="101">
-        <v>3.43</v>
-      </c>
-      <c r="AJ21" s="101">
-        <v>3.41</v>
-      </c>
-      <c r="AK21" s="101">
-        <v>3.42</v>
-      </c>
-      <c r="AL21" s="101">
-        <v>3.53</v>
-      </c>
-      <c r="AM21" s="101">
-        <v>3.51</v>
-      </c>
-      <c r="AN21" s="101">
-        <v>3.49</v>
-      </c>
-      <c r="AO21" s="101">
-        <v>3.37</v>
-      </c>
-      <c r="AP21" s="101">
-        <v>3.38</v>
-      </c>
-      <c r="AQ21" s="101">
-        <v>3.38</v>
-      </c>
       <c r="AR21" s="101">
-        <v>3.42</v>
-      </c>
-      <c r="AS21" s="63">
-        <v>3.4</v>
-      </c>
-      <c r="AT21" s="101">
         <v>3.39</v>
       </c>
-      <c r="AU21" s="101">
-        <v>3.39</v>
-      </c>
+      <c r="AS21" s="101"/>
+      <c r="AT21" s="101"/>
+      <c r="AU21" s="101"/>
       <c r="AV21" s="101"/>
       <c r="AW21" s="101"/>
       <c r="AX21" s="101"/>
       <c r="AY21" s="101"/>
       <c r="AZ21" s="101"/>
       <c r="BA21" s="101"/>
-      <c r="BB21" s="101"/>
-      <c r="BC21" s="101"/>
-      <c r="BD21" s="101"/>
     </row>
-    <row r="22" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:53" x14ac:dyDescent="0.2">
       <c r="D22" s="14">
         <v>160</v>
       </c>
@@ -38442,130 +38300,121 @@
         <v>3.26</v>
       </c>
       <c r="J22" s="64">
+        <v>3.2</v>
+      </c>
+      <c r="K22" s="64">
+        <v>3.23</v>
+      </c>
+      <c r="L22" s="64">
         <v>3.26</v>
       </c>
-      <c r="K22" s="64">
-        <v>3.2</v>
-      </c>
-      <c r="L22" s="64">
-        <v>3.2</v>
-      </c>
       <c r="M22" s="64">
+        <v>3.25</v>
+      </c>
+      <c r="N22" s="64">
+        <v>3.22</v>
+      </c>
+      <c r="O22" s="64">
+        <v>3.22</v>
+      </c>
+      <c r="P22" s="64">
+        <v>3.25</v>
+      </c>
+      <c r="Q22" s="64">
         <v>3.23</v>
-      </c>
-      <c r="N22" s="64">
-        <v>3.26</v>
-      </c>
-      <c r="O22" s="64">
-        <v>3.25</v>
-      </c>
-      <c r="P22" s="64">
-        <v>3.22</v>
-      </c>
-      <c r="Q22" s="64">
-        <v>3.22</v>
       </c>
       <c r="R22" s="64">
         <v>3.25</v>
       </c>
       <c r="S22" s="64">
+        <v>3.24</v>
+      </c>
+      <c r="T22" s="77">
+        <v>3.24</v>
+      </c>
+      <c r="U22" s="77">
+        <v>3.24</v>
+      </c>
+      <c r="V22" s="77">
+        <v>3.26</v>
+      </c>
+      <c r="W22" s="77">
+        <v>3.28</v>
+      </c>
+      <c r="X22" s="77">
+        <v>3.27</v>
+      </c>
+      <c r="Y22" s="77">
+        <v>3.25</v>
+      </c>
+      <c r="Z22" s="77">
+        <v>3.26</v>
+      </c>
+      <c r="AA22" s="50">
+        <v>3.21</v>
+      </c>
+      <c r="AB22" s="50">
         <v>3.23</v>
       </c>
-      <c r="T22" s="64">
+      <c r="AC22" s="50">
+        <v>3.23</v>
+      </c>
+      <c r="AD22" s="101">
+        <v>3.22</v>
+      </c>
+      <c r="AE22" s="101">
         <v>3.25</v>
       </c>
-      <c r="U22" s="64">
+      <c r="AF22" s="101">
+        <v>3.25</v>
+      </c>
+      <c r="AG22" s="101">
+        <v>3.26</v>
+      </c>
+      <c r="AH22" s="101">
         <v>3.24</v>
       </c>
-      <c r="V22" s="77">
-        <v>3.24</v>
-      </c>
-      <c r="W22" s="77">
-        <v>3.24</v>
-      </c>
-      <c r="X22" s="77">
-        <v>3.26</v>
-      </c>
-      <c r="Y22" s="77">
-        <v>3.28</v>
-      </c>
-      <c r="Z22" s="77">
-        <v>3.27</v>
-      </c>
-      <c r="AA22" s="77">
-        <v>3.25</v>
-      </c>
-      <c r="AB22" s="77">
-        <v>3.26</v>
-      </c>
-      <c r="AC22" s="50">
+      <c r="AI22" s="101">
+        <v>3.38</v>
+      </c>
+      <c r="AJ22" s="101">
+        <v>3.32</v>
+      </c>
+      <c r="AK22" s="101">
+        <v>3.32</v>
+      </c>
+      <c r="AL22" s="101">
+        <v>3.2</v>
+      </c>
+      <c r="AM22" s="101">
         <v>3.21</v>
       </c>
-      <c r="AD22" s="50">
+      <c r="AN22" s="101">
+        <v>3.2</v>
+      </c>
+      <c r="AO22" s="101">
+        <v>3.23</v>
+      </c>
+      <c r="AP22" s="63">
+        <v>3.23</v>
+      </c>
+      <c r="AQ22" s="101">
+        <v>3.23</v>
+      </c>
+      <c r="AR22" s="101">
         <v>3.21</v>
       </c>
-      <c r="AE22" s="50">
-        <v>3.23</v>
-      </c>
-      <c r="AF22" s="50">
-        <v>3.23</v>
-      </c>
-      <c r="AG22" s="101">
-        <v>3.22</v>
-      </c>
-      <c r="AH22" s="101">
-        <v>3.25</v>
-      </c>
-      <c r="AI22" s="101">
-        <v>3.25</v>
-      </c>
-      <c r="AJ22" s="101">
-        <v>3.26</v>
-      </c>
-      <c r="AK22" s="101">
-        <v>3.24</v>
-      </c>
-      <c r="AL22" s="101">
-        <v>3.38</v>
-      </c>
-      <c r="AM22" s="101">
-        <v>3.32</v>
-      </c>
-      <c r="AN22" s="101">
-        <v>3.32</v>
-      </c>
-      <c r="AO22" s="101">
-        <v>3.2</v>
-      </c>
-      <c r="AP22" s="101">
-        <v>3.21</v>
-      </c>
-      <c r="AQ22" s="101">
-        <v>3.2</v>
-      </c>
-      <c r="AR22" s="101">
-        <v>3.23</v>
-      </c>
-      <c r="AS22" s="63">
-        <v>3.23</v>
-      </c>
-      <c r="AT22" s="101">
-        <v>3.23</v>
-      </c>
-      <c r="AU22" s="101">
-        <v>3.21</v>
-      </c>
+      <c r="AS22" s="101"/>
+      <c r="AT22" s="101"/>
+      <c r="AU22" s="101"/>
       <c r="AV22" s="101"/>
       <c r="AW22" s="101"/>
       <c r="AX22" s="101"/>
       <c r="AY22" s="101"/>
       <c r="AZ22" s="101"/>
       <c r="BA22" s="101"/>
-      <c r="BB22" s="101"/>
-      <c r="BC22" s="101"/>
-      <c r="BD22" s="101"/>
     </row>
-    <row r="23" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:53" x14ac:dyDescent="0.2">
       <c r="D23" s="14">
         <v>170</v>
       </c>
@@ -38585,130 +38434,121 @@
         <v>3.09</v>
       </c>
       <c r="J23" s="64">
-        <v>3.09</v>
+        <v>3.04</v>
       </c>
       <c r="K23" s="64">
-        <v>3.04</v>
+        <v>3.05</v>
       </c>
       <c r="L23" s="64">
-        <v>3.04</v>
+        <v>3.06</v>
       </c>
       <c r="M23" s="64">
+        <v>3.07</v>
+      </c>
+      <c r="N23" s="64">
         <v>3.05</v>
       </c>
-      <c r="N23" s="64">
+      <c r="O23" s="64">
+        <v>3.05</v>
+      </c>
+      <c r="P23" s="64">
         <v>3.06</v>
       </c>
-      <c r="O23" s="64">
-        <v>3.07</v>
-      </c>
-      <c r="P23" s="64">
-        <v>3.05</v>
-      </c>
       <c r="Q23" s="64">
-        <v>3.05</v>
+        <v>3.06</v>
       </c>
       <c r="R23" s="64">
-        <v>3.06</v>
+        <v>3.08</v>
       </c>
       <c r="S23" s="64">
         <v>3.06</v>
       </c>
-      <c r="T23" s="64">
+      <c r="T23" s="77">
+        <v>3.06</v>
+      </c>
+      <c r="U23" s="77">
+        <v>3.06</v>
+      </c>
+      <c r="V23" s="77">
         <v>3.08</v>
       </c>
-      <c r="U23" s="64">
+      <c r="W23" s="77">
+        <v>3.09</v>
+      </c>
+      <c r="X23" s="77">
+        <v>3.11</v>
+      </c>
+      <c r="Y23" s="77">
+        <v>3.07</v>
+      </c>
+      <c r="Z23" s="77">
+        <v>3.1</v>
+      </c>
+      <c r="AA23" s="50">
+        <v>3.02</v>
+      </c>
+      <c r="AB23" s="50">
+        <v>3.04</v>
+      </c>
+      <c r="AC23" s="50">
         <v>3.06</v>
       </c>
-      <c r="V23" s="77">
-        <v>3.06</v>
-      </c>
-      <c r="W23" s="77">
-        <v>3.06</v>
-      </c>
-      <c r="X23" s="77">
-        <v>3.08</v>
-      </c>
-      <c r="Y23" s="77">
+      <c r="AD23" s="101">
+        <v>3.05</v>
+      </c>
+      <c r="AE23" s="101">
         <v>3.09</v>
       </c>
-      <c r="Z23" s="77">
-        <v>3.11</v>
-      </c>
-      <c r="AA23" s="77">
+      <c r="AF23" s="101">
         <v>3.07</v>
       </c>
-      <c r="AB23" s="77">
-        <v>3.1</v>
-      </c>
-      <c r="AC23" s="50">
+      <c r="AG23" s="101">
+        <v>3.07</v>
+      </c>
+      <c r="AH23" s="101">
+        <v>3.05</v>
+      </c>
+      <c r="AI23" s="101">
+        <v>3.2</v>
+      </c>
+      <c r="AJ23" s="101">
+        <v>3.13</v>
+      </c>
+      <c r="AK23" s="101">
+        <v>3.15</v>
+      </c>
+      <c r="AL23" s="101">
+        <v>3.01</v>
+      </c>
+      <c r="AM23" s="101">
         <v>3.02</v>
       </c>
-      <c r="AD23" s="50">
-        <v>3.02</v>
-      </c>
-      <c r="AE23" s="50">
+      <c r="AN23" s="101">
+        <v>3.01</v>
+      </c>
+      <c r="AO23" s="101">
+        <v>3.05</v>
+      </c>
+      <c r="AP23" s="63">
         <v>3.04</v>
       </c>
-      <c r="AF23" s="50">
-        <v>3.06</v>
-      </c>
-      <c r="AG23" s="101">
+      <c r="AQ23" s="101">
         <v>3.05</v>
       </c>
-      <c r="AH23" s="101">
-        <v>3.09</v>
-      </c>
-      <c r="AI23" s="101">
-        <v>3.07</v>
-      </c>
-      <c r="AJ23" s="101">
-        <v>3.07</v>
-      </c>
-      <c r="AK23" s="101">
-        <v>3.05</v>
-      </c>
-      <c r="AL23" s="101">
-        <v>3.2</v>
-      </c>
-      <c r="AM23" s="101">
-        <v>3.13</v>
-      </c>
-      <c r="AN23" s="101">
-        <v>3.15</v>
-      </c>
-      <c r="AO23" s="101">
-        <v>3.01</v>
-      </c>
-      <c r="AP23" s="101">
-        <v>3.02</v>
-      </c>
-      <c r="AQ23" s="101">
-        <v>3.01</v>
-      </c>
       <c r="AR23" s="101">
-        <v>3.05</v>
-      </c>
-      <c r="AS23" s="63">
         <v>3.04</v>
       </c>
-      <c r="AT23" s="101">
-        <v>3.05</v>
-      </c>
-      <c r="AU23" s="101">
-        <v>3.04</v>
-      </c>
+      <c r="AS23" s="101"/>
+      <c r="AT23" s="101"/>
+      <c r="AU23" s="101"/>
       <c r="AV23" s="101"/>
       <c r="AW23" s="101"/>
       <c r="AX23" s="101"/>
       <c r="AY23" s="101"/>
       <c r="AZ23" s="101"/>
       <c r="BA23" s="101"/>
-      <c r="BB23" s="101"/>
-      <c r="BC23" s="101"/>
-      <c r="BD23" s="101"/>
     </row>
-    <row r="24" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:53" x14ac:dyDescent="0.2">
       <c r="D24" s="14">
         <v>180</v>
       </c>
@@ -38728,130 +38568,121 @@
         <v>3.01</v>
       </c>
       <c r="J24" s="64">
-        <v>3.01</v>
+        <v>2.94</v>
       </c>
       <c r="K24" s="64">
-        <v>2.94</v>
+        <v>2.97</v>
       </c>
       <c r="L24" s="64">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="M24" s="64">
+        <v>2.98</v>
+      </c>
+      <c r="N24" s="64">
+        <v>2.95</v>
+      </c>
+      <c r="O24" s="64">
+        <v>2.95</v>
+      </c>
+      <c r="P24" s="64">
         <v>2.97</v>
       </c>
-      <c r="N24" s="64">
+      <c r="Q24" s="64">
+        <v>2.97</v>
+      </c>
+      <c r="R24" s="64">
+        <v>2.99</v>
+      </c>
+      <c r="S24" s="64">
         <v>2.98</v>
       </c>
-      <c r="O24" s="64">
+      <c r="T24" s="77">
         <v>2.98</v>
       </c>
-      <c r="P24" s="64">
-        <v>2.95</v>
-      </c>
-      <c r="Q24" s="64">
-        <v>2.95</v>
-      </c>
-      <c r="R24" s="64">
-        <v>2.97</v>
-      </c>
-      <c r="S24" s="64">
-        <v>2.97</v>
-      </c>
-      <c r="T24" s="64">
+      <c r="U24" s="77">
         <v>2.99</v>
       </c>
-      <c r="U24" s="64">
-        <v>2.98</v>
-      </c>
       <c r="V24" s="77">
-        <v>2.98</v>
+        <v>3.02</v>
       </c>
       <c r="W24" s="77">
-        <v>2.99</v>
+        <v>3.02</v>
       </c>
       <c r="X24" s="77">
         <v>3.02</v>
       </c>
       <c r="Y24" s="77">
-        <v>3.02</v>
+        <v>2.99</v>
       </c>
       <c r="Z24" s="77">
-        <v>3.02</v>
-      </c>
-      <c r="AA24" s="77">
+        <v>2.97</v>
+      </c>
+      <c r="AA24" s="50">
+        <v>2.95</v>
+      </c>
+      <c r="AB24" s="50">
+        <v>2.96</v>
+      </c>
+      <c r="AC24" s="50">
         <v>2.99</v>
       </c>
-      <c r="AB24" s="77">
+      <c r="AD24" s="101">
+        <v>2.98</v>
+      </c>
+      <c r="AE24" s="101">
+        <v>3.03</v>
+      </c>
+      <c r="AF24" s="101">
+        <v>3.03</v>
+      </c>
+      <c r="AG24" s="101">
+        <v>3.01</v>
+      </c>
+      <c r="AH24" s="101">
+        <v>2.96</v>
+      </c>
+      <c r="AI24" s="101">
+        <v>3.12</v>
+      </c>
+      <c r="AJ24" s="101">
+        <v>3.09</v>
+      </c>
+      <c r="AK24" s="101">
+        <v>3.11</v>
+      </c>
+      <c r="AL24" s="101">
+        <v>2.92</v>
+      </c>
+      <c r="AM24" s="101">
+        <v>2.94</v>
+      </c>
+      <c r="AN24" s="101">
+        <v>2.94</v>
+      </c>
+      <c r="AO24" s="101">
+        <v>2.99</v>
+      </c>
+      <c r="AP24" s="63">
+        <v>2.95</v>
+      </c>
+      <c r="AQ24" s="101">
         <v>2.97</v>
       </c>
-      <c r="AC24" s="50">
-        <v>2.93</v>
-      </c>
-      <c r="AD24" s="50">
-        <v>2.95</v>
-      </c>
-      <c r="AE24" s="50">
+      <c r="AR24" s="101">
         <v>2.96</v>
       </c>
-      <c r="AF24" s="50">
-        <v>2.99</v>
-      </c>
-      <c r="AG24" s="101">
-        <v>2.98</v>
-      </c>
-      <c r="AH24" s="101">
-        <v>3.03</v>
-      </c>
-      <c r="AI24" s="101">
-        <v>3.03</v>
-      </c>
-      <c r="AJ24" s="101">
-        <v>3.01</v>
-      </c>
-      <c r="AK24" s="101">
-        <v>2.96</v>
-      </c>
-      <c r="AL24" s="101">
-        <v>3.12</v>
-      </c>
-      <c r="AM24" s="101">
-        <v>3.09</v>
-      </c>
-      <c r="AN24" s="101">
-        <v>3.11</v>
-      </c>
-      <c r="AO24" s="101">
-        <v>2.92</v>
-      </c>
-      <c r="AP24" s="101">
-        <v>2.94</v>
-      </c>
-      <c r="AQ24" s="101">
-        <v>2.94</v>
-      </c>
-      <c r="AR24" s="101">
-        <v>2.99</v>
-      </c>
-      <c r="AS24" s="63">
-        <v>2.95</v>
-      </c>
-      <c r="AT24" s="101">
-        <v>2.97</v>
-      </c>
-      <c r="AU24" s="101">
-        <v>2.96</v>
-      </c>
+      <c r="AS24" s="101"/>
+      <c r="AT24" s="101"/>
+      <c r="AU24" s="101"/>
       <c r="AV24" s="101"/>
       <c r="AW24" s="101"/>
       <c r="AX24" s="101"/>
       <c r="AY24" s="101"/>
       <c r="AZ24" s="101"/>
       <c r="BA24" s="101"/>
-      <c r="BB24" s="101"/>
-      <c r="BC24" s="101"/>
-      <c r="BD24" s="101"/>
     </row>
-    <row r="25" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:53" x14ac:dyDescent="0.2">
       <c r="D25" s="14">
         <v>190</v>
       </c>
@@ -38871,130 +38702,121 @@
         <v>2.92</v>
       </c>
       <c r="J25" s="64">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="K25" s="64">
+        <v>2.87</v>
+      </c>
+      <c r="L25" s="64">
+        <v>2.89</v>
+      </c>
+      <c r="M25" s="64">
+        <v>2.9</v>
+      </c>
+      <c r="N25" s="64">
+        <v>2.84</v>
+      </c>
+      <c r="O25" s="64">
+        <v>2.85</v>
+      </c>
+      <c r="P25" s="64">
+        <v>2.88</v>
+      </c>
+      <c r="Q25" s="64">
+        <v>2.89</v>
+      </c>
+      <c r="R25" s="64">
+        <v>2.9</v>
+      </c>
+      <c r="S25" s="64">
+        <v>2.9</v>
+      </c>
+      <c r="T25" s="77">
+        <v>2.91</v>
+      </c>
+      <c r="U25" s="77">
+        <v>2.9</v>
+      </c>
+      <c r="V25" s="77">
         <v>2.94</v>
       </c>
-      <c r="L25" s="64">
+      <c r="W25" s="77">
         <v>2.94</v>
       </c>
-      <c r="M25" s="64">
+      <c r="X25" s="77">
+        <v>2.95</v>
+      </c>
+      <c r="Y25" s="77">
+        <v>2.9</v>
+      </c>
+      <c r="Z25" s="77">
+        <v>2.93</v>
+      </c>
+      <c r="AA25" s="50">
+        <v>2.85</v>
+      </c>
+      <c r="AB25" s="50">
         <v>2.87</v>
       </c>
-      <c r="N25" s="64">
+      <c r="AC25" s="50">
         <v>2.89</v>
       </c>
-      <c r="O25" s="64">
-        <v>2.9</v>
-      </c>
-      <c r="P25" s="64">
-        <v>2.84</v>
-      </c>
-      <c r="Q25" s="64">
+      <c r="AD25" s="101">
+        <v>2.91</v>
+      </c>
+      <c r="AE25" s="101">
+        <v>2.94</v>
+      </c>
+      <c r="AF25" s="101">
+        <v>2.97</v>
+      </c>
+      <c r="AG25" s="101">
+        <v>2.94</v>
+      </c>
+      <c r="AH25" s="101">
+        <v>2.87</v>
+      </c>
+      <c r="AI25" s="101">
+        <v>3.1</v>
+      </c>
+      <c r="AJ25" s="101">
+        <v>3.05</v>
+      </c>
+      <c r="AK25" s="101">
+        <v>3.05</v>
+      </c>
+      <c r="AL25" s="101">
+        <v>2.82</v>
+      </c>
+      <c r="AM25" s="101">
         <v>2.85</v>
       </c>
-      <c r="R25" s="64">
+      <c r="AN25" s="101">
+        <v>2.85</v>
+      </c>
+      <c r="AO25" s="101">
+        <v>2.91</v>
+      </c>
+      <c r="AP25" s="63">
         <v>2.88</v>
       </c>
-      <c r="S25" s="64">
+      <c r="AQ25" s="101">
         <v>2.89</v>
       </c>
-      <c r="T25" s="64">
-        <v>2.9</v>
-      </c>
-      <c r="U25" s="64">
-        <v>2.9</v>
-      </c>
-      <c r="V25" s="77">
-        <v>2.91</v>
-      </c>
-      <c r="W25" s="77">
-        <v>2.9</v>
-      </c>
-      <c r="X25" s="77">
-        <v>2.94</v>
-      </c>
-      <c r="Y25" s="77">
-        <v>2.94</v>
-      </c>
-      <c r="Z25" s="77">
-        <v>2.95</v>
-      </c>
-      <c r="AA25" s="77">
-        <v>2.9</v>
-      </c>
-      <c r="AB25" s="77">
-        <v>2.93</v>
-      </c>
-      <c r="AC25" s="50">
-        <v>2.84</v>
-      </c>
-      <c r="AD25" s="50">
-        <v>2.85</v>
-      </c>
-      <c r="AE25" s="50">
-        <v>2.87</v>
-      </c>
-      <c r="AF25" s="50">
-        <v>2.89</v>
-      </c>
-      <c r="AG25" s="101">
-        <v>2.91</v>
-      </c>
-      <c r="AH25" s="101">
-        <v>2.94</v>
-      </c>
-      <c r="AI25" s="101">
-        <v>2.97</v>
-      </c>
-      <c r="AJ25" s="101">
-        <v>2.94</v>
-      </c>
-      <c r="AK25" s="101">
-        <v>2.87</v>
-      </c>
-      <c r="AL25" s="101">
-        <v>3.1</v>
-      </c>
-      <c r="AM25" s="101">
-        <v>3.05</v>
-      </c>
-      <c r="AN25" s="101">
-        <v>3.05</v>
-      </c>
-      <c r="AO25" s="101">
-        <v>2.82</v>
-      </c>
-      <c r="AP25" s="101">
-        <v>2.85</v>
-      </c>
-      <c r="AQ25" s="101">
-        <v>2.85</v>
-      </c>
       <c r="AR25" s="101">
-        <v>2.91</v>
-      </c>
-      <c r="AS25" s="63">
         <v>2.88</v>
       </c>
-      <c r="AT25" s="101">
-        <v>2.89</v>
-      </c>
-      <c r="AU25" s="101">
-        <v>2.88</v>
-      </c>
+      <c r="AS25" s="101"/>
+      <c r="AT25" s="101"/>
+      <c r="AU25" s="101"/>
       <c r="AV25" s="101"/>
       <c r="AW25" s="101"/>
       <c r="AX25" s="101"/>
       <c r="AY25" s="101"/>
       <c r="AZ25" s="101"/>
       <c r="BA25" s="101"/>
-      <c r="BB25" s="101"/>
-      <c r="BC25" s="101"/>
-      <c r="BD25" s="101"/>
     </row>
-    <row r="26" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:53" x14ac:dyDescent="0.2">
       <c r="D26" s="14">
         <v>200</v>
       </c>
@@ -39014,130 +38836,121 @@
         <v>2.85</v>
       </c>
       <c r="J26" s="64">
+        <v>2.78</v>
+      </c>
+      <c r="K26" s="64">
+        <v>2.81</v>
+      </c>
+      <c r="L26" s="64">
+        <v>2.83</v>
+      </c>
+      <c r="M26" s="64">
+        <v>2.82</v>
+      </c>
+      <c r="N26" s="64">
+        <v>2.77</v>
+      </c>
+      <c r="O26" s="64">
+        <v>2.76</v>
+      </c>
+      <c r="P26" s="64">
+        <v>2.81</v>
+      </c>
+      <c r="Q26" s="64">
+        <v>2.82</v>
+      </c>
+      <c r="R26" s="64">
+        <v>2.83</v>
+      </c>
+      <c r="S26" s="64">
         <v>2.85</v>
       </c>
-      <c r="K26" s="64">
+      <c r="T26" s="77">
+        <v>2.85</v>
+      </c>
+      <c r="U26" s="77">
+        <v>2.84</v>
+      </c>
+      <c r="V26" s="77">
+        <v>2.89</v>
+      </c>
+      <c r="W26" s="77">
+        <v>2.89</v>
+      </c>
+      <c r="X26" s="77">
+        <v>2.91</v>
+      </c>
+      <c r="Y26" s="77">
+        <v>2.83</v>
+      </c>
+      <c r="Z26" s="77">
+        <v>2.87</v>
+      </c>
+      <c r="AA26" s="50">
+        <v>2.77</v>
+      </c>
+      <c r="AB26" s="50">
         <v>2.78</v>
       </c>
-      <c r="L26" s="64">
+      <c r="AC26" s="50">
+        <v>2.83</v>
+      </c>
+      <c r="AD26" s="101">
+        <v>2.84</v>
+      </c>
+      <c r="AE26" s="101">
+        <v>2.9</v>
+      </c>
+      <c r="AF26" s="101">
+        <v>2.92</v>
+      </c>
+      <c r="AG26" s="101">
+        <v>2.89</v>
+      </c>
+      <c r="AH26" s="101">
+        <v>2.8</v>
+      </c>
+      <c r="AI26" s="101">
+        <v>3.1</v>
+      </c>
+      <c r="AJ26" s="101">
+        <v>3.08</v>
+      </c>
+      <c r="AK26" s="101">
+        <v>3.05</v>
+      </c>
+      <c r="AL26" s="101">
+        <v>2.74</v>
+      </c>
+      <c r="AM26" s="101">
         <v>2.78</v>
       </c>
-      <c r="M26" s="64">
-        <v>2.81</v>
-      </c>
-      <c r="N26" s="64">
-        <v>2.83</v>
-      </c>
-      <c r="O26" s="64">
+      <c r="AN26" s="101">
+        <v>2.78</v>
+      </c>
+      <c r="AO26" s="101">
+        <v>2.85</v>
+      </c>
+      <c r="AP26" s="63">
         <v>2.82</v>
       </c>
-      <c r="P26" s="64">
-        <v>2.77</v>
-      </c>
-      <c r="Q26" s="64">
-        <v>2.76</v>
-      </c>
-      <c r="R26" s="64">
-        <v>2.81</v>
-      </c>
-      <c r="S26" s="64">
-        <v>2.82</v>
-      </c>
-      <c r="T26" s="64">
-        <v>2.83</v>
-      </c>
-      <c r="U26" s="64">
-        <v>2.85</v>
-      </c>
-      <c r="V26" s="77">
-        <v>2.85</v>
-      </c>
-      <c r="W26" s="77">
+      <c r="AQ26" s="101">
         <v>2.84</v>
       </c>
-      <c r="X26" s="77">
-        <v>2.89</v>
-      </c>
-      <c r="Y26" s="77">
-        <v>2.89</v>
-      </c>
-      <c r="Z26" s="77">
-        <v>2.91</v>
-      </c>
-      <c r="AA26" s="77">
-        <v>2.83</v>
-      </c>
-      <c r="AB26" s="77">
-        <v>2.87</v>
-      </c>
-      <c r="AC26" s="50">
-        <v>2.76</v>
-      </c>
-      <c r="AD26" s="50">
-        <v>2.77</v>
-      </c>
-      <c r="AE26" s="50">
-        <v>2.78</v>
-      </c>
-      <c r="AF26" s="50">
-        <v>2.83</v>
-      </c>
-      <c r="AG26" s="101">
-        <v>2.84</v>
-      </c>
-      <c r="AH26" s="101">
-        <v>2.9</v>
-      </c>
-      <c r="AI26" s="101">
-        <v>2.92</v>
-      </c>
-      <c r="AJ26" s="101">
-        <v>2.89</v>
-      </c>
-      <c r="AK26" s="101">
+      <c r="AR26" s="101">
         <v>2.8</v>
       </c>
-      <c r="AL26" s="101">
-        <v>3.1</v>
-      </c>
-      <c r="AM26" s="101">
-        <v>3.08</v>
-      </c>
-      <c r="AN26" s="101">
-        <v>3.05</v>
-      </c>
-      <c r="AO26" s="101">
-        <v>2.74</v>
-      </c>
-      <c r="AP26" s="101">
-        <v>2.78</v>
-      </c>
-      <c r="AQ26" s="101">
-        <v>2.78</v>
-      </c>
-      <c r="AR26" s="101">
-        <v>2.85</v>
-      </c>
-      <c r="AS26" s="63">
-        <v>2.82</v>
-      </c>
-      <c r="AT26" s="101">
-        <v>2.84</v>
-      </c>
-      <c r="AU26" s="101">
-        <v>2.8</v>
-      </c>
+      <c r="AS26" s="101"/>
+      <c r="AT26" s="101"/>
+      <c r="AU26" s="101"/>
       <c r="AV26" s="101"/>
       <c r="AW26" s="101"/>
       <c r="AX26" s="101"/>
       <c r="AY26" s="101"/>
       <c r="AZ26" s="101"/>
       <c r="BA26" s="101"/>
-      <c r="BB26" s="101"/>
-      <c r="BC26" s="101"/>
-      <c r="BD26" s="101"/>
     </row>
-    <row r="27" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:53" x14ac:dyDescent="0.2">
       <c r="D27" s="14">
         <v>210</v>
       </c>
@@ -39157,130 +38970,121 @@
         <v>2.76</v>
       </c>
       <c r="J27" s="64">
+        <v>2.68</v>
+      </c>
+      <c r="K27" s="64">
+        <v>2.74</v>
+      </c>
+      <c r="L27" s="64">
         <v>2.76</v>
       </c>
-      <c r="K27" s="64">
+      <c r="M27" s="64">
+        <v>2.73</v>
+      </c>
+      <c r="N27" s="64">
         <v>2.68</v>
       </c>
-      <c r="L27" s="64">
+      <c r="O27" s="64">
+        <v>2.66</v>
+      </c>
+      <c r="P27" s="64">
+        <v>2.71</v>
+      </c>
+      <c r="Q27" s="64">
+        <v>2.73</v>
+      </c>
+      <c r="R27" s="64">
+        <v>2.73</v>
+      </c>
+      <c r="S27" s="64">
+        <v>2.74</v>
+      </c>
+      <c r="T27" s="77">
+        <v>2.76</v>
+      </c>
+      <c r="U27" s="77">
+        <v>2.77</v>
+      </c>
+      <c r="V27" s="77">
+        <v>2.8</v>
+      </c>
+      <c r="W27" s="77">
+        <v>2.81</v>
+      </c>
+      <c r="X27" s="77">
+        <v>2.85</v>
+      </c>
+      <c r="Y27" s="77">
+        <v>2.74</v>
+      </c>
+      <c r="Z27" s="77">
+        <v>2.8</v>
+      </c>
+      <c r="AA27" s="50">
+        <v>2.66</v>
+      </c>
+      <c r="AB27" s="50">
         <v>2.68</v>
       </c>
-      <c r="M27" s="64">
+      <c r="AC27" s="50">
+        <v>2.73</v>
+      </c>
+      <c r="AD27" s="101">
+        <v>2.75</v>
+      </c>
+      <c r="AE27" s="101">
+        <v>2.83</v>
+      </c>
+      <c r="AF27" s="101">
+        <v>2.86</v>
+      </c>
+      <c r="AG27" s="101">
+        <v>2.82</v>
+      </c>
+      <c r="AH27" s="101">
+        <v>2.69</v>
+      </c>
+      <c r="AI27" s="101">
+        <v>3.13</v>
+      </c>
+      <c r="AJ27" s="101">
+        <v>3.08</v>
+      </c>
+      <c r="AK27" s="101">
+        <v>3.04</v>
+      </c>
+      <c r="AL27" s="101">
+        <v>2.63</v>
+      </c>
+      <c r="AM27" s="101">
+        <v>2.68</v>
+      </c>
+      <c r="AN27" s="101">
+        <v>2.67</v>
+      </c>
+      <c r="AO27" s="101">
+        <v>2.78</v>
+      </c>
+      <c r="AP27" s="63">
         <v>2.74</v>
       </c>
-      <c r="N27" s="64">
+      <c r="AQ27" s="101">
         <v>2.76</v>
       </c>
-      <c r="O27" s="64">
-        <v>2.73</v>
-      </c>
-      <c r="P27" s="64">
-        <v>2.68</v>
-      </c>
-      <c r="Q27" s="64">
-        <v>2.66</v>
-      </c>
-      <c r="R27" s="64">
-        <v>2.71</v>
-      </c>
-      <c r="S27" s="64">
-        <v>2.73</v>
-      </c>
-      <c r="T27" s="64">
-        <v>2.73</v>
-      </c>
-      <c r="U27" s="64">
-        <v>2.74</v>
-      </c>
-      <c r="V27" s="77">
-        <v>2.76</v>
-      </c>
-      <c r="W27" s="77">
-        <v>2.77</v>
-      </c>
-      <c r="X27" s="77">
-        <v>2.8</v>
-      </c>
-      <c r="Y27" s="77">
-        <v>2.81</v>
-      </c>
-      <c r="Z27" s="77">
-        <v>2.85</v>
-      </c>
-      <c r="AA27" s="77">
-        <v>2.74</v>
-      </c>
-      <c r="AB27" s="77">
-        <v>2.8</v>
-      </c>
-      <c r="AC27" s="50">
-        <v>2.66</v>
-      </c>
-      <c r="AD27" s="50">
-        <v>2.66</v>
-      </c>
-      <c r="AE27" s="50">
-        <v>2.68</v>
-      </c>
-      <c r="AF27" s="50">
-        <v>2.73</v>
-      </c>
-      <c r="AG27" s="101">
-        <v>2.75</v>
-      </c>
-      <c r="AH27" s="101">
-        <v>2.83</v>
-      </c>
-      <c r="AI27" s="101">
-        <v>2.86</v>
-      </c>
-      <c r="AJ27" s="101">
-        <v>2.82</v>
-      </c>
-      <c r="AK27" s="101">
-        <v>2.69</v>
-      </c>
-      <c r="AL27" s="101">
-        <v>3.13</v>
-      </c>
-      <c r="AM27" s="101">
-        <v>3.08</v>
-      </c>
-      <c r="AN27" s="101">
-        <v>3.04</v>
-      </c>
-      <c r="AO27" s="101">
-        <v>2.63</v>
-      </c>
-      <c r="AP27" s="101">
-        <v>2.68</v>
-      </c>
-      <c r="AQ27" s="101">
-        <v>2.67</v>
-      </c>
       <c r="AR27" s="101">
-        <v>2.78</v>
-      </c>
-      <c r="AS27" s="63">
-        <v>2.74</v>
-      </c>
-      <c r="AT27" s="101">
-        <v>2.76</v>
-      </c>
-      <c r="AU27" s="101">
         <v>2.72</v>
       </c>
+      <c r="AS27" s="101"/>
+      <c r="AT27" s="101"/>
+      <c r="AU27" s="101"/>
       <c r="AV27" s="101"/>
       <c r="AW27" s="101"/>
       <c r="AX27" s="101"/>
       <c r="AY27" s="101"/>
       <c r="AZ27" s="101"/>
       <c r="BA27" s="101"/>
-      <c r="BB27" s="101"/>
-      <c r="BC27" s="101"/>
-      <c r="BD27" s="101"/>
     </row>
-    <row r="28" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:53" x14ac:dyDescent="0.2">
       <c r="D28" s="14">
         <v>220</v>
       </c>
@@ -39300,130 +39104,121 @@
         <v>2.73</v>
       </c>
       <c r="J28" s="64">
+        <v>2.62</v>
+      </c>
+      <c r="K28" s="64">
+        <v>2.7</v>
+      </c>
+      <c r="L28" s="64">
+        <v>2.74</v>
+      </c>
+      <c r="M28" s="64">
+        <v>2.71</v>
+      </c>
+      <c r="N28" s="64">
+        <v>2.62</v>
+      </c>
+      <c r="O28" s="64">
+        <v>2.6</v>
+      </c>
+      <c r="P28" s="64">
+        <v>2.67</v>
+      </c>
+      <c r="Q28" s="64">
+        <v>2.7</v>
+      </c>
+      <c r="R28" s="64">
+        <v>2.69</v>
+      </c>
+      <c r="S28" s="64">
+        <v>2.71</v>
+      </c>
+      <c r="T28" s="77">
+        <v>2.74</v>
+      </c>
+      <c r="U28" s="77">
+        <v>2.75</v>
+      </c>
+      <c r="V28" s="77">
+        <v>2.78</v>
+      </c>
+      <c r="W28" s="77">
+        <v>2.8</v>
+      </c>
+      <c r="X28" s="77">
+        <v>2.88</v>
+      </c>
+      <c r="Y28" s="77">
+        <v>2.69</v>
+      </c>
+      <c r="Z28" s="77">
+        <v>2.78</v>
+      </c>
+      <c r="AA28" s="50">
+        <v>2.59</v>
+      </c>
+      <c r="AB28" s="50">
+        <v>2.63</v>
+      </c>
+      <c r="AC28" s="50">
+        <v>2.7</v>
+      </c>
+      <c r="AD28" s="101">
+        <v>2.72</v>
+      </c>
+      <c r="AE28" s="101">
+        <v>2.84</v>
+      </c>
+      <c r="AF28" s="101">
+        <v>2.85</v>
+      </c>
+      <c r="AG28" s="101">
+        <v>2.8</v>
+      </c>
+      <c r="AH28" s="101">
+        <v>2.63</v>
+      </c>
+      <c r="AI28" s="101">
+        <v>3.28</v>
+      </c>
+      <c r="AJ28" s="101">
+        <v>3.23</v>
+      </c>
+      <c r="AK28" s="101">
+        <v>3.17</v>
+      </c>
+      <c r="AL28" s="101">
+        <v>2.61</v>
+      </c>
+      <c r="AM28" s="101">
+        <v>2.68</v>
+      </c>
+      <c r="AN28" s="101">
+        <v>2.66</v>
+      </c>
+      <c r="AO28" s="101">
+        <v>2.76</v>
+      </c>
+      <c r="AP28" s="63">
         <v>2.73</v>
       </c>
-      <c r="K28" s="64">
-        <v>2.62</v>
-      </c>
-      <c r="L28" s="64">
-        <v>2.62</v>
-      </c>
-      <c r="M28" s="64">
-        <v>2.7</v>
-      </c>
-      <c r="N28" s="64">
-        <v>2.74</v>
-      </c>
-      <c r="O28" s="64">
-        <v>2.71</v>
-      </c>
-      <c r="P28" s="64">
-        <v>2.62</v>
-      </c>
-      <c r="Q28" s="64">
-        <v>2.6</v>
-      </c>
-      <c r="R28" s="64">
-        <v>2.67</v>
-      </c>
-      <c r="S28" s="64">
-        <v>2.7</v>
-      </c>
-      <c r="T28" s="64">
-        <v>2.69</v>
-      </c>
-      <c r="U28" s="64">
-        <v>2.71</v>
-      </c>
-      <c r="V28" s="77">
-        <v>2.74</v>
-      </c>
-      <c r="W28" s="77">
-        <v>2.75</v>
-      </c>
-      <c r="X28" s="77">
-        <v>2.78</v>
-      </c>
-      <c r="Y28" s="77">
-        <v>2.8</v>
-      </c>
-      <c r="Z28" s="77">
-        <v>2.88</v>
-      </c>
-      <c r="AA28" s="77">
-        <v>2.69</v>
-      </c>
-      <c r="AB28" s="77">
-        <v>2.78</v>
-      </c>
-      <c r="AC28" s="50">
-        <v>2.6</v>
-      </c>
-      <c r="AD28" s="50">
-        <v>2.59</v>
-      </c>
-      <c r="AE28" s="50">
-        <v>2.63</v>
-      </c>
-      <c r="AF28" s="50">
-        <v>2.7</v>
-      </c>
-      <c r="AG28" s="101">
-        <v>2.72</v>
-      </c>
-      <c r="AH28" s="101">
-        <v>2.84</v>
-      </c>
-      <c r="AI28" s="101">
-        <v>2.85</v>
-      </c>
-      <c r="AJ28" s="101">
-        <v>2.8</v>
-      </c>
-      <c r="AK28" s="101">
-        <v>2.63</v>
-      </c>
-      <c r="AL28" s="101">
-        <v>3.28</v>
-      </c>
-      <c r="AM28" s="101">
-        <v>3.23</v>
-      </c>
-      <c r="AN28" s="101">
-        <v>3.17</v>
-      </c>
-      <c r="AO28" s="101">
-        <v>2.61</v>
-      </c>
-      <c r="AP28" s="101">
+      <c r="AQ28" s="101">
+        <v>2.76</v>
+      </c>
+      <c r="AR28" s="101">
         <v>2.68</v>
       </c>
-      <c r="AQ28" s="101">
-        <v>2.66</v>
-      </c>
-      <c r="AR28" s="101">
-        <v>2.76</v>
-      </c>
-      <c r="AS28" s="63">
-        <v>2.73</v>
-      </c>
-      <c r="AT28" s="101">
-        <v>2.76</v>
-      </c>
-      <c r="AU28" s="101">
-        <v>2.68</v>
-      </c>
+      <c r="AS28" s="101"/>
+      <c r="AT28" s="101"/>
+      <c r="AU28" s="101"/>
       <c r="AV28" s="101"/>
       <c r="AW28" s="101"/>
       <c r="AX28" s="101"/>
       <c r="AY28" s="101"/>
       <c r="AZ28" s="101"/>
       <c r="BA28" s="101"/>
-      <c r="BB28" s="101"/>
-      <c r="BC28" s="101"/>
-      <c r="BD28" s="101"/>
     </row>
-    <row r="29" spans="1:56" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:53" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D29" s="26">
         <v>226</v>
       </c>
@@ -39443,130 +39238,124 @@
         <v>2.66</v>
       </c>
       <c r="J29" s="66">
+        <v>2.56</v>
+      </c>
+      <c r="K29" s="66">
+        <v>2.65</v>
+      </c>
+      <c r="L29" s="66">
+        <v>2.69</v>
+      </c>
+      <c r="M29" s="66">
         <v>2.66</v>
       </c>
-      <c r="K29" s="66">
+      <c r="N29" s="66">
+        <v>2.58</v>
+      </c>
+      <c r="O29" s="66">
+        <v>2.54</v>
+      </c>
+      <c r="P29" s="66">
+        <v>2.63</v>
+      </c>
+      <c r="Q29" s="66">
+        <v>2.66</v>
+      </c>
+      <c r="R29" s="66">
+        <v>2.64</v>
+      </c>
+      <c r="S29" s="66">
+        <v>2.67</v>
+      </c>
+      <c r="T29" s="78">
+        <v>2.68</v>
+      </c>
+      <c r="U29" s="78">
+        <v>2.68</v>
+      </c>
+      <c r="V29" s="78">
+        <v>2.73</v>
+      </c>
+      <c r="W29" s="78">
+        <v>2.77</v>
+      </c>
+      <c r="X29" s="78">
+        <v>2.81</v>
+      </c>
+      <c r="Y29" s="78">
+        <v>2.74</v>
+      </c>
+      <c r="Z29" s="78">
+        <v>2.73</v>
+      </c>
+      <c r="AA29" s="99">
+        <v>2.54</v>
+      </c>
+      <c r="AB29" s="99">
         <v>2.56</v>
       </c>
-      <c r="L29" s="66">
+      <c r="AC29" s="99">
+        <v>2.64</v>
+      </c>
+      <c r="AD29" s="102">
+        <v>2.65</v>
+      </c>
+      <c r="AE29" s="102">
+        <v>2.76</v>
+      </c>
+      <c r="AF29" s="102">
+        <v>2.78</v>
+      </c>
+      <c r="AG29" s="102">
+        <v>2.71</v>
+      </c>
+      <c r="AH29" s="102">
         <v>2.56</v>
       </c>
-      <c r="M29" s="66">
-        <v>2.65</v>
-      </c>
-      <c r="N29" s="66">
-        <v>2.69</v>
-      </c>
-      <c r="O29" s="66">
-        <v>2.66</v>
-      </c>
-      <c r="P29" s="66">
-        <v>2.58</v>
-      </c>
-      <c r="Q29" s="66">
+      <c r="AI29" s="102">
+        <v>3.23</v>
+      </c>
+      <c r="AJ29" s="102">
+        <v>3.17</v>
+      </c>
+      <c r="AK29" s="102">
+        <v>3.12</v>
+      </c>
+      <c r="AL29" s="102">
         <v>2.54</v>
       </c>
-      <c r="R29" s="66">
-        <v>2.63</v>
-      </c>
-      <c r="S29" s="66">
-        <v>2.66</v>
-      </c>
-      <c r="T29" s="66">
-        <v>2.64</v>
-      </c>
-      <c r="U29" s="66">
+      <c r="AM29" s="102">
+        <v>2.62</v>
+      </c>
+      <c r="AN29" s="102">
+        <v>2.61</v>
+      </c>
+      <c r="AO29" s="102">
+        <v>2.7</v>
+      </c>
+      <c r="AP29" s="65">
         <v>2.67</v>
       </c>
-      <c r="V29" s="78">
+      <c r="AQ29" s="102">
         <v>2.68</v>
       </c>
-      <c r="W29" s="78">
-        <v>2.68</v>
-      </c>
-      <c r="X29" s="78">
-        <v>2.73</v>
-      </c>
-      <c r="Y29" s="78">
-        <v>2.77</v>
-      </c>
-      <c r="Z29" s="78">
-        <v>2.81</v>
-      </c>
-      <c r="AA29" s="78">
-        <v>2.74</v>
-      </c>
-      <c r="AB29" s="78">
-        <v>2.73</v>
-      </c>
-      <c r="AC29" s="99">
-        <v>2.5299999999999998</v>
-      </c>
-      <c r="AD29" s="99">
-        <v>2.54</v>
-      </c>
-      <c r="AE29" s="99">
-        <v>2.56</v>
-      </c>
-      <c r="AF29" s="99">
-        <v>2.64</v>
-      </c>
-      <c r="AG29" s="102">
-        <v>2.65</v>
-      </c>
-      <c r="AH29" s="102">
-        <v>2.76</v>
-      </c>
-      <c r="AI29" s="102">
-        <v>2.78</v>
-      </c>
-      <c r="AJ29" s="102">
-        <v>2.71</v>
-      </c>
-      <c r="AK29" s="102">
-        <v>2.56</v>
-      </c>
-      <c r="AL29" s="102">
-        <v>3.23</v>
-      </c>
-      <c r="AM29" s="102">
-        <v>3.17</v>
-      </c>
-      <c r="AN29" s="102">
-        <v>3.12</v>
-      </c>
-      <c r="AO29" s="102">
-        <v>2.54</v>
-      </c>
-      <c r="AP29" s="102">
-        <v>2.62</v>
-      </c>
-      <c r="AQ29" s="102">
+      <c r="AR29" s="102">
         <v>2.61</v>
       </c>
-      <c r="AR29" s="102">
-        <v>2.7</v>
-      </c>
-      <c r="AS29" s="65">
-        <v>2.67</v>
-      </c>
-      <c r="AT29" s="102">
-        <v>2.68</v>
-      </c>
-      <c r="AU29" s="102">
-        <v>2.61</v>
-      </c>
+      <c r="AS29" s="102"/>
+      <c r="AT29" s="102"/>
+      <c r="AU29" s="102"/>
       <c r="AV29" s="102"/>
       <c r="AW29" s="102"/>
       <c r="AX29" s="102"/>
       <c r="AY29" s="102"/>
       <c r="AZ29" s="102"/>
       <c r="BA29" s="102"/>
-      <c r="BB29" s="102"/>
-      <c r="BC29" s="102"/>
-      <c r="BD29" s="102"/>
     </row>
-    <row r="30" spans="1:56" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:53" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="AQ30" s="73"/>
+      <c r="AR30" s="73"/>
+      <c r="AS30" s="73"/>
       <c r="AT30" s="73"/>
       <c r="AU30" s="73"/>
       <c r="AV30" s="73"/>
@@ -39575,14 +39364,14 @@
       <c r="AY30" s="73"/>
       <c r="AZ30" s="73"/>
       <c r="BA30" s="73"/>
-      <c r="BB30" s="73"/>
-      <c r="BC30" s="73"/>
-      <c r="BD30" s="73"/>
     </row>
-    <row r="31" spans="1:56" ht="30" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:53" ht="30" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="33" t="s">
         <v>8</v>
       </c>
+      <c r="AQ31" s="73"/>
+      <c r="AR31" s="73"/>
+      <c r="AS31" s="73"/>
       <c r="AT31" s="73"/>
       <c r="AU31" s="73"/>
       <c r="AV31" s="73"/>
@@ -39591,11 +39380,8 @@
       <c r="AY31" s="73"/>
       <c r="AZ31" s="73"/>
       <c r="BA31" s="73"/>
-      <c r="BB31" s="73"/>
-      <c r="BC31" s="73"/>
-      <c r="BD31" s="73"/>
     </row>
-    <row r="32" spans="1:56" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:53" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="D32" s="140" t="s">
         <v>0</v>
       </c>
@@ -39609,35 +39395,35 @@
       <c r="J32" s="59"/>
       <c r="K32" s="59"/>
       <c r="L32" s="59"/>
-      <c r="M32" s="59"/>
-      <c r="N32" s="59"/>
-      <c r="O32" s="82" t="s">
+      <c r="M32" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="P32" s="82" t="s">
+      <c r="N32" s="82" t="s">
         <v>20</v>
       </c>
+      <c r="O32" s="59"/>
+      <c r="P32" s="59"/>
       <c r="Q32" s="59"/>
       <c r="R32" s="59"/>
       <c r="S32" s="59"/>
-      <c r="T32" s="59"/>
-      <c r="U32" s="59"/>
+      <c r="T32" s="60"/>
+      <c r="U32" s="60"/>
       <c r="V32" s="60"/>
       <c r="W32" s="60"/>
       <c r="X32" s="60"/>
       <c r="Y32" s="60"/>
       <c r="Z32" s="60"/>
-      <c r="AA32" s="60"/>
-      <c r="AB32" s="60"/>
-      <c r="AC32" s="60"/>
-      <c r="AD32" s="112"/>
+      <c r="AA32" s="112"/>
+      <c r="AB32" s="112"/>
+      <c r="AC32" s="103" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD32" s="112" t="s">
+        <v>30</v>
+      </c>
       <c r="AE32" s="112"/>
-      <c r="AF32" s="103" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG32" s="112" t="s">
-        <v>30</v>
-      </c>
+      <c r="AF32" s="112"/>
+      <c r="AG32" s="112"/>
       <c r="AH32" s="112"/>
       <c r="AI32" s="112"/>
       <c r="AJ32" s="112"/>
@@ -39658,15 +39444,12 @@
       <c r="AY32" s="112"/>
       <c r="AZ32" s="112"/>
       <c r="BA32" s="112"/>
-      <c r="BB32" s="112"/>
-      <c r="BC32" s="112"/>
-      <c r="BD32" s="112"/>
     </row>
-    <row r="33" spans="4:56" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D33" s="141"/>
       <c r="E33" s="61"/>
       <c r="F33" s="24">
-        <f t="shared" ref="F33:L33" si="0">F10</f>
+        <f t="shared" ref="F33:J33" si="0">F10</f>
         <v>43760</v>
       </c>
       <c r="G33" s="24">
@@ -39683,127 +39466,128 @@
       </c>
       <c r="J33" s="24">
         <f t="shared" si="0"/>
-        <v>43844</v>
-      </c>
-      <c r="K33" s="24">
-        <f t="shared" si="0"/>
         <v>43867</v>
       </c>
-      <c r="L33" s="24">
-        <f t="shared" si="0"/>
-        <v>43867</v>
+      <c r="K33" s="55">
+        <v>43949</v>
+      </c>
+      <c r="L33" s="55">
+        <v>43979</v>
       </c>
       <c r="M33" s="55">
-        <v>43949</v>
+        <v>43998</v>
       </c>
       <c r="N33" s="55">
-        <v>43979</v>
+        <v>44017</v>
       </c>
       <c r="O33" s="55">
-        <v>43998</v>
+        <v>44039</v>
       </c>
       <c r="P33" s="55">
-        <v>44017</v>
+        <v>44131</v>
       </c>
       <c r="Q33" s="55">
-        <v>44039</v>
+        <f t="shared" ref="Q33:Q34" si="1">IF(Q10="","",Q10)</f>
+        <v>44144</v>
       </c>
       <c r="R33" s="55">
-        <v>44131</v>
+        <v>44145</v>
       </c>
       <c r="S33" s="55">
-        <f t="shared" ref="S33:S34" si="1">IF(S10="","",S10)</f>
-        <v>44144</v>
-      </c>
-      <c r="T33" s="55">
-        <v>44145</v>
-      </c>
-      <c r="U33" s="55">
         <v>44173</v>
       </c>
+      <c r="T33" s="92">
+        <v>44208</v>
+      </c>
+      <c r="U33" s="92">
+        <v>44236</v>
+      </c>
       <c r="V33" s="92">
-        <v>44208</v>
+        <v>44286</v>
       </c>
       <c r="W33" s="92">
-        <v>44236</v>
+        <v>44306</v>
       </c>
       <c r="X33" s="92">
-        <v>44286</v>
+        <v>44341</v>
       </c>
       <c r="Y33" s="92">
-        <v>44306</v>
+        <v>44378</v>
       </c>
       <c r="Z33" s="92">
-        <v>44341</v>
-      </c>
-      <c r="AA33" s="92">
-        <v>44378</v>
-      </c>
-      <c r="AB33" s="92">
         <v>44410</v>
       </c>
-      <c r="AC33" s="93">
+      <c r="AA33" s="105">
         <v>44488</v>
       </c>
-      <c r="AD33" s="105">
-        <v>44488</v>
+      <c r="AB33" s="107">
+        <v>44515</v>
+      </c>
+      <c r="AC33" s="105">
+        <v>44540</v>
+      </c>
+      <c r="AD33" s="107">
+        <v>44564</v>
       </c>
       <c r="AE33" s="107">
-        <v>44515</v>
-      </c>
-      <c r="AF33" s="105">
-        <v>44540</v>
+        <v>44606</v>
+      </c>
+      <c r="AF33" s="107">
+        <v>44634</v>
       </c>
       <c r="AG33" s="107">
-        <v>44564</v>
+        <v>44690</v>
       </c>
       <c r="AH33" s="107">
-        <v>44606</v>
+        <v>44750</v>
       </c>
       <c r="AI33" s="107">
-        <v>44634</v>
+        <v>44753</v>
       </c>
       <c r="AJ33" s="107">
-        <v>44690</v>
+        <v>44757</v>
       </c>
       <c r="AK33" s="107">
-        <v>44750</v>
+        <v>44813</v>
       </c>
       <c r="AL33" s="107">
-        <v>44753</v>
+        <v>44842</v>
       </c>
       <c r="AM33" s="107">
-        <v>44757</v>
+        <f>AM10</f>
+        <v>44874</v>
       </c>
       <c r="AN33" s="107">
-        <v>44813</v>
+        <f t="shared" ref="AN33:BA33" si="2">AN10</f>
+        <v>44910</v>
       </c>
       <c r="AO33" s="107">
-        <v>44842</v>
+        <f t="shared" si="2"/>
+        <v>44961</v>
       </c>
       <c r="AP33" s="107">
-        <f>AP10</f>
-        <v>44874</v>
+        <f t="shared" si="2"/>
+        <v>45006</v>
       </c>
       <c r="AQ33" s="107">
-        <f t="shared" ref="AQ33:BD33" si="2">AQ10</f>
-        <v>44910</v>
+        <f t="shared" si="2"/>
+        <v>45040</v>
       </c>
       <c r="AR33" s="107">
         <f t="shared" si="2"/>
-        <v>44961</v>
+        <v>45073</v>
       </c>
       <c r="AS33" s="107">
         <f t="shared" si="2"/>
-        <v>45006</v>
+        <v>0</v>
       </c>
       <c r="AT33" s="107">
         <f t="shared" si="2"/>
-        <v>45040</v>
+        <v>0</v>
       </c>
       <c r="AU33" s="107">
         <f t="shared" si="2"/>
-        <v>45073</v>
+        <v>0</v>
       </c>
       <c r="AV33" s="107">
         <f t="shared" si="2"/>
@@ -39829,20 +39613,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="BB33" s="107">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC33" s="107">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BD33" s="107">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="34" spans="4:56" s="84" customFormat="1" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:53" s="84" customFormat="1" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D34" s="142"/>
       <c r="E34" s="47"/>
       <c r="F34" s="19" t="s">
@@ -39878,15 +39650,15 @@
       <c r="P34" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="Q34" s="19" t="s">
-        <v>3</v>
+      <c r="Q34" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>sigma y [mm]</v>
       </c>
       <c r="R34" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="S34" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>sigma y [mm]</v>
+      <c r="S34" s="19" t="s">
+        <v>3</v>
       </c>
       <c r="T34" s="19" t="s">
         <v>3</v>
@@ -39909,13 +39681,13 @@
       <c r="Z34" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="AA34" s="19" t="s">
+      <c r="AA34" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="AB34" s="19" t="s">
+      <c r="AB34" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="AC34" s="19" t="s">
+      <c r="AC34" s="106" t="s">
         <v>3</v>
       </c>
       <c r="AD34" s="106" t="s">
@@ -39990,23 +39762,14 @@
       <c r="BA34" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="BB34" s="106" t="s">
-        <v>3</v>
-      </c>
-      <c r="BC34" s="106" t="s">
-        <v>3</v>
-      </c>
-      <c r="BD34" s="106" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="35" spans="4:56" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:53" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="D35" s="10">
         <v>60</v>
       </c>
       <c r="E35" s="79"/>
       <c r="F35" s="67">
-        <f t="shared" ref="F35:R35" si="3">F12/$E12-1</f>
+        <f t="shared" ref="F35:P35" si="3">F12/$E12-1</f>
         <v>-8.025122121423589E-2</v>
       </c>
       <c r="G35" s="67">
@@ -40023,7 +39786,7 @@
       </c>
       <c r="J35" s="67">
         <f t="shared" si="3"/>
-        <v>-7.6064200976971419E-2</v>
+        <v>-7.8855547801814474E-2</v>
       </c>
       <c r="K35" s="67">
         <f t="shared" si="3"/>
@@ -40031,15 +39794,15 @@
       </c>
       <c r="L35" s="67">
         <f t="shared" si="3"/>
-        <v>-7.8855547801814474E-2</v>
+        <v>-7.048150732728542E-2</v>
       </c>
       <c r="M35" s="67">
         <f t="shared" si="3"/>
-        <v>-7.8855547801814474E-2</v>
+        <v>-7.048150732728542E-2</v>
       </c>
       <c r="N35" s="67">
         <f t="shared" si="3"/>
-        <v>-7.048150732728542E-2</v>
+        <v>-7.6064200976971419E-2</v>
       </c>
       <c r="O35" s="67">
         <f t="shared" si="3"/>
@@ -40047,149 +39810,137 @@
       </c>
       <c r="P35" s="67">
         <f t="shared" si="3"/>
-        <v>-7.6064200976971419E-2</v>
+        <v>-6.9085833914863892E-2</v>
       </c>
       <c r="Q35" s="67">
-        <f t="shared" si="3"/>
-        <v>-7.048150732728542E-2</v>
+        <f t="shared" ref="Q35:R35" si="4">Q12/$E12-1</f>
+        <v>-7.3272854152128475E-2</v>
       </c>
       <c r="R35" s="67">
-        <f t="shared" si="3"/>
-        <v>-6.9085833914863892E-2</v>
-      </c>
-      <c r="S35" s="67">
-        <f t="shared" ref="S35:T35" si="4">S12/$E12-1</f>
-        <v>-7.3272854152128475E-2</v>
-      </c>
-      <c r="T35" s="67">
         <f t="shared" si="4"/>
         <v>-5.9316120027913422E-2</v>
       </c>
+      <c r="S35" s="67">
+        <f t="shared" ref="S35:X35" si="5">S12/$E12-1</f>
+        <v>-6.4898813677599421E-2</v>
+      </c>
+      <c r="T35" s="67">
+        <f t="shared" si="5"/>
+        <v>-8.025122121423589E-2</v>
+      </c>
       <c r="U35" s="67">
-        <f t="shared" ref="U35:Z35" si="5">U12/$E12-1</f>
-        <v>-6.4898813677599421E-2</v>
+        <f t="shared" si="5"/>
+        <v>-7.3272854152128475E-2</v>
       </c>
       <c r="V35" s="67">
         <f t="shared" si="5"/>
-        <v>-8.025122121423589E-2</v>
+        <v>-6.9085833914863892E-2</v>
       </c>
       <c r="W35" s="67">
         <f t="shared" si="5"/>
-        <v>-7.3272854152128475E-2</v>
+        <v>-6.9085833914863892E-2</v>
       </c>
       <c r="X35" s="67">
         <f t="shared" si="5"/>
-        <v>-6.9085833914863892E-2</v>
+        <v>-8.025122121423589E-2</v>
       </c>
       <c r="Y35" s="67">
-        <f t="shared" si="5"/>
-        <v>-6.9085833914863892E-2</v>
+        <f t="shared" ref="Y35" si="6">Y12/$E12-1</f>
+        <v>-7.4668527564549891E-2</v>
       </c>
       <c r="Z35" s="67">
-        <f t="shared" si="5"/>
-        <v>-8.025122121423589E-2</v>
+        <f>Z12/$E12-1</f>
+        <v>-7.4668527564549891E-2</v>
       </c>
       <c r="AA35" s="67">
-        <f t="shared" ref="AA35" si="6">AA12/$E12-1</f>
-        <v>-7.4668527564549891E-2</v>
+        <f t="shared" ref="AA35" si="7">AA12/$E12-1</f>
+        <v>-6.7690160502442476E-2</v>
       </c>
       <c r="AB35" s="67">
-        <f>AB12/$E12-1</f>
-        <v>-7.4668527564549891E-2</v>
+        <f t="shared" ref="AB35:AC35" si="8">AB12/$E12-1</f>
+        <v>-7.7459874389392835E-2</v>
       </c>
       <c r="AC35" s="67">
-        <f t="shared" ref="AC35:AD35" si="7">AC12/$E12-1</f>
-        <v>-7.048150732728542E-2</v>
-      </c>
-      <c r="AD35" s="67">
-        <f t="shared" si="7"/>
-        <v>-6.7690160502442476E-2</v>
-      </c>
-      <c r="AE35" s="67">
-        <f t="shared" ref="AE35:AF35" si="8">AE12/$E12-1</f>
-        <v>-7.7459874389392835E-2</v>
-      </c>
-      <c r="AF35" s="67">
         <f t="shared" si="8"/>
         <v>-7.1877180739706836E-2</v>
+      </c>
+      <c r="AD35" s="67">
+        <f>AD12/$E12-1</f>
+        <v>-8.3042568039078835E-2</v>
+      </c>
+      <c r="AE35" s="67">
+        <f>AE12/$E12-1</f>
+        <v>-7.1877180739706836E-2</v>
+      </c>
+      <c r="AF35" s="67">
+        <f>AF12/$E12-1</f>
+        <v>-7.7459874389392835E-2</v>
       </c>
       <c r="AG35" s="67">
         <f>AG12/$E12-1</f>
         <v>-8.3042568039078835E-2</v>
       </c>
       <c r="AH35" s="67">
-        <f>AH12/$E12-1</f>
-        <v>-7.1877180739706836E-2</v>
+        <f t="shared" ref="AH35:AI35" si="9">AH12/$E12-1</f>
+        <v>-7.4668527564549891E-2</v>
       </c>
       <c r="AI35" s="67">
-        <f>AI12/$E12-1</f>
-        <v>-7.7459874389392835E-2</v>
-      </c>
-      <c r="AJ35" s="67">
-        <f>AJ12/$E12-1</f>
-        <v>-8.3042568039078835E-2</v>
-      </c>
-      <c r="AK35" s="67">
-        <f t="shared" ref="AK35:AL35" si="9">AK12/$E12-1</f>
-        <v>-7.4668527564549891E-2</v>
-      </c>
-      <c r="AL35" s="67">
         <f t="shared" si="9"/>
         <v>-7.7459874389392835E-2</v>
       </c>
-      <c r="AM35" s="67">
-        <f t="shared" ref="AM35:AN35" si="10">AM12/$E12-1</f>
+      <c r="AJ35" s="67">
+        <f t="shared" ref="AJ35:AK35" si="10">AJ12/$E12-1</f>
         <v>-8.025122121423589E-2</v>
       </c>
-      <c r="AN35" s="67">
+      <c r="AK35" s="67">
         <f t="shared" si="10"/>
         <v>-8.3042568039078835E-2</v>
       </c>
+      <c r="AL35" s="67">
+        <f>AL12/$E12-1</f>
+        <v>-8.7229588276343306E-2</v>
+      </c>
+      <c r="AM35" s="67">
+        <f t="shared" ref="AM35" si="11">AM12/$E12-1</f>
+        <v>-8.025122121423589E-2</v>
+      </c>
+      <c r="AN35" s="67">
+        <f t="shared" ref="AN35:AO35" si="12">AN12/$E12-1</f>
+        <v>-7.7459874389392835E-2</v>
+      </c>
       <c r="AO35" s="67">
-        <f>AO12/$E12-1</f>
-        <v>-8.7229588276343306E-2</v>
-      </c>
-      <c r="AP35" s="67">
-        <f t="shared" ref="AP35" si="11">AP12/$E12-1</f>
-        <v>-8.025122121423589E-2</v>
-      </c>
-      <c r="AQ35" s="67">
-        <f t="shared" ref="AQ35:AR35" si="12">AQ12/$E12-1</f>
-        <v>-7.7459874389392835E-2</v>
-      </c>
-      <c r="AR35" s="67">
         <f t="shared" si="12"/>
         <v>-7.3272854152128475E-2</v>
       </c>
-      <c r="AS35" s="67">
-        <f t="shared" ref="AS35:AT35" si="13">AS12/$E12-1</f>
+      <c r="AP35" s="67">
+        <f t="shared" ref="AP35:AQ35" si="13">AP12/$E12-1</f>
         <v>-7.8855547801814474E-2</v>
       </c>
-      <c r="AT35" s="67">
+      <c r="AQ35" s="67">
         <f t="shared" si="13"/>
         <v>-6.7690160502442476E-2</v>
       </c>
-      <c r="AU35" s="67">
-        <f t="shared" ref="AU35" si="14">AU12/$E12-1</f>
+      <c r="AR35" s="67">
+        <f t="shared" ref="AR35" si="14">AR12/$E12-1</f>
         <v>-7.8855547801814474E-2</v>
       </c>
+      <c r="AS35" s="67"/>
+      <c r="AT35" s="67"/>
+      <c r="AU35" s="67"/>
       <c r="AV35" s="67"/>
       <c r="AW35" s="67"/>
       <c r="AX35" s="67"/>
       <c r="AY35" s="67"/>
       <c r="AZ35" s="67"/>
       <c r="BA35" s="67"/>
-      <c r="BB35" s="67"/>
-      <c r="BC35" s="67"/>
-      <c r="BD35" s="67"/>
     </row>
-    <row r="36" spans="4:56" x14ac:dyDescent="0.2">
+    <row r="36" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D36" s="14">
         <v>70</v>
       </c>
       <c r="E36" s="80"/>
       <c r="F36" s="68">
-        <f t="shared" ref="F36:R36" si="15">F13/$E13-1</f>
+        <f t="shared" ref="F36:P36" si="15">F13/$E13-1</f>
         <v>-7.5759913593581141E-2</v>
       </c>
       <c r="G36" s="68">
@@ -40206,7 +39957,7 @@
       </c>
       <c r="J36" s="68">
         <f t="shared" si="15"/>
-        <v>-8.038882888443144E-2</v>
+        <v>-7.8845857120814711E-2</v>
       </c>
       <c r="K36" s="68">
         <f t="shared" si="15"/>
@@ -40214,7 +39965,7 @@
       </c>
       <c r="L36" s="68">
         <f t="shared" si="15"/>
-        <v>-7.8845857120814711E-2</v>
+        <v>-7.1130998302731063E-2</v>
       </c>
       <c r="M36" s="68">
         <f t="shared" si="15"/>
@@ -40222,157 +39973,145 @@
       </c>
       <c r="N36" s="68">
         <f t="shared" si="15"/>
-        <v>-7.1130998302731063E-2</v>
+        <v>-8.3474772411664788E-2</v>
       </c>
       <c r="O36" s="68">
         <f t="shared" si="15"/>
-        <v>-7.8845857120814711E-2</v>
+        <v>-7.5759913593581141E-2</v>
       </c>
       <c r="P36" s="68">
         <f t="shared" si="15"/>
-        <v>-8.3474772411664788E-2</v>
+        <v>-7.8845857120814711E-2</v>
       </c>
       <c r="Q36" s="68">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="Q36:R36" si="16">Q13/$E13-1</f>
         <v>-7.5759913593581141E-2</v>
       </c>
       <c r="R36" s="68">
-        <f t="shared" si="15"/>
-        <v>-7.8845857120814711E-2</v>
-      </c>
-      <c r="S36" s="68">
-        <f t="shared" ref="S36:T36" si="16">S13/$E13-1</f>
-        <v>-7.5759913593581141E-2</v>
-      </c>
-      <c r="T36" s="68">
         <f t="shared" si="16"/>
         <v>-7.2673970066347793E-2</v>
       </c>
-      <c r="U36" s="68">
-        <f t="shared" ref="U36:V36" si="17">U13/$E13-1</f>
+      <c r="S36" s="68">
+        <f t="shared" ref="S36:T36" si="17">S13/$E13-1</f>
         <v>-7.1130998302731063E-2</v>
       </c>
-      <c r="V36" s="68">
+      <c r="T36" s="68">
         <f t="shared" si="17"/>
         <v>-8.3474772411664788E-2</v>
       </c>
-      <c r="W36" s="68">
-        <f t="shared" ref="W36:X36" si="18">W13/$E13-1</f>
+      <c r="U36" s="68">
+        <f t="shared" ref="U36:V36" si="18">U13/$E13-1</f>
         <v>-7.8845857120814711E-2</v>
       </c>
-      <c r="X36" s="68">
+      <c r="V36" s="68">
         <f t="shared" si="18"/>
         <v>-8.1931800648048059E-2</v>
       </c>
-      <c r="Y36" s="68">
-        <f t="shared" ref="Y36:Z36" si="19">Y13/$E13-1</f>
+      <c r="W36" s="68">
+        <f t="shared" ref="W36:X36" si="19">W13/$E13-1</f>
         <v>-7.8845857120814711E-2</v>
       </c>
-      <c r="Z36" s="68">
+      <c r="X36" s="68">
         <f t="shared" si="19"/>
         <v>-7.8845857120814711E-2</v>
       </c>
-      <c r="AA36" s="68">
-        <f t="shared" ref="AA36:AB36" si="20">AA13/$E13-1</f>
+      <c r="Y36" s="68">
+        <f t="shared" ref="Y36:Z36" si="20">Y13/$E13-1</f>
         <v>-7.730288535719787E-2</v>
       </c>
-      <c r="AB36" s="68">
+      <c r="Z36" s="68">
         <f t="shared" si="20"/>
         <v>-7.730288535719787E-2</v>
       </c>
+      <c r="AA36" s="68">
+        <f t="shared" ref="AA36" si="21">AA13/$E13-1</f>
+        <v>-8.8103687702514977E-2</v>
+      </c>
+      <c r="AB36" s="68">
+        <f t="shared" ref="AB36:AC36" si="22">AB13/$E13-1</f>
+        <v>-8.1931800648048059E-2</v>
+      </c>
       <c r="AC36" s="68">
-        <f t="shared" ref="AC36:AD36" si="21">AC13/$E13-1</f>
-        <v>-8.9646659466131706E-2</v>
-      </c>
-      <c r="AD36" s="68">
-        <f t="shared" si="21"/>
-        <v>-8.8103687702514977E-2</v>
-      </c>
-      <c r="AE36" s="68">
-        <f t="shared" ref="AE36:AF36" si="22">AE13/$E13-1</f>
-        <v>-8.1931800648048059E-2</v>
-      </c>
-      <c r="AF36" s="68">
         <f t="shared" si="22"/>
         <v>-7.5759913593581141E-2</v>
       </c>
-      <c r="AG36" s="68">
-        <f t="shared" ref="AG36:AI36" si="23">AG13/$E13-1</f>
+      <c r="AD36" s="68">
+        <f t="shared" ref="AD36:AF36" si="23">AD13/$E13-1</f>
         <v>-8.3474772411664788E-2</v>
       </c>
-      <c r="AH36" s="68">
+      <c r="AE36" s="68">
         <f t="shared" si="23"/>
         <v>-8.6560715938898358E-2</v>
       </c>
-      <c r="AI36" s="68">
+      <c r="AF36" s="68">
         <f t="shared" si="23"/>
         <v>-8.8103687702514977E-2</v>
       </c>
-      <c r="AJ36" s="68">
-        <f t="shared" ref="AJ36:AL36" si="24">AJ13/$E13-1</f>
+      <c r="AG36" s="68">
+        <f t="shared" ref="AG36:AI36" si="24">AG13/$E13-1</f>
         <v>-9.5818546520598624E-2</v>
       </c>
-      <c r="AK36" s="68">
+      <c r="AH36" s="68">
         <f t="shared" si="24"/>
         <v>-8.3474772411664788E-2</v>
       </c>
-      <c r="AL36" s="68">
+      <c r="AI36" s="68">
         <f t="shared" si="24"/>
         <v>-8.6560715938898358E-2</v>
       </c>
-      <c r="AM36" s="68">
-        <f t="shared" ref="AM36:AN36" si="25">AM13/$E13-1</f>
+      <c r="AJ36" s="68">
+        <f t="shared" ref="AJ36:AK36" si="25">AJ13/$E13-1</f>
         <v>-7.730288535719787E-2</v>
       </c>
-      <c r="AN36" s="68">
+      <c r="AK36" s="68">
         <f t="shared" si="25"/>
         <v>-8.6560715938898358E-2</v>
       </c>
-      <c r="AO36" s="68">
-        <f t="shared" ref="AO36:AP36" si="26">AO13/$E13-1</f>
+      <c r="AL36" s="68">
+        <f t="shared" ref="AL36:AM36" si="26">AL13/$E13-1</f>
         <v>-9.2732602993365165E-2</v>
       </c>
-      <c r="AP36" s="68">
+      <c r="AM36" s="68">
         <f t="shared" si="26"/>
         <v>-9.2732602993365165E-2</v>
       </c>
-      <c r="AQ36" s="68">
-        <f t="shared" ref="AQ36:AR36" si="27">AQ13/$E13-1</f>
+      <c r="AN36" s="68">
+        <f t="shared" ref="AN36:AO36" si="27">AN13/$E13-1</f>
         <v>-9.1189631229748547E-2</v>
       </c>
-      <c r="AR36" s="68">
+      <c r="AO36" s="68">
         <f t="shared" si="27"/>
         <v>-8.5017744175281629E-2</v>
       </c>
-      <c r="AS36" s="68">
-        <f t="shared" ref="AS36:AT36" si="28">AS13/$E13-1</f>
+      <c r="AP36" s="68">
+        <f t="shared" ref="AP36:AQ36" si="28">AP13/$E13-1</f>
         <v>-8.9646659466131706E-2</v>
       </c>
-      <c r="AT36" s="68">
+      <c r="AQ36" s="68">
         <f t="shared" si="28"/>
         <v>-9.1189631229748547E-2</v>
       </c>
-      <c r="AU36" s="68">
-        <f t="shared" ref="AU36" si="29">AU13/$E13-1</f>
+      <c r="AR36" s="68">
+        <f t="shared" ref="AR36" si="29">AR13/$E13-1</f>
         <v>-9.5818546520598624E-2</v>
       </c>
+      <c r="AS36" s="68"/>
+      <c r="AT36" s="68"/>
+      <c r="AU36" s="68"/>
       <c r="AV36" s="68"/>
       <c r="AW36" s="68"/>
       <c r="AX36" s="68"/>
       <c r="AY36" s="68"/>
       <c r="AZ36" s="68"/>
       <c r="BA36" s="68"/>
-      <c r="BB36" s="68"/>
-      <c r="BC36" s="68"/>
-      <c r="BD36" s="68"/>
     </row>
-    <row r="37" spans="4:56" x14ac:dyDescent="0.2">
+    <row r="37" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D37" s="14">
         <v>80</v>
       </c>
       <c r="E37" s="80"/>
       <c r="F37" s="68">
-        <f t="shared" ref="F37:R37" si="30">F14/$E14-1</f>
+        <f t="shared" ref="F37:P37" si="30">F14/$E14-1</f>
         <v>-4.5606620883958504E-2</v>
       </c>
       <c r="G37" s="68">
@@ -40389,173 +40128,161 @@
       </c>
       <c r="J37" s="68">
         <f t="shared" si="30"/>
-        <v>-4.736749427716147E-2</v>
+        <v>-4.9128367670364437E-2</v>
       </c>
       <c r="K37" s="68">
         <f t="shared" si="30"/>
-        <v>-4.9128367670364437E-2</v>
+        <v>-4.3845747490755538E-2</v>
       </c>
       <c r="L37" s="68">
         <f t="shared" si="30"/>
-        <v>-4.9128367670364437E-2</v>
+        <v>-4.5606620883958504E-2</v>
       </c>
       <c r="M37" s="68">
         <f t="shared" si="30"/>
-        <v>-4.3845747490755538E-2</v>
+        <v>-4.736749427716147E-2</v>
       </c>
       <c r="N37" s="68">
         <f t="shared" si="30"/>
-        <v>-4.5606620883958504E-2</v>
+        <v>-5.0889241063567625E-2</v>
       </c>
       <c r="O37" s="68">
         <f t="shared" si="30"/>
-        <v>-4.736749427716147E-2</v>
+        <v>-5.0889241063567625E-2</v>
       </c>
       <c r="P37" s="68">
         <f t="shared" si="30"/>
-        <v>-5.0889241063567625E-2</v>
+        <v>-4.5606620883958504E-2</v>
       </c>
       <c r="Q37" s="68">
-        <f t="shared" si="30"/>
-        <v>-5.0889241063567625E-2</v>
+        <f t="shared" ref="Q37:R37" si="31">Q14/$E14-1</f>
+        <v>-4.5606620883958504E-2</v>
       </c>
       <c r="R37" s="68">
-        <f t="shared" si="30"/>
-        <v>-4.5606620883958504E-2</v>
-      </c>
-      <c r="S37" s="68">
-        <f t="shared" ref="S37:T37" si="31">S14/$E14-1</f>
-        <v>-4.5606620883958504E-2</v>
-      </c>
-      <c r="T37" s="68">
         <f t="shared" si="31"/>
         <v>-4.0324000704349383E-2</v>
       </c>
-      <c r="U37" s="68">
-        <f t="shared" ref="U37:V37" si="32">U14/$E14-1</f>
+      <c r="S37" s="68">
+        <f t="shared" ref="S37:T37" si="32">S14/$E14-1</f>
         <v>-5.0889241063567625E-2</v>
       </c>
-      <c r="V37" s="68">
+      <c r="T37" s="68">
         <f t="shared" si="32"/>
         <v>-5.7932734636379712E-2</v>
       </c>
-      <c r="W37" s="68">
-        <f t="shared" ref="W37:X37" si="33">W14/$E14-1</f>
+      <c r="U37" s="68">
+        <f t="shared" ref="U37:V37" si="33">U14/$E14-1</f>
         <v>-5.0889241063567625E-2</v>
       </c>
-      <c r="X37" s="68">
+      <c r="V37" s="68">
         <f t="shared" si="33"/>
         <v>-5.4410987849973558E-2</v>
       </c>
-      <c r="Y37" s="68">
-        <f t="shared" ref="Y37:Z37" si="34">Y14/$E14-1</f>
+      <c r="W37" s="68">
+        <f t="shared" ref="W37:X37" si="34">W14/$E14-1</f>
         <v>-4.736749427716147E-2</v>
       </c>
-      <c r="Z37" s="68">
+      <c r="X37" s="68">
         <f t="shared" si="34"/>
         <v>-5.4410987849973558E-2</v>
       </c>
-      <c r="AA37" s="68">
-        <f t="shared" ref="AA37:AB37" si="35">AA14/$E14-1</f>
+      <c r="Y37" s="68">
+        <f t="shared" ref="Y37:Z37" si="35">Y14/$E14-1</f>
         <v>-4.9128367670364437E-2</v>
       </c>
-      <c r="AB37" s="68">
+      <c r="Z37" s="68">
         <f t="shared" si="35"/>
         <v>-4.9128367670364437E-2</v>
       </c>
+      <c r="AA37" s="68">
+        <f t="shared" ref="AA37" si="36">AA14/$E14-1</f>
+        <v>-5.6171861243176635E-2</v>
+      </c>
+      <c r="AB37" s="68">
+        <f t="shared" ref="AB37:AC37" si="37">AB14/$E14-1</f>
+        <v>-4.736749427716147E-2</v>
+      </c>
       <c r="AC37" s="68">
-        <f t="shared" ref="AC37:AD37" si="36">AC14/$E14-1</f>
-        <v>-5.2650114456770591E-2</v>
-      </c>
-      <c r="AD37" s="68">
-        <f t="shared" si="36"/>
-        <v>-5.6171861243176635E-2</v>
-      </c>
-      <c r="AE37" s="68">
-        <f t="shared" ref="AE37:AF37" si="37">AE14/$E14-1</f>
-        <v>-4.736749427716147E-2</v>
-      </c>
-      <c r="AF37" s="68">
         <f t="shared" si="37"/>
         <v>-5.6171861243176635E-2</v>
       </c>
-      <c r="AG37" s="68">
-        <f t="shared" ref="AG37:AI37" si="38">AG14/$E14-1</f>
+      <c r="AD37" s="68">
+        <f t="shared" ref="AD37:AF37" si="38">AD14/$E14-1</f>
         <v>-4.9128367670364437E-2</v>
       </c>
-      <c r="AH37" s="68">
+      <c r="AE37" s="68">
         <f t="shared" si="38"/>
         <v>-5.969360802958279E-2</v>
       </c>
-      <c r="AI37" s="68">
+      <c r="AF37" s="68">
         <f t="shared" si="38"/>
         <v>-5.6171861243176635E-2</v>
       </c>
-      <c r="AJ37" s="68">
-        <f t="shared" ref="AJ37:AL37" si="39">AJ14/$E14-1</f>
+      <c r="AG37" s="68">
+        <f t="shared" ref="AG37:AI37" si="39">AG14/$E14-1</f>
         <v>-4.9128367670364437E-2</v>
       </c>
-      <c r="AK37" s="68">
+      <c r="AH37" s="68">
         <f t="shared" si="39"/>
         <v>-5.2650114456770591E-2</v>
       </c>
-      <c r="AL37" s="68">
+      <c r="AI37" s="68">
         <f t="shared" si="39"/>
         <v>-4.0324000704349383E-2</v>
       </c>
-      <c r="AM37" s="68">
-        <f t="shared" ref="AM37:AN37" si="40">AM14/$E14-1</f>
+      <c r="AJ37" s="68">
+        <f t="shared" ref="AJ37:AK37" si="40">AJ14/$E14-1</f>
         <v>-5.0889241063567625E-2</v>
       </c>
-      <c r="AN37" s="68">
+      <c r="AK37" s="68">
         <f t="shared" si="40"/>
         <v>-5.6171861243176635E-2</v>
       </c>
-      <c r="AO37" s="68">
-        <f t="shared" ref="AO37:AP37" si="41">AO14/$E14-1</f>
+      <c r="AL37" s="68">
+        <f t="shared" ref="AL37:AM37" si="41">AL14/$E14-1</f>
         <v>-5.969360802958279E-2</v>
       </c>
-      <c r="AP37" s="68">
+      <c r="AM37" s="68">
         <f t="shared" si="41"/>
         <v>-5.7932734636379712E-2</v>
       </c>
-      <c r="AQ37" s="68">
-        <f t="shared" ref="AQ37:AR37" si="42">AQ14/$E14-1</f>
+      <c r="AN37" s="68">
+        <f t="shared" ref="AN37:AO37" si="42">AN14/$E14-1</f>
         <v>-6.3215354815988722E-2</v>
       </c>
-      <c r="AR37" s="68">
+      <c r="AO37" s="68">
         <f t="shared" si="42"/>
         <v>-5.2650114456770591E-2</v>
       </c>
-      <c r="AS37" s="68">
-        <f t="shared" ref="AS37:AT37" si="43">AS14/$E14-1</f>
+      <c r="AP37" s="68">
+        <f t="shared" ref="AP37:AQ37" si="43">AP14/$E14-1</f>
         <v>-5.969360802958279E-2</v>
       </c>
-      <c r="AT37" s="68">
+      <c r="AQ37" s="68">
         <f t="shared" si="43"/>
         <v>-5.6171861243176635E-2</v>
       </c>
-      <c r="AU37" s="68">
-        <f t="shared" ref="AU37" si="44">AU14/$E14-1</f>
+      <c r="AR37" s="68">
+        <f t="shared" ref="AR37" si="44">AR14/$E14-1</f>
         <v>-6.4976228209191911E-2</v>
       </c>
+      <c r="AS37" s="68"/>
+      <c r="AT37" s="68"/>
+      <c r="AU37" s="68"/>
       <c r="AV37" s="68"/>
       <c r="AW37" s="68"/>
       <c r="AX37" s="68"/>
       <c r="AY37" s="68"/>
       <c r="AZ37" s="68"/>
       <c r="BA37" s="68"/>
-      <c r="BB37" s="68"/>
-      <c r="BC37" s="68"/>
-      <c r="BD37" s="68"/>
     </row>
-    <row r="38" spans="4:56" x14ac:dyDescent="0.2">
+    <row r="38" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D38" s="14">
         <v>90</v>
       </c>
       <c r="E38" s="80"/>
       <c r="F38" s="68">
-        <f t="shared" ref="F38:R38" si="45">F15/$E15-1</f>
+        <f t="shared" ref="F38:P38" si="45">F15/$E15-1</f>
         <v>-9.0408949202274047E-2</v>
       </c>
       <c r="G38" s="68">
@@ -40572,173 +40299,161 @@
       </c>
       <c r="J38" s="68">
         <f t="shared" si="45"/>
-        <v>-8.4907390427287788E-2</v>
+        <v>-8.6741243352283171E-2</v>
       </c>
       <c r="K38" s="68">
         <f t="shared" si="45"/>
-        <v>-8.6741243352283171E-2</v>
+        <v>-9.0408949202274047E-2</v>
       </c>
       <c r="L38" s="68">
         <f t="shared" si="45"/>
-        <v>-8.6741243352283171E-2</v>
+        <v>-8.8575096277278664E-2</v>
       </c>
       <c r="M38" s="68">
         <f t="shared" si="45"/>
-        <v>-9.0408949202274047E-2</v>
+        <v>-9.224280212726943E-2</v>
       </c>
       <c r="N38" s="68">
         <f t="shared" si="45"/>
-        <v>-8.8575096277278664E-2</v>
+        <v>-8.3073537502292405E-2</v>
       </c>
       <c r="O38" s="68">
         <f t="shared" si="45"/>
-        <v>-9.224280212726943E-2</v>
+        <v>-8.4907390427287788E-2</v>
       </c>
       <c r="P38" s="68">
         <f t="shared" si="45"/>
-        <v>-8.3073537502292405E-2</v>
+        <v>-8.8575096277278664E-2</v>
       </c>
       <c r="Q38" s="68">
-        <f t="shared" si="45"/>
-        <v>-8.4907390427287788E-2</v>
+        <f t="shared" ref="Q38:R38" si="46">Q15/$E15-1</f>
+        <v>-9.0408949202274047E-2</v>
       </c>
       <c r="R38" s="68">
-        <f t="shared" si="45"/>
-        <v>-8.8575096277278664E-2</v>
-      </c>
-      <c r="S38" s="68">
-        <f t="shared" ref="S38:T38" si="46">S15/$E15-1</f>
-        <v>-9.0408949202274047E-2</v>
-      </c>
-      <c r="T38" s="68">
         <f t="shared" si="46"/>
         <v>-8.3073537502292405E-2</v>
       </c>
-      <c r="U38" s="68">
-        <f t="shared" ref="U38:V38" si="47">U15/$E15-1</f>
+      <c r="S38" s="68">
+        <f t="shared" ref="S38:T38" si="47">S15/$E15-1</f>
         <v>-8.8575096277278664E-2</v>
       </c>
-      <c r="V38" s="68">
+      <c r="T38" s="68">
         <f t="shared" si="47"/>
         <v>-8.8575096277278664E-2</v>
       </c>
-      <c r="W38" s="68">
-        <f t="shared" ref="W38:X38" si="48">W15/$E15-1</f>
+      <c r="U38" s="68">
+        <f t="shared" ref="U38:V38" si="48">U15/$E15-1</f>
         <v>-8.6741243352283171E-2</v>
       </c>
-      <c r="X38" s="68">
+      <c r="V38" s="68">
         <f t="shared" si="48"/>
         <v>-8.6741243352283171E-2</v>
       </c>
-      <c r="Y38" s="68">
-        <f t="shared" ref="Y38:Z38" si="49">Y15/$E15-1</f>
+      <c r="W38" s="68">
+        <f t="shared" ref="W38:X38" si="49">W15/$E15-1</f>
         <v>-8.3073537502292405E-2</v>
       </c>
-      <c r="Z38" s="68">
+      <c r="X38" s="68">
         <f t="shared" si="49"/>
         <v>-9.7744360902255689E-2</v>
       </c>
-      <c r="AA38" s="68">
-        <f t="shared" ref="AA38:AB38" si="50">AA15/$E15-1</f>
+      <c r="Y38" s="68">
+        <f t="shared" ref="Y38:Z38" si="50">Y15/$E15-1</f>
         <v>-8.8575096277278664E-2</v>
       </c>
-      <c r="AB38" s="68">
+      <c r="Z38" s="68">
         <f t="shared" si="50"/>
         <v>-8.8575096277278664E-2</v>
       </c>
+      <c r="AA38" s="68">
+        <f t="shared" ref="AA38" si="51">AA15/$E15-1</f>
+        <v>-9.5910507977260306E-2</v>
+      </c>
+      <c r="AB38" s="68">
+        <f t="shared" ref="AB38:AC38" si="52">AB15/$E15-1</f>
+        <v>-9.224280212726943E-2</v>
+      </c>
       <c r="AC38" s="68">
-        <f t="shared" ref="AC38:AD38" si="51">AC15/$E15-1</f>
-        <v>-9.224280212726943E-2</v>
-      </c>
-      <c r="AD38" s="68">
-        <f t="shared" si="51"/>
-        <v>-9.5910507977260306E-2</v>
-      </c>
-      <c r="AE38" s="68">
-        <f t="shared" ref="AE38:AF38" si="52">AE15/$E15-1</f>
-        <v>-9.224280212726943E-2</v>
-      </c>
-      <c r="AF38" s="68">
         <f t="shared" si="52"/>
         <v>-8.8575096277278664E-2</v>
       </c>
-      <c r="AG38" s="68">
-        <f t="shared" ref="AG38:AI38" si="53">AG15/$E15-1</f>
+      <c r="AD38" s="68">
+        <f t="shared" ref="AD38:AF38" si="53">AD15/$E15-1</f>
         <v>-0.10141206675224645</v>
       </c>
-      <c r="AH38" s="68">
+      <c r="AE38" s="68">
         <f t="shared" si="53"/>
         <v>-9.5910507977260306E-2</v>
       </c>
-      <c r="AI38" s="68">
+      <c r="AF38" s="68">
         <f t="shared" si="53"/>
         <v>-9.5910507977260306E-2</v>
       </c>
-      <c r="AJ38" s="68">
-        <f t="shared" ref="AJ38:AL38" si="54">AJ15/$E15-1</f>
+      <c r="AG38" s="68">
+        <f t="shared" ref="AG38:AI38" si="54">AG15/$E15-1</f>
         <v>-9.7744360902255689E-2</v>
       </c>
-      <c r="AK38" s="68">
+      <c r="AH38" s="68">
         <f t="shared" si="54"/>
         <v>-8.8575096277278664E-2</v>
       </c>
-      <c r="AL38" s="68">
+      <c r="AI38" s="68">
         <f t="shared" si="54"/>
         <v>-8.1239684577297022E-2</v>
       </c>
-      <c r="AM38" s="68">
-        <f t="shared" ref="AM38:AN38" si="55">AM15/$E15-1</f>
+      <c r="AJ38" s="68">
+        <f t="shared" ref="AJ38:AK38" si="55">AJ15/$E15-1</f>
         <v>-8.8575096277278664E-2</v>
       </c>
-      <c r="AN38" s="68">
+      <c r="AK38" s="68">
         <f t="shared" si="55"/>
         <v>-9.224280212726943E-2</v>
       </c>
-      <c r="AO38" s="68">
-        <f t="shared" ref="AO38:AP38" si="56">AO15/$E15-1</f>
+      <c r="AL38" s="68">
+        <f t="shared" ref="AL38:AM38" si="56">AL15/$E15-1</f>
         <v>-9.7744360902255689E-2</v>
       </c>
-      <c r="AP38" s="68">
+      <c r="AM38" s="68">
         <f t="shared" si="56"/>
         <v>-9.7744360902255689E-2</v>
       </c>
-      <c r="AQ38" s="68">
-        <f t="shared" ref="AQ38:AR38" si="57">AQ15/$E15-1</f>
+      <c r="AN38" s="68">
+        <f t="shared" ref="AN38:AO38" si="57">AN15/$E15-1</f>
         <v>-0.10507977260223733</v>
       </c>
-      <c r="AR38" s="68">
+      <c r="AO38" s="68">
         <f t="shared" si="57"/>
         <v>-9.224280212726943E-2</v>
       </c>
-      <c r="AS38" s="68">
-        <f t="shared" ref="AS38:AT38" si="58">AS15/$E15-1</f>
+      <c r="AP38" s="68">
+        <f t="shared" ref="AP38:AQ38" si="58">AP15/$E15-1</f>
         <v>-9.5910507977260306E-2</v>
       </c>
-      <c r="AT38" s="68">
+      <c r="AQ38" s="68">
         <f t="shared" si="58"/>
         <v>-9.9578213827251072E-2</v>
       </c>
-      <c r="AU38" s="68">
-        <f t="shared" ref="AU38" si="59">AU15/$E15-1</f>
+      <c r="AR38" s="68">
+        <f t="shared" ref="AR38" si="59">AR15/$E15-1</f>
         <v>-9.5910507977260306E-2</v>
       </c>
+      <c r="AS38" s="68"/>
+      <c r="AT38" s="68"/>
+      <c r="AU38" s="68"/>
       <c r="AV38" s="68"/>
       <c r="AW38" s="68"/>
       <c r="AX38" s="68"/>
       <c r="AY38" s="68"/>
       <c r="AZ38" s="68"/>
       <c r="BA38" s="68"/>
-      <c r="BB38" s="68"/>
-      <c r="BC38" s="68"/>
-      <c r="BD38" s="68"/>
     </row>
-    <row r="39" spans="4:56" x14ac:dyDescent="0.2">
+    <row r="39" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D39" s="14">
         <v>100</v>
       </c>
       <c r="E39" s="80"/>
       <c r="F39" s="68">
-        <f t="shared" ref="F39:R39" si="60">F16/$E16-1</f>
+        <f t="shared" ref="F39:P39" si="60">F16/$E16-1</f>
         <v>-7.5927015891701033E-2</v>
       </c>
       <c r="G39" s="68">
@@ -40755,173 +40470,161 @@
       </c>
       <c r="J39" s="68">
         <f t="shared" si="60"/>
-        <v>-7.5927015891701033E-2</v>
+        <v>-7.7888954286835399E-2</v>
       </c>
       <c r="K39" s="68">
         <f t="shared" si="60"/>
-        <v>-7.7888954286835399E-2</v>
+        <v>-7.9850892681969765E-2</v>
       </c>
       <c r="L39" s="68">
         <f t="shared" si="60"/>
-        <v>-7.7888954286835399E-2</v>
+        <v>-7.5927015891701033E-2</v>
       </c>
       <c r="M39" s="68">
         <f t="shared" si="60"/>
-        <v>-7.9850892681969765E-2</v>
+        <v>-8.1812831077104353E-2</v>
       </c>
       <c r="N39" s="68">
         <f t="shared" si="60"/>
-        <v>-7.5927015891701033E-2</v>
+        <v>-8.3774769472238608E-2</v>
       </c>
       <c r="O39" s="68">
         <f t="shared" si="60"/>
-        <v>-8.1812831077104353E-2</v>
+        <v>-7.3965077496566778E-2</v>
       </c>
       <c r="P39" s="68">
         <f t="shared" si="60"/>
-        <v>-8.3774769472238608E-2</v>
+        <v>-7.7888954286835399E-2</v>
       </c>
       <c r="Q39" s="68">
-        <f t="shared" si="60"/>
-        <v>-7.3965077496566778E-2</v>
+        <f t="shared" ref="Q39:R39" si="61">Q16/$E16-1</f>
+        <v>-7.9850892681969765E-2</v>
       </c>
       <c r="R39" s="68">
-        <f t="shared" si="60"/>
-        <v>-7.7888954286835399E-2</v>
-      </c>
-      <c r="S39" s="68">
-        <f t="shared" ref="S39:T39" si="61">S16/$E16-1</f>
-        <v>-7.9850892681969765E-2</v>
-      </c>
-      <c r="T39" s="68">
         <f t="shared" si="61"/>
         <v>-7.0041200706297824E-2</v>
       </c>
-      <c r="U39" s="68">
-        <f t="shared" ref="U39:V39" si="62">U16/$E16-1</f>
+      <c r="S39" s="68">
+        <f t="shared" ref="S39:T39" si="62">S16/$E16-1</f>
         <v>-7.7888954286835399E-2</v>
       </c>
-      <c r="V39" s="68">
+      <c r="T39" s="68">
         <f t="shared" si="62"/>
         <v>-8.3774769472238608E-2</v>
       </c>
-      <c r="W39" s="68">
-        <f t="shared" ref="W39:X39" si="63">W16/$E16-1</f>
+      <c r="U39" s="68">
+        <f t="shared" ref="U39:V39" si="63">U16/$E16-1</f>
         <v>-8.1812831077104353E-2</v>
       </c>
-      <c r="X39" s="68">
+      <c r="V39" s="68">
         <f t="shared" si="63"/>
         <v>-7.7888954286835399E-2</v>
       </c>
-      <c r="Y39" s="68">
-        <f t="shared" ref="Y39:Z39" si="64">Y16/$E16-1</f>
+      <c r="W39" s="68">
+        <f t="shared" ref="W39:X39" si="64">W16/$E16-1</f>
         <v>-7.7888954286835399E-2</v>
       </c>
-      <c r="Z39" s="68">
+      <c r="X39" s="68">
         <f t="shared" si="64"/>
         <v>-7.9850892681969765E-2</v>
       </c>
-      <c r="AA39" s="68">
-        <f t="shared" ref="AA39:AB39" si="65">AA16/$E16-1</f>
+      <c r="Y39" s="68">
+        <f t="shared" ref="Y39:Z39" si="65">Y16/$E16-1</f>
         <v>-8.1812831077104353E-2</v>
       </c>
-      <c r="AB39" s="68">
+      <c r="Z39" s="68">
         <f t="shared" si="65"/>
         <v>-7.9850892681969765E-2</v>
       </c>
+      <c r="AA39" s="68">
+        <f t="shared" ref="AA39" si="66">AA16/$E16-1</f>
+        <v>-8.1812831077104353E-2</v>
+      </c>
+      <c r="AB39" s="68">
+        <f t="shared" ref="AB39:AC39" si="67">AB16/$E16-1</f>
+        <v>-7.7888954286835399E-2</v>
+      </c>
       <c r="AC39" s="68">
-        <f t="shared" ref="AC39:AD39" si="66">AC16/$E16-1</f>
-        <v>-8.5736707867372974E-2</v>
-      </c>
-      <c r="AD39" s="68">
-        <f t="shared" si="66"/>
-        <v>-8.1812831077104353E-2</v>
-      </c>
-      <c r="AE39" s="68">
-        <f t="shared" ref="AE39:AF39" si="67">AE16/$E16-1</f>
-        <v>-7.7888954286835399E-2</v>
-      </c>
-      <c r="AF39" s="68">
         <f t="shared" si="67"/>
         <v>-7.7888954286835399E-2</v>
       </c>
-      <c r="AG39" s="68">
-        <f t="shared" ref="AG39:AI39" si="68">AG16/$E16-1</f>
+      <c r="AD39" s="68">
+        <f t="shared" ref="AD39:AF39" si="68">AD16/$E16-1</f>
         <v>-8.769864626250734E-2</v>
       </c>
-      <c r="AH39" s="68">
+      <c r="AE39" s="68">
         <f t="shared" si="68"/>
         <v>-8.769864626250734E-2</v>
       </c>
-      <c r="AI39" s="68">
+      <c r="AF39" s="68">
         <f t="shared" si="68"/>
         <v>-8.3774769472238608E-2</v>
       </c>
-      <c r="AJ39" s="68">
-        <f t="shared" ref="AJ39:AL39" si="69">AJ16/$E16-1</f>
+      <c r="AG39" s="68">
+        <f t="shared" ref="AG39:AI39" si="69">AG16/$E16-1</f>
         <v>-8.1812831077104353E-2</v>
       </c>
-      <c r="AK39" s="68">
+      <c r="AH39" s="68">
         <f t="shared" si="69"/>
         <v>-8.3774769472238608E-2</v>
       </c>
-      <c r="AL39" s="68">
+      <c r="AI39" s="68">
         <f t="shared" si="69"/>
         <v>-7.9850892681969765E-2</v>
       </c>
-      <c r="AM39" s="68">
-        <f t="shared" ref="AM39:AN39" si="70">AM16/$E16-1</f>
+      <c r="AJ39" s="68">
+        <f t="shared" ref="AJ39:AK39" si="70">AJ16/$E16-1</f>
         <v>-8.5736707867372974E-2</v>
       </c>
-      <c r="AN39" s="68">
+      <c r="AK39" s="68">
         <f t="shared" si="70"/>
         <v>-8.1812831077104353E-2</v>
       </c>
-      <c r="AO39" s="68">
-        <f t="shared" ref="AO39:AP39" si="71">AO16/$E16-1</f>
+      <c r="AL39" s="68">
+        <f t="shared" ref="AL39:AM39" si="71">AL16/$E16-1</f>
         <v>-8.769864626250734E-2</v>
       </c>
-      <c r="AP39" s="68">
+      <c r="AM39" s="68">
         <f t="shared" si="71"/>
         <v>-8.3774769472238608E-2</v>
       </c>
-      <c r="AQ39" s="68">
-        <f t="shared" ref="AQ39:AR39" si="72">AQ16/$E16-1</f>
+      <c r="AN39" s="68">
+        <f t="shared" ref="AN39:AO39" si="72">AN16/$E16-1</f>
         <v>-8.5736707867372974E-2</v>
       </c>
-      <c r="AR39" s="68">
+      <c r="AO39" s="68">
         <f t="shared" si="72"/>
         <v>-7.9850892681969765E-2</v>
       </c>
-      <c r="AS39" s="68">
-        <f t="shared" ref="AS39:AT39" si="73">AS16/$E16-1</f>
+      <c r="AP39" s="68">
+        <f t="shared" ref="AP39:AQ39" si="73">AP16/$E16-1</f>
         <v>-8.1812831077104353E-2</v>
       </c>
-      <c r="AT39" s="68">
+      <c r="AQ39" s="68">
         <f t="shared" si="73"/>
         <v>-8.5736707867372974E-2</v>
       </c>
-      <c r="AU39" s="68">
-        <f t="shared" ref="AU39" si="74">AU16/$E16-1</f>
+      <c r="AR39" s="68">
+        <f t="shared" ref="AR39" si="74">AR16/$E16-1</f>
         <v>-8.3774769472238608E-2</v>
       </c>
+      <c r="AS39" s="68"/>
+      <c r="AT39" s="68"/>
+      <c r="AU39" s="68"/>
       <c r="AV39" s="68"/>
       <c r="AW39" s="68"/>
       <c r="AX39" s="68"/>
       <c r="AY39" s="68"/>
       <c r="AZ39" s="68"/>
       <c r="BA39" s="68"/>
-      <c r="BB39" s="68"/>
-      <c r="BC39" s="68"/>
-      <c r="BD39" s="68"/>
     </row>
-    <row r="40" spans="4:56" x14ac:dyDescent="0.2">
+    <row r="40" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D40" s="14">
         <v>110</v>
       </c>
       <c r="E40" s="80"/>
       <c r="F40" s="68">
-        <f t="shared" ref="F40:R40" si="75">F17/$E17-1</f>
+        <f t="shared" ref="F40:P40" si="75">F17/$E17-1</f>
         <v>-8.4194977843426888E-2</v>
       </c>
       <c r="G40" s="68">
@@ -40942,19 +40645,19 @@
       </c>
       <c r="K40" s="68">
         <f t="shared" si="75"/>
-        <v>-8.2084828022789713E-2</v>
+        <v>-8.4194977843426888E-2</v>
       </c>
       <c r="L40" s="68">
         <f t="shared" si="75"/>
-        <v>-8.2084828022789713E-2</v>
+        <v>-8.6305127664064063E-2</v>
       </c>
       <c r="M40" s="68">
         <f t="shared" si="75"/>
-        <v>-8.4194977843426888E-2</v>
+        <v>-7.9974678202152316E-2</v>
       </c>
       <c r="N40" s="68">
         <f t="shared" si="75"/>
-        <v>-8.6305127664064063E-2</v>
+        <v>-8.4194977843426888E-2</v>
       </c>
       <c r="O40" s="68">
         <f t="shared" si="75"/>
@@ -40965,146 +40668,134 @@
         <v>-8.4194977843426888E-2</v>
       </c>
       <c r="Q40" s="68">
-        <f t="shared" si="75"/>
-        <v>-7.9974678202152316E-2</v>
+        <f t="shared" ref="Q40:R40" si="76">Q17/$E17-1</f>
+        <v>-8.4194977843426888E-2</v>
       </c>
       <c r="R40" s="68">
-        <f t="shared" si="75"/>
-        <v>-8.4194977843426888E-2</v>
-      </c>
-      <c r="S40" s="68">
-        <f t="shared" ref="S40:T40" si="76">S17/$E17-1</f>
-        <v>-8.4194977843426888E-2</v>
-      </c>
-      <c r="T40" s="68">
         <f t="shared" si="76"/>
         <v>-7.5754378560877855E-2</v>
       </c>
-      <c r="U40" s="68">
-        <f t="shared" ref="U40:V40" si="77">U17/$E17-1</f>
+      <c r="S40" s="68">
+        <f t="shared" ref="S40:T40" si="77">S17/$E17-1</f>
         <v>-8.6305127664064063E-2</v>
       </c>
-      <c r="V40" s="68">
+      <c r="T40" s="68">
         <f t="shared" si="77"/>
         <v>-8.6305127664064063E-2</v>
       </c>
-      <c r="W40" s="68">
-        <f t="shared" ref="W40:X40" si="78">W17/$E17-1</f>
+      <c r="U40" s="68">
+        <f t="shared" ref="U40:V40" si="78">U17/$E17-1</f>
         <v>-8.6305127664064063E-2</v>
       </c>
-      <c r="X40" s="68">
+      <c r="V40" s="68">
         <f t="shared" si="78"/>
         <v>-8.4194977843426888E-2</v>
       </c>
-      <c r="Y40" s="68">
-        <f t="shared" ref="Y40:Z40" si="79">Y17/$E17-1</f>
+      <c r="W40" s="68">
+        <f t="shared" ref="W40:X40" si="79">W17/$E17-1</f>
         <v>-8.4194977843426888E-2</v>
       </c>
-      <c r="Z40" s="68">
+      <c r="X40" s="68">
         <f t="shared" si="79"/>
         <v>-8.8415277484701349E-2</v>
       </c>
-      <c r="AA40" s="68">
-        <f t="shared" ref="AA40:AB40" si="80">AA17/$E17-1</f>
+      <c r="Y40" s="68">
+        <f t="shared" ref="Y40:Z40" si="80">Y17/$E17-1</f>
         <v>-8.4194977843426888E-2</v>
       </c>
-      <c r="AB40" s="68">
+      <c r="Z40" s="68">
         <f t="shared" si="80"/>
         <v>-8.6305127664064063E-2</v>
       </c>
+      <c r="AA40" s="68">
+        <f t="shared" ref="AA40" si="81">AA17/$E17-1</f>
+        <v>-8.8415277484701349E-2</v>
+      </c>
+      <c r="AB40" s="68">
+        <f t="shared" ref="AB40:AC40" si="82">AB17/$E17-1</f>
+        <v>-8.6305127664064063E-2</v>
+      </c>
       <c r="AC40" s="68">
-        <f t="shared" ref="AC40:AD40" si="81">AC17/$E17-1</f>
-        <v>-9.0525427305338746E-2</v>
-      </c>
-      <c r="AD40" s="68">
-        <f t="shared" si="81"/>
-        <v>-8.8415277484701349E-2</v>
-      </c>
-      <c r="AE40" s="68">
-        <f t="shared" ref="AE40:AF40" si="82">AE17/$E17-1</f>
-        <v>-8.6305127664064063E-2</v>
-      </c>
-      <c r="AF40" s="68">
         <f t="shared" si="82"/>
         <v>-8.8415277484701349E-2</v>
       </c>
-      <c r="AG40" s="68">
-        <f t="shared" ref="AG40:AI40" si="83">AG17/$E17-1</f>
+      <c r="AD40" s="68">
+        <f t="shared" ref="AD40:AF40" si="83">AD17/$E17-1</f>
         <v>-9.0525427305338746E-2</v>
       </c>
-      <c r="AH40" s="68">
+      <c r="AE40" s="68">
         <f t="shared" si="83"/>
         <v>-8.8415277484701349E-2</v>
       </c>
-      <c r="AI40" s="68">
+      <c r="AF40" s="68">
         <f t="shared" si="83"/>
         <v>-8.6305127664064063E-2</v>
       </c>
-      <c r="AJ40" s="68">
-        <f t="shared" ref="AJ40:AL40" si="84">AJ17/$E17-1</f>
+      <c r="AG40" s="68">
+        <f t="shared" ref="AG40:AI40" si="84">AG17/$E17-1</f>
         <v>-9.0525427305338746E-2</v>
       </c>
-      <c r="AK40" s="68">
+      <c r="AH40" s="68">
         <f t="shared" si="84"/>
         <v>-8.6305127664064063E-2</v>
       </c>
-      <c r="AL40" s="68">
+      <c r="AI40" s="68">
         <f t="shared" si="84"/>
         <v>-8.4194977843426888E-2</v>
       </c>
-      <c r="AM40" s="68">
-        <f t="shared" ref="AM40:AN40" si="85">AM17/$E17-1</f>
+      <c r="AJ40" s="68">
+        <f t="shared" ref="AJ40:AK40" si="85">AJ17/$E17-1</f>
         <v>-8.8415277484701349E-2</v>
       </c>
-      <c r="AN40" s="68">
+      <c r="AK40" s="68">
         <f t="shared" si="85"/>
         <v>-8.4194977843426888E-2</v>
       </c>
-      <c r="AO40" s="68">
-        <f t="shared" ref="AO40:AP40" si="86">AO17/$E17-1</f>
+      <c r="AL40" s="68">
+        <f t="shared" ref="AL40:AM40" si="86">AL17/$E17-1</f>
         <v>-9.0525427305338746E-2</v>
       </c>
-      <c r="AP40" s="68">
+      <c r="AM40" s="68">
         <f t="shared" si="86"/>
         <v>-8.8415277484701349E-2</v>
       </c>
-      <c r="AQ40" s="68">
-        <f t="shared" ref="AQ40:AR40" si="87">AQ17/$E17-1</f>
+      <c r="AN40" s="68">
+        <f t="shared" ref="AN40:AO40" si="87">AN17/$E17-1</f>
         <v>-9.4745726946613207E-2</v>
       </c>
-      <c r="AR40" s="68">
+      <c r="AO40" s="68">
         <f t="shared" si="87"/>
         <v>-8.8415277484701349E-2</v>
       </c>
-      <c r="AS40" s="68">
-        <f t="shared" ref="AS40:AT40" si="88">AS17/$E17-1</f>
+      <c r="AP40" s="68">
+        <f t="shared" ref="AP40:AQ40" si="88">AP17/$E17-1</f>
         <v>-9.0525427305338746E-2</v>
       </c>
-      <c r="AT40" s="68">
+      <c r="AQ40" s="68">
         <f t="shared" si="88"/>
         <v>-8.8415277484701349E-2</v>
       </c>
-      <c r="AU40" s="68">
-        <f t="shared" ref="AU40" si="89">AU17/$E17-1</f>
+      <c r="AR40" s="68">
+        <f t="shared" ref="AR40" si="89">AR17/$E17-1</f>
         <v>-9.0525427305338746E-2</v>
       </c>
+      <c r="AS40" s="68"/>
+      <c r="AT40" s="68"/>
+      <c r="AU40" s="68"/>
       <c r="AV40" s="68"/>
       <c r="AW40" s="68"/>
       <c r="AX40" s="68"/>
       <c r="AY40" s="68"/>
       <c r="AZ40" s="68"/>
       <c r="BA40" s="68"/>
-      <c r="BB40" s="68"/>
-      <c r="BC40" s="68"/>
-      <c r="BD40" s="68"/>
     </row>
-    <row r="41" spans="4:56" x14ac:dyDescent="0.2">
+    <row r="41" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D41" s="14">
         <v>120</v>
       </c>
       <c r="E41" s="80"/>
       <c r="F41" s="68">
-        <f t="shared" ref="F41:R41" si="90">F18/$E18-1</f>
+        <f t="shared" ref="F41:P41" si="90">F18/$E18-1</f>
         <v>-7.2772613919745988E-2</v>
       </c>
       <c r="G41" s="68">
@@ -41121,7 +40812,7 @@
       </c>
       <c r="J41" s="68">
         <f t="shared" si="90"/>
-        <v>-7.0505554296077966E-2</v>
+        <v>-7.7306733167082142E-2</v>
       </c>
       <c r="K41" s="68">
         <f t="shared" si="90"/>
@@ -41129,165 +40820,153 @@
       </c>
       <c r="L41" s="68">
         <f t="shared" si="90"/>
-        <v>-7.7306733167082142E-2</v>
+        <v>-7.9573792790750386E-2</v>
       </c>
       <c r="M41" s="68">
         <f t="shared" si="90"/>
-        <v>-7.7306733167082142E-2</v>
+        <v>-7.503967354341412E-2</v>
       </c>
       <c r="N41" s="68">
         <f t="shared" si="90"/>
-        <v>-7.9573792790750386E-2</v>
+        <v>-7.7306733167082142E-2</v>
       </c>
       <c r="O41" s="68">
         <f t="shared" si="90"/>
-        <v>-7.503967354341412E-2</v>
+        <v>-8.1840852414418408E-2</v>
       </c>
       <c r="P41" s="68">
         <f t="shared" si="90"/>
-        <v>-7.7306733167082142E-2</v>
+        <v>-7.9573792790750386E-2</v>
       </c>
       <c r="Q41" s="68">
-        <f t="shared" si="90"/>
-        <v>-8.1840852414418408E-2</v>
+        <f t="shared" ref="Q41:R41" si="91">Q18/$E18-1</f>
+        <v>-7.9573792790750386E-2</v>
       </c>
       <c r="R41" s="68">
-        <f t="shared" si="90"/>
-        <v>-7.9573792790750386E-2</v>
-      </c>
-      <c r="S41" s="68">
-        <f t="shared" ref="S41:T41" si="91">S18/$E18-1</f>
-        <v>-7.9573792790750386E-2</v>
-      </c>
-      <c r="T41" s="68">
         <f t="shared" si="91"/>
         <v>-7.503967354341412E-2</v>
       </c>
-      <c r="U41" s="68">
-        <f t="shared" ref="U41:V41" si="92">U18/$E18-1</f>
+      <c r="S41" s="68">
+        <f t="shared" ref="S41:T41" si="92">S18/$E18-1</f>
         <v>-8.1840852414418408E-2</v>
       </c>
-      <c r="V41" s="68">
+      <c r="T41" s="68">
         <f t="shared" si="92"/>
         <v>-7.9573792790750386E-2</v>
       </c>
-      <c r="W41" s="68">
-        <f t="shared" ref="W41:X41" si="93">W18/$E18-1</f>
+      <c r="U41" s="68">
+        <f t="shared" ref="U41:V41" si="93">U18/$E18-1</f>
         <v>-8.6374971661754563E-2</v>
       </c>
-      <c r="X41" s="68">
+      <c r="V41" s="68">
         <f t="shared" si="93"/>
         <v>-7.503967354341412E-2</v>
       </c>
-      <c r="Y41" s="68">
-        <f t="shared" ref="Y41:Z41" si="94">Y18/$E18-1</f>
+      <c r="W41" s="68">
+        <f t="shared" ref="W41:X41" si="94">W18/$E18-1</f>
         <v>-7.7306733167082142E-2</v>
       </c>
-      <c r="Z41" s="68">
+      <c r="X41" s="68">
         <f t="shared" si="94"/>
         <v>-7.7306733167082142E-2</v>
       </c>
-      <c r="AA41" s="68">
-        <f t="shared" ref="AA41:AB41" si="95">AA18/$E18-1</f>
+      <c r="Y41" s="68">
+        <f t="shared" ref="Y41:Z41" si="95">Y18/$E18-1</f>
         <v>-8.4107912038086541E-2</v>
       </c>
-      <c r="AB41" s="68">
+      <c r="Z41" s="68">
         <f t="shared" si="95"/>
         <v>-8.1840852414418408E-2</v>
       </c>
+      <c r="AA41" s="68">
+        <f t="shared" ref="AA41" si="96">AA18/$E18-1</f>
+        <v>-9.0909090909090828E-2</v>
+      </c>
+      <c r="AB41" s="68">
+        <f t="shared" ref="AB41:AC41" si="97">AB18/$E18-1</f>
+        <v>-8.4107912038086541E-2</v>
+      </c>
       <c r="AC41" s="68">
-        <f t="shared" ref="AC41:AD41" si="96">AC18/$E18-1</f>
-        <v>-8.8642031285422807E-2</v>
-      </c>
-      <c r="AD41" s="68">
-        <f t="shared" si="96"/>
-        <v>-9.0909090909090828E-2</v>
-      </c>
-      <c r="AE41" s="68">
-        <f t="shared" ref="AE41:AF41" si="97">AE18/$E18-1</f>
-        <v>-8.4107912038086541E-2</v>
-      </c>
-      <c r="AF41" s="68">
         <f t="shared" si="97"/>
         <v>-8.6374971661754563E-2</v>
       </c>
-      <c r="AG41" s="68">
-        <f t="shared" ref="AG41:AI41" si="98">AG18/$E18-1</f>
+      <c r="AD41" s="68">
+        <f t="shared" ref="AD41:AF41" si="98">AD18/$E18-1</f>
         <v>-7.9573792790750386E-2</v>
       </c>
-      <c r="AH41" s="68">
+      <c r="AE41" s="68">
         <f t="shared" si="98"/>
         <v>-8.8642031285422807E-2</v>
       </c>
-      <c r="AI41" s="68">
+      <c r="AF41" s="68">
         <f t="shared" si="98"/>
         <v>-8.1840852414418408E-2</v>
       </c>
-      <c r="AJ41" s="68">
-        <f t="shared" ref="AJ41:AL41" si="99">AJ18/$E18-1</f>
+      <c r="AG41" s="68">
+        <f t="shared" ref="AG41:AI41" si="99">AG18/$E18-1</f>
         <v>-8.1840852414418408E-2</v>
       </c>
-      <c r="AK41" s="68">
+      <c r="AH41" s="68">
         <f t="shared" si="99"/>
         <v>-8.4107912038086541E-2</v>
       </c>
-      <c r="AL41" s="68">
+      <c r="AI41" s="68">
         <f t="shared" si="99"/>
         <v>-7.2772613919745988E-2</v>
       </c>
-      <c r="AM41" s="68">
-        <f t="shared" ref="AM41:AN41" si="100">AM18/$E18-1</f>
+      <c r="AJ41" s="68">
+        <f t="shared" ref="AJ41:AK41" si="100">AJ18/$E18-1</f>
         <v>-7.2772613919745988E-2</v>
       </c>
-      <c r="AN41" s="68">
+      <c r="AK41" s="68">
         <f t="shared" si="100"/>
         <v>-7.9573792790750386E-2</v>
       </c>
-      <c r="AO41" s="68">
-        <f t="shared" ref="AO41:AP41" si="101">AO18/$E18-1</f>
+      <c r="AL41" s="68">
+        <f t="shared" ref="AL41:AM41" si="101">AL18/$E18-1</f>
         <v>-9.0909090909090828E-2</v>
       </c>
-      <c r="AP41" s="68">
+      <c r="AM41" s="68">
         <f t="shared" si="101"/>
         <v>-9.0909090909090828E-2</v>
       </c>
-      <c r="AQ41" s="68">
-        <f t="shared" ref="AQ41:AR41" si="102">AQ18/$E18-1</f>
+      <c r="AN41" s="68">
+        <f t="shared" ref="AN41:AO41" si="102">AN18/$E18-1</f>
         <v>-9.0909090909090828E-2</v>
       </c>
-      <c r="AR41" s="68">
+      <c r="AO41" s="68">
         <f t="shared" si="102"/>
         <v>-7.503967354341412E-2</v>
       </c>
-      <c r="AS41" s="68">
-        <f t="shared" ref="AS41:AT41" si="103">AS18/$E18-1</f>
+      <c r="AP41" s="68">
+        <f t="shared" ref="AP41:AQ41" si="103">AP18/$E18-1</f>
         <v>-8.4107912038086541E-2</v>
       </c>
-      <c r="AT41" s="68">
+      <c r="AQ41" s="68">
         <f t="shared" si="103"/>
         <v>-8.6374971661754563E-2</v>
       </c>
-      <c r="AU41" s="68">
-        <f t="shared" ref="AU41" si="104">AU18/$E18-1</f>
+      <c r="AR41" s="68">
+        <f t="shared" ref="AR41" si="104">AR18/$E18-1</f>
         <v>-8.8642031285422807E-2</v>
       </c>
+      <c r="AS41" s="68"/>
+      <c r="AT41" s="68"/>
+      <c r="AU41" s="68"/>
       <c r="AV41" s="68"/>
       <c r="AW41" s="68"/>
       <c r="AX41" s="68"/>
       <c r="AY41" s="68"/>
       <c r="AZ41" s="68"/>
       <c r="BA41" s="68"/>
-      <c r="BB41" s="68"/>
-      <c r="BC41" s="68"/>
-      <c r="BD41" s="68"/>
     </row>
-    <row r="42" spans="4:56" x14ac:dyDescent="0.2">
+    <row r="42" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D42" s="14">
         <v>130</v>
       </c>
       <c r="E42" s="80"/>
       <c r="F42" s="68">
-        <f t="shared" ref="F42:R42" si="105">F19/$E19-1</f>
+        <f t="shared" ref="F42:P42" si="105">F19/$E19-1</f>
         <v>-7.599517490952945E-2</v>
       </c>
       <c r="G42" s="68">
@@ -41304,15 +40983,15 @@
       </c>
       <c r="J42" s="68">
         <f t="shared" si="105"/>
-        <v>-7.599517490952945E-2</v>
+        <v>-8.0820265379975775E-2</v>
       </c>
       <c r="K42" s="68">
         <f t="shared" si="105"/>
-        <v>-8.0820265379975775E-2</v>
+        <v>-8.3232810615198938E-2</v>
       </c>
       <c r="L42" s="68">
         <f t="shared" si="105"/>
-        <v>-8.0820265379975775E-2</v>
+        <v>-7.3582629674306288E-2</v>
       </c>
       <c r="M42" s="68">
         <f t="shared" si="105"/>
@@ -41320,157 +40999,145 @@
       </c>
       <c r="N42" s="68">
         <f t="shared" si="105"/>
-        <v>-7.3582629674306288E-2</v>
+        <v>-8.3232810615198938E-2</v>
       </c>
       <c r="O42" s="68">
         <f t="shared" si="105"/>
-        <v>-8.3232810615198938E-2</v>
+        <v>-8.56453558504221E-2</v>
       </c>
       <c r="P42" s="68">
         <f t="shared" si="105"/>
-        <v>-8.3232810615198938E-2</v>
+        <v>-7.8407720144752613E-2</v>
       </c>
       <c r="Q42" s="68">
-        <f t="shared" si="105"/>
+        <f t="shared" ref="Q42:R42" si="106">Q19/$E19-1</f>
         <v>-8.56453558504221E-2</v>
       </c>
       <c r="R42" s="68">
-        <f t="shared" si="105"/>
-        <v>-7.8407720144752613E-2</v>
-      </c>
-      <c r="S42" s="68">
-        <f t="shared" ref="S42:T42" si="106">S19/$E19-1</f>
-        <v>-8.56453558504221E-2</v>
-      </c>
-      <c r="T42" s="68">
         <f t="shared" si="106"/>
         <v>-7.599517490952945E-2</v>
       </c>
-      <c r="U42" s="68">
-        <f t="shared" ref="U42:V42" si="107">U19/$E19-1</f>
+      <c r="S42" s="68">
+        <f t="shared" ref="S42:T42" si="107">S19/$E19-1</f>
         <v>-8.3232810615198938E-2</v>
       </c>
-      <c r="V42" s="68">
+      <c r="T42" s="68">
         <f t="shared" si="107"/>
         <v>-8.8057901085645263E-2</v>
       </c>
-      <c r="W42" s="68">
-        <f t="shared" ref="W42:X42" si="108">W19/$E19-1</f>
+      <c r="U42" s="68">
+        <f t="shared" ref="U42:V42" si="108">U19/$E19-1</f>
         <v>-8.8057901085645263E-2</v>
       </c>
-      <c r="X42" s="68">
+      <c r="V42" s="68">
         <f t="shared" si="108"/>
         <v>-8.0820265379975775E-2</v>
       </c>
-      <c r="Y42" s="68">
-        <f t="shared" ref="Y42:Z42" si="109">Y19/$E19-1</f>
+      <c r="W42" s="68">
+        <f t="shared" ref="W42:X42" si="109">W19/$E19-1</f>
         <v>-8.3232810615198938E-2</v>
       </c>
-      <c r="Z42" s="68">
+      <c r="X42" s="68">
         <f t="shared" si="109"/>
         <v>-8.3232810615198938E-2</v>
       </c>
-      <c r="AA42" s="68">
-        <f t="shared" ref="AA42:AB42" si="110">AA19/$E19-1</f>
+      <c r="Y42" s="68">
+        <f t="shared" ref="Y42:Z42" si="110">Y19/$E19-1</f>
         <v>-8.0820265379975775E-2</v>
       </c>
-      <c r="AB42" s="68">
+      <c r="Z42" s="68">
         <f t="shared" si="110"/>
         <v>-7.599517490952945E-2</v>
       </c>
+      <c r="AA42" s="68">
+        <f t="shared" ref="AA42" si="111">AA19/$E19-1</f>
+        <v>-9.2882991556091588E-2</v>
+      </c>
+      <c r="AB42" s="68">
+        <f t="shared" ref="AB42:AC42" si="112">AB19/$E19-1</f>
+        <v>-8.56453558504221E-2</v>
+      </c>
       <c r="AC42" s="68">
-        <f t="shared" ref="AC42:AD42" si="111">AC19/$E19-1</f>
-        <v>-9.529553679131475E-2</v>
-      </c>
-      <c r="AD42" s="68">
-        <f t="shared" si="111"/>
-        <v>-9.2882991556091588E-2</v>
-      </c>
-      <c r="AE42" s="68">
-        <f t="shared" ref="AE42:AF42" si="112">AE19/$E19-1</f>
-        <v>-8.56453558504221E-2</v>
-      </c>
-      <c r="AF42" s="68">
         <f t="shared" si="112"/>
         <v>-8.8057901085645263E-2</v>
       </c>
-      <c r="AG42" s="68">
-        <f t="shared" ref="AG42:AI42" si="113">AG19/$E19-1</f>
+      <c r="AD42" s="68">
+        <f t="shared" ref="AD42:AF42" si="113">AD19/$E19-1</f>
         <v>-9.0470446320868425E-2</v>
       </c>
-      <c r="AH42" s="68">
+      <c r="AE42" s="68">
         <f t="shared" si="113"/>
         <v>-8.8057901085645263E-2</v>
       </c>
-      <c r="AI42" s="68">
+      <c r="AF42" s="68">
         <f t="shared" si="113"/>
         <v>-9.2882991556091588E-2</v>
       </c>
-      <c r="AJ42" s="68">
-        <f t="shared" ref="AJ42:AL42" si="114">AJ19/$E19-1</f>
+      <c r="AG42" s="68">
+        <f t="shared" ref="AG42:AI42" si="114">AG19/$E19-1</f>
         <v>-9.0470446320868425E-2</v>
       </c>
-      <c r="AK42" s="68">
+      <c r="AH42" s="68">
         <f t="shared" si="114"/>
         <v>-9.0470446320868425E-2</v>
       </c>
-      <c r="AL42" s="68">
+      <c r="AI42" s="68">
         <f t="shared" si="114"/>
         <v>-7.599517490952945E-2</v>
       </c>
-      <c r="AM42" s="68">
-        <f t="shared" ref="AM42:AN42" si="115">AM19/$E19-1</f>
+      <c r="AJ42" s="68">
+        <f t="shared" ref="AJ42:AK42" si="115">AJ19/$E19-1</f>
         <v>-7.8407720144752613E-2</v>
       </c>
-      <c r="AN42" s="68">
+      <c r="AK42" s="68">
         <f t="shared" si="115"/>
         <v>-7.8407720144752613E-2</v>
       </c>
-      <c r="AO42" s="68">
-        <f t="shared" ref="AO42:AP42" si="116">AO19/$E19-1</f>
+      <c r="AL42" s="68">
+        <f t="shared" ref="AL42:AM42" si="116">AL19/$E19-1</f>
         <v>-9.7708082026537801E-2</v>
       </c>
-      <c r="AP42" s="68">
+      <c r="AM42" s="68">
         <f t="shared" si="116"/>
         <v>-8.56453558504221E-2</v>
       </c>
-      <c r="AQ42" s="68">
-        <f t="shared" ref="AQ42:AR42" si="117">AQ19/$E19-1</f>
+      <c r="AN42" s="68">
+        <f t="shared" ref="AN42:AO42" si="117">AN19/$E19-1</f>
         <v>-9.7708082026537801E-2</v>
       </c>
-      <c r="AR42" s="68">
+      <c r="AO42" s="68">
         <f t="shared" si="117"/>
         <v>-8.8057901085645263E-2</v>
       </c>
-      <c r="AS42" s="68">
-        <f t="shared" ref="AS42:AT42" si="118">AS19/$E19-1</f>
+      <c r="AP42" s="68">
+        <f t="shared" ref="AP42:AQ42" si="118">AP19/$E19-1</f>
         <v>-9.2882991556091588E-2</v>
       </c>
-      <c r="AT42" s="68">
+      <c r="AQ42" s="68">
         <f t="shared" si="118"/>
         <v>-9.529553679131475E-2</v>
       </c>
-      <c r="AU42" s="68">
-        <f t="shared" ref="AU42" si="119">AU19/$E19-1</f>
+      <c r="AR42" s="68">
+        <f t="shared" ref="AR42" si="119">AR19/$E19-1</f>
         <v>-9.529553679131475E-2</v>
       </c>
+      <c r="AS42" s="68"/>
+      <c r="AT42" s="68"/>
+      <c r="AU42" s="68"/>
       <c r="AV42" s="68"/>
       <c r="AW42" s="68"/>
       <c r="AX42" s="68"/>
       <c r="AY42" s="68"/>
       <c r="AZ42" s="68"/>
       <c r="BA42" s="68"/>
-      <c r="BB42" s="68"/>
-      <c r="BC42" s="68"/>
-      <c r="BD42" s="68"/>
     </row>
-    <row r="43" spans="4:56" x14ac:dyDescent="0.2">
+    <row r="43" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D43" s="14">
         <v>140</v>
       </c>
       <c r="E43" s="80"/>
       <c r="F43" s="68">
-        <f t="shared" ref="F43:R43" si="120">F20/$E20-1</f>
+        <f t="shared" ref="F43:P43" si="120">F20/$E20-1</f>
         <v>-7.1191630517989268E-2</v>
       </c>
       <c r="G43" s="68">
@@ -41487,19 +41154,19 @@
       </c>
       <c r="J43" s="68">
         <f t="shared" si="120"/>
-        <v>-7.3743301862720156E-2</v>
+        <v>-8.905332993110493E-2</v>
       </c>
       <c r="K43" s="68">
         <f t="shared" si="120"/>
-        <v>-8.905332993110493E-2</v>
+        <v>-7.8846644552181711E-2</v>
       </c>
       <c r="L43" s="68">
         <f t="shared" si="120"/>
-        <v>-8.905332993110493E-2</v>
+        <v>-8.1398315896912488E-2</v>
       </c>
       <c r="M43" s="68">
         <f t="shared" si="120"/>
-        <v>-7.8846644552181711E-2</v>
+        <v>-8.1398315896912488E-2</v>
       </c>
       <c r="N43" s="68">
         <f t="shared" si="120"/>
@@ -41507,153 +41174,141 @@
       </c>
       <c r="O43" s="68">
         <f t="shared" si="120"/>
-        <v>-8.1398315896912488E-2</v>
+        <v>-8.3949987241643376E-2</v>
       </c>
       <c r="P43" s="68">
         <f t="shared" si="120"/>
+        <v>-7.8846644552181711E-2</v>
+      </c>
+      <c r="Q43" s="68">
+        <f t="shared" ref="Q43:R43" si="121">Q20/$E20-1</f>
         <v>-8.1398315896912488E-2</v>
       </c>
-      <c r="Q43" s="68">
-        <f t="shared" si="120"/>
-        <v>-8.3949987241643376E-2</v>
-      </c>
       <c r="R43" s="68">
-        <f t="shared" si="120"/>
-        <v>-7.8846644552181711E-2</v>
-      </c>
-      <c r="S43" s="68">
-        <f t="shared" ref="S43:T43" si="121">S20/$E20-1</f>
-        <v>-8.1398315896912488E-2</v>
-      </c>
-      <c r="T43" s="68">
         <f t="shared" si="121"/>
         <v>-7.3743301862720156E-2</v>
       </c>
-      <c r="U43" s="68">
-        <f t="shared" ref="U43:V43" si="122">U20/$E20-1</f>
+      <c r="S43" s="68">
+        <f t="shared" ref="S43:T43" si="122">S20/$E20-1</f>
         <v>-8.3949987241643376E-2</v>
       </c>
-      <c r="V43" s="68">
+      <c r="T43" s="68">
         <f t="shared" si="122"/>
         <v>-8.1398315896912488E-2</v>
       </c>
-      <c r="W43" s="68">
-        <f t="shared" ref="W43:X43" si="123">W20/$E20-1</f>
+      <c r="U43" s="68">
+        <f t="shared" ref="U43:V43" si="123">U20/$E20-1</f>
         <v>-7.8846644552181711E-2</v>
       </c>
-      <c r="X43" s="68">
+      <c r="V43" s="68">
         <f t="shared" si="123"/>
         <v>-7.6294973207450822E-2</v>
       </c>
-      <c r="Y43" s="68">
-        <f t="shared" ref="Y43:Z43" si="124">Y20/$E20-1</f>
+      <c r="W43" s="68">
+        <f t="shared" ref="W43:X43" si="124">W20/$E20-1</f>
         <v>-7.3743301862720156E-2</v>
       </c>
-      <c r="Z43" s="68">
+      <c r="X43" s="68">
         <f t="shared" si="124"/>
         <v>-6.3536616483796937E-2</v>
       </c>
-      <c r="AA43" s="68">
-        <f t="shared" ref="AA43:AB43" si="125">AA20/$E20-1</f>
+      <c r="Y43" s="68">
+        <f t="shared" ref="Y43:Z43" si="125">Y20/$E20-1</f>
         <v>-8.3949987241643376E-2</v>
       </c>
-      <c r="AB43" s="68">
+      <c r="Z43" s="68">
         <f t="shared" si="125"/>
         <v>-7.3743301862720156E-2</v>
       </c>
+      <c r="AA43" s="68">
+        <f t="shared" ref="AA43" si="126">AA20/$E20-1</f>
+        <v>-8.905332993110493E-2</v>
+      </c>
+      <c r="AB43" s="68">
+        <f t="shared" ref="AB43:AC43" si="127">AB20/$E20-1</f>
+        <v>-8.6501658586374042E-2</v>
+      </c>
       <c r="AC43" s="68">
-        <f t="shared" ref="AC43:AD43" si="126">AC20/$E20-1</f>
-        <v>-8.6501658586374042E-2</v>
-      </c>
-      <c r="AD43" s="68">
-        <f t="shared" si="126"/>
-        <v>-8.905332993110493E-2</v>
-      </c>
-      <c r="AE43" s="68">
-        <f t="shared" ref="AE43:AF43" si="127">AE20/$E20-1</f>
-        <v>-8.6501658586374042E-2</v>
-      </c>
-      <c r="AF43" s="68">
         <f t="shared" si="127"/>
         <v>-8.3949987241643376E-2</v>
       </c>
-      <c r="AG43" s="68">
-        <f t="shared" ref="AG43:AI43" si="128">AG20/$E20-1</f>
+      <c r="AD43" s="68">
+        <f t="shared" ref="AD43:AF43" si="128">AD20/$E20-1</f>
         <v>-8.3949987241643376E-2</v>
       </c>
-      <c r="AH43" s="68">
+      <c r="AE43" s="68">
         <f t="shared" si="128"/>
         <v>-7.8846644552181711E-2</v>
       </c>
-      <c r="AI43" s="68">
+      <c r="AF43" s="68">
         <f t="shared" si="128"/>
         <v>-8.1398315896912488E-2</v>
       </c>
-      <c r="AJ43" s="68">
-        <f t="shared" ref="AJ43:AL43" si="129">AJ20/$E20-1</f>
+      <c r="AG43" s="68">
+        <f t="shared" ref="AG43:AI43" si="129">AG20/$E20-1</f>
         <v>-7.8846644552181711E-2</v>
       </c>
-      <c r="AK43" s="68">
+      <c r="AH43" s="68">
         <f t="shared" si="129"/>
         <v>-7.8846644552181711E-2</v>
       </c>
-      <c r="AL43" s="68">
+      <c r="AI43" s="68">
         <f t="shared" si="129"/>
         <v>-5.5881602449604495E-2</v>
       </c>
-      <c r="AM43" s="68">
-        <f t="shared" ref="AM43:AN43" si="130">AM20/$E20-1</f>
+      <c r="AJ43" s="68">
+        <f t="shared" ref="AJ43:AK43" si="130">AJ20/$E20-1</f>
         <v>-5.5881602449604495E-2</v>
       </c>
-      <c r="AN43" s="68">
+      <c r="AK43" s="68">
         <f t="shared" si="130"/>
         <v>-6.3536616483796937E-2</v>
       </c>
-      <c r="AO43" s="68">
-        <f t="shared" ref="AO43:AP43" si="131">AO20/$E20-1</f>
+      <c r="AL43" s="68">
+        <f t="shared" ref="AL43:AM43" si="131">AL20/$E20-1</f>
         <v>-9.4156672620566484E-2</v>
       </c>
-      <c r="AP43" s="68">
+      <c r="AM43" s="68">
         <f t="shared" si="131"/>
         <v>-8.1398315896912488E-2</v>
       </c>
-      <c r="AQ43" s="68">
-        <f t="shared" ref="AQ43:AR43" si="132">AQ20/$E20-1</f>
+      <c r="AN43" s="68">
+        <f t="shared" ref="AN43:AO43" si="132">AN20/$E20-1</f>
         <v>-8.6501658586374042E-2</v>
       </c>
-      <c r="AR43" s="68">
+      <c r="AO43" s="68">
         <f t="shared" si="132"/>
         <v>-8.1398315896912488E-2</v>
       </c>
-      <c r="AS43" s="68">
-        <f t="shared" ref="AS43:AT43" si="133">AS20/$E20-1</f>
+      <c r="AP43" s="68">
+        <f t="shared" ref="AP43:AQ43" si="133">AP20/$E20-1</f>
         <v>-8.3949987241643376E-2</v>
       </c>
-      <c r="AT43" s="68">
+      <c r="AQ43" s="68">
         <f t="shared" si="133"/>
         <v>-8.6501658586374042E-2</v>
       </c>
-      <c r="AU43" s="68">
-        <f t="shared" ref="AU43" si="134">AU20/$E20-1</f>
+      <c r="AR43" s="68">
+        <f t="shared" ref="AR43" si="134">AR20/$E20-1</f>
         <v>-8.6501658586374042E-2</v>
       </c>
+      <c r="AS43" s="68"/>
+      <c r="AT43" s="68"/>
+      <c r="AU43" s="68"/>
       <c r="AV43" s="68"/>
       <c r="AW43" s="68"/>
       <c r="AX43" s="68"/>
       <c r="AY43" s="68"/>
       <c r="AZ43" s="68"/>
       <c r="BA43" s="68"/>
-      <c r="BB43" s="68"/>
-      <c r="BC43" s="68"/>
-      <c r="BD43" s="68"/>
     </row>
-    <row r="44" spans="4:56" x14ac:dyDescent="0.2">
+    <row r="44" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D44" s="14">
         <v>150</v>
       </c>
       <c r="E44" s="80"/>
       <c r="F44" s="68">
-        <f t="shared" ref="F44:R44" si="135">F21/$E21-1</f>
+        <f t="shared" ref="F44:P44" si="135">F21/$E21-1</f>
         <v>-8.2177161152614753E-2</v>
       </c>
       <c r="G44" s="68">
@@ -41670,173 +41325,161 @@
       </c>
       <c r="J44" s="68">
         <f t="shared" si="135"/>
-        <v>-8.2177161152614753E-2</v>
+        <v>-9.2849519743863462E-2</v>
       </c>
       <c r="K44" s="68">
         <f t="shared" si="135"/>
-        <v>-9.2849519743863462E-2</v>
+        <v>-9.0181430096051285E-2</v>
       </c>
       <c r="L44" s="68">
         <f t="shared" si="135"/>
-        <v>-9.2849519743863462E-2</v>
+        <v>-8.7513340448239108E-2</v>
       </c>
       <c r="M44" s="68">
         <f t="shared" si="135"/>
-        <v>-9.0181430096051285E-2</v>
+        <v>-8.484525080042693E-2</v>
       </c>
       <c r="N44" s="68">
         <f t="shared" si="135"/>
-        <v>-8.7513340448239108E-2</v>
+        <v>-9.2849519743863462E-2</v>
       </c>
       <c r="O44" s="68">
         <f t="shared" si="135"/>
-        <v>-8.484525080042693E-2</v>
+        <v>-9.2849519743863462E-2</v>
       </c>
       <c r="P44" s="68">
         <f t="shared" si="135"/>
-        <v>-9.2849519743863462E-2</v>
+        <v>-8.7513340448239108E-2</v>
       </c>
       <c r="Q44" s="68">
-        <f t="shared" si="135"/>
-        <v>-9.2849519743863462E-2</v>
+        <f t="shared" ref="Q44:R44" si="136">Q21/$E21-1</f>
+        <v>-9.0181430096051285E-2</v>
       </c>
       <c r="R44" s="68">
-        <f t="shared" si="135"/>
-        <v>-8.7513340448239108E-2</v>
-      </c>
-      <c r="S44" s="68">
-        <f t="shared" ref="S44:T44" si="136">S21/$E21-1</f>
-        <v>-9.0181430096051285E-2</v>
-      </c>
-      <c r="T44" s="68">
         <f t="shared" si="136"/>
         <v>-8.2177161152614753E-2</v>
       </c>
-      <c r="U44" s="68">
-        <f t="shared" ref="U44:V44" si="137">U21/$E21-1</f>
+      <c r="S44" s="68">
+        <f t="shared" ref="S44:T44" si="137">S21/$E21-1</f>
         <v>-8.7513340448239108E-2</v>
       </c>
-      <c r="V44" s="68">
+      <c r="T44" s="68">
         <f t="shared" si="137"/>
         <v>-8.7513340448239108E-2</v>
       </c>
-      <c r="W44" s="68">
-        <f t="shared" ref="W44:X44" si="138">W21/$E21-1</f>
+      <c r="U44" s="68">
+        <f t="shared" ref="U44:V44" si="138">U21/$E21-1</f>
         <v>-8.7513340448239108E-2</v>
       </c>
-      <c r="X44" s="68">
+      <c r="V44" s="68">
         <f t="shared" si="138"/>
         <v>-8.2177161152614753E-2</v>
       </c>
-      <c r="Y44" s="68">
-        <f t="shared" ref="Y44:Z44" si="139">Y21/$E21-1</f>
+      <c r="W44" s="68">
+        <f t="shared" ref="W44:X44" si="139">W21/$E21-1</f>
         <v>-8.2177161152614753E-2</v>
       </c>
-      <c r="Z44" s="68">
+      <c r="X44" s="68">
         <f t="shared" si="139"/>
         <v>-7.9509071504802575E-2</v>
       </c>
-      <c r="AA44" s="68">
-        <f t="shared" ref="AA44:AB44" si="140">AA21/$E21-1</f>
+      <c r="Y44" s="68">
+        <f t="shared" ref="Y44:Z44" si="140">Y21/$E21-1</f>
         <v>-8.484525080042693E-2</v>
       </c>
-      <c r="AB44" s="68">
+      <c r="Z44" s="68">
         <f t="shared" si="140"/>
         <v>-8.484525080042693E-2</v>
       </c>
+      <c r="AA44" s="68">
+        <f t="shared" ref="AA44" si="141">AA21/$E21-1</f>
+        <v>-9.5517609391675529E-2</v>
+      </c>
+      <c r="AB44" s="68">
+        <f t="shared" ref="AB44:AC44" si="142">AB21/$E21-1</f>
+        <v>-9.2849519743863462E-2</v>
+      </c>
       <c r="AC44" s="68">
-        <f t="shared" ref="AC44:AD44" si="141">AC21/$E21-1</f>
-        <v>-0.10085378868729988</v>
-      </c>
-      <c r="AD44" s="68">
-        <f t="shared" si="141"/>
-        <v>-9.5517609391675529E-2</v>
-      </c>
-      <c r="AE44" s="68">
-        <f t="shared" ref="AE44:AF44" si="142">AE21/$E21-1</f>
-        <v>-9.2849519743863462E-2</v>
-      </c>
-      <c r="AF44" s="68">
         <f t="shared" si="142"/>
         <v>-8.7513340448239108E-2</v>
       </c>
-      <c r="AG44" s="68">
-        <f t="shared" ref="AG44:AI44" si="143">AG21/$E21-1</f>
+      <c r="AD44" s="68">
+        <f t="shared" ref="AD44:AF44" si="143">AD21/$E21-1</f>
         <v>-9.2849519743863462E-2</v>
       </c>
-      <c r="AH44" s="68">
+      <c r="AE44" s="68">
         <f t="shared" si="143"/>
         <v>-9.0181430096051285E-2</v>
       </c>
-      <c r="AI44" s="68">
+      <c r="AF44" s="68">
         <f t="shared" si="143"/>
         <v>-8.484525080042693E-2</v>
       </c>
-      <c r="AJ44" s="68">
-        <f t="shared" ref="AJ44:AL44" si="144">AJ21/$E21-1</f>
+      <c r="AG44" s="68">
+        <f t="shared" ref="AG44:AI44" si="144">AG21/$E21-1</f>
         <v>-9.0181430096051285E-2</v>
       </c>
-      <c r="AK44" s="68">
+      <c r="AH44" s="68">
         <f t="shared" si="144"/>
         <v>-8.7513340448239108E-2</v>
       </c>
-      <c r="AL44" s="68">
+      <c r="AI44" s="68">
         <f t="shared" si="144"/>
         <v>-5.8164354322305378E-2</v>
       </c>
-      <c r="AM44" s="68">
-        <f t="shared" ref="AM44:AN44" si="145">AM21/$E21-1</f>
+      <c r="AJ44" s="68">
+        <f t="shared" ref="AJ44:AK44" si="145">AJ21/$E21-1</f>
         <v>-6.3500533617929622E-2</v>
       </c>
-      <c r="AN44" s="68">
+      <c r="AK44" s="68">
         <f t="shared" si="145"/>
         <v>-6.8836712913553866E-2</v>
       </c>
-      <c r="AO44" s="68">
-        <f t="shared" ref="AO44:AP44" si="146">AO21/$E21-1</f>
+      <c r="AL44" s="68">
+        <f t="shared" ref="AL44:AM44" si="146">AL21/$E21-1</f>
         <v>-0.10085378868729988</v>
       </c>
-      <c r="AP44" s="68">
+      <c r="AM44" s="68">
         <f t="shared" si="146"/>
         <v>-9.8185699039487817E-2</v>
       </c>
-      <c r="AQ44" s="68">
-        <f t="shared" ref="AQ44:AR44" si="147">AQ21/$E21-1</f>
+      <c r="AN44" s="68">
+        <f t="shared" ref="AN44:AO44" si="147">AN21/$E21-1</f>
         <v>-9.8185699039487817E-2</v>
       </c>
-      <c r="AR44" s="68">
+      <c r="AO44" s="68">
         <f t="shared" si="147"/>
         <v>-8.7513340448239108E-2</v>
       </c>
-      <c r="AS44" s="68">
-        <f t="shared" ref="AS44:AT44" si="148">AS21/$E21-1</f>
+      <c r="AP44" s="68">
+        <f t="shared" ref="AP44:AQ44" si="148">AP21/$E21-1</f>
         <v>-9.2849519743863462E-2</v>
       </c>
-      <c r="AT44" s="68">
+      <c r="AQ44" s="68">
         <f t="shared" si="148"/>
         <v>-9.5517609391675529E-2</v>
       </c>
-      <c r="AU44" s="68">
-        <f t="shared" ref="AU44" si="149">AU21/$E21-1</f>
+      <c r="AR44" s="68">
+        <f t="shared" ref="AR44" si="149">AR21/$E21-1</f>
         <v>-9.5517609391675529E-2</v>
       </c>
+      <c r="AS44" s="68"/>
+      <c r="AT44" s="68"/>
+      <c r="AU44" s="68"/>
       <c r="AV44" s="68"/>
       <c r="AW44" s="68"/>
       <c r="AX44" s="68"/>
       <c r="AY44" s="68"/>
       <c r="AZ44" s="68"/>
       <c r="BA44" s="68"/>
-      <c r="BB44" s="68"/>
-      <c r="BC44" s="68"/>
-      <c r="BD44" s="68"/>
     </row>
-    <row r="45" spans="4:56" x14ac:dyDescent="0.2">
+    <row r="45" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D45" s="14">
         <v>160</v>
       </c>
       <c r="E45" s="80"/>
       <c r="F45" s="68">
-        <f t="shared" ref="F45:R45" si="150">F22/$E22-1</f>
+        <f t="shared" ref="F45:P45" si="150">F22/$E22-1</f>
         <v>-7.9391891891891886E-2</v>
       </c>
       <c r="G45" s="68">
@@ -41853,173 +41496,161 @@
       </c>
       <c r="J45" s="68">
         <f t="shared" si="150"/>
-        <v>-8.2207207207207311E-2</v>
+        <v>-9.9099099099099086E-2</v>
       </c>
       <c r="K45" s="68">
         <f t="shared" si="150"/>
-        <v>-9.9099099099099086E-2</v>
+        <v>-9.0653153153153143E-2</v>
       </c>
       <c r="L45" s="68">
         <f t="shared" si="150"/>
-        <v>-9.9099099099099086E-2</v>
+        <v>-8.2207207207207311E-2</v>
       </c>
       <c r="M45" s="68">
         <f t="shared" si="150"/>
-        <v>-9.0653153153153143E-2</v>
+        <v>-8.5022522522522515E-2</v>
       </c>
       <c r="N45" s="68">
         <f t="shared" si="150"/>
-        <v>-8.2207207207207311E-2</v>
+        <v>-9.3468468468468457E-2</v>
       </c>
       <c r="O45" s="68">
         <f t="shared" si="150"/>
-        <v>-8.5022522522522515E-2</v>
+        <v>-9.3468468468468457E-2</v>
       </c>
       <c r="P45" s="68">
         <f t="shared" si="150"/>
-        <v>-9.3468468468468457E-2</v>
+        <v>-8.5022522522522515E-2</v>
       </c>
       <c r="Q45" s="68">
-        <f t="shared" si="150"/>
-        <v>-9.3468468468468457E-2</v>
+        <f t="shared" ref="Q45:R45" si="151">Q22/$E22-1</f>
+        <v>-9.0653153153153143E-2</v>
       </c>
       <c r="R45" s="68">
-        <f t="shared" si="150"/>
-        <v>-8.5022522522522515E-2</v>
-      </c>
-      <c r="S45" s="68">
-        <f t="shared" ref="S45:T45" si="151">S22/$E22-1</f>
-        <v>-9.0653153153153143E-2</v>
-      </c>
-      <c r="T45" s="68">
         <f t="shared" si="151"/>
         <v>-8.5022522522522515E-2</v>
       </c>
-      <c r="U45" s="68">
-        <f t="shared" ref="U45:V45" si="152">U22/$E22-1</f>
+      <c r="S45" s="68">
+        <f t="shared" ref="S45:T45" si="152">S22/$E22-1</f>
         <v>-8.7837837837837829E-2</v>
       </c>
-      <c r="V45" s="68">
+      <c r="T45" s="68">
         <f t="shared" si="152"/>
         <v>-8.7837837837837829E-2</v>
       </c>
-      <c r="W45" s="68">
-        <f t="shared" ref="W45:X45" si="153">W22/$E22-1</f>
+      <c r="U45" s="68">
+        <f t="shared" ref="U45:V45" si="153">U22/$E22-1</f>
         <v>-8.7837837837837829E-2</v>
       </c>
-      <c r="X45" s="68">
+      <c r="V45" s="68">
         <f t="shared" si="153"/>
         <v>-8.2207207207207311E-2</v>
       </c>
-      <c r="Y45" s="68">
-        <f t="shared" ref="Y45:Z45" si="154">Y22/$E22-1</f>
+      <c r="W45" s="68">
+        <f t="shared" ref="W45:X45" si="154">W22/$E22-1</f>
         <v>-7.6576576576576683E-2</v>
       </c>
-      <c r="Z45" s="68">
+      <c r="X45" s="68">
         <f t="shared" si="154"/>
         <v>-7.9391891891891886E-2</v>
       </c>
-      <c r="AA45" s="68">
-        <f t="shared" ref="AA45:AB45" si="155">AA22/$E22-1</f>
+      <c r="Y45" s="68">
+        <f t="shared" ref="Y45:Z45" si="155">Y22/$E22-1</f>
         <v>-8.5022522522522515E-2</v>
       </c>
-      <c r="AB45" s="68">
+      <c r="Z45" s="68">
         <f t="shared" si="155"/>
         <v>-8.2207207207207311E-2</v>
       </c>
+      <c r="AA45" s="68">
+        <f t="shared" ref="AA45" si="156">AA22/$E22-1</f>
+        <v>-9.6283783783783772E-2</v>
+      </c>
+      <c r="AB45" s="68">
+        <f t="shared" ref="AB45:AC45" si="157">AB22/$E22-1</f>
+        <v>-9.0653153153153143E-2</v>
+      </c>
       <c r="AC45" s="68">
-        <f t="shared" ref="AC45:AD45" si="156">AC22/$E22-1</f>
-        <v>-9.6283783783783772E-2</v>
-      </c>
-      <c r="AD45" s="68">
-        <f t="shared" si="156"/>
-        <v>-9.6283783783783772E-2</v>
-      </c>
-      <c r="AE45" s="68">
-        <f t="shared" ref="AE45:AF45" si="157">AE22/$E22-1</f>
-        <v>-9.0653153153153143E-2</v>
-      </c>
-      <c r="AF45" s="68">
         <f t="shared" si="157"/>
         <v>-9.0653153153153143E-2</v>
       </c>
-      <c r="AG45" s="68">
-        <f t="shared" ref="AG45:AI45" si="158">AG22/$E22-1</f>
+      <c r="AD45" s="68">
+        <f t="shared" ref="AD45:AF45" si="158">AD22/$E22-1</f>
         <v>-9.3468468468468457E-2</v>
       </c>
-      <c r="AH45" s="68">
+      <c r="AE45" s="68">
         <f t="shared" si="158"/>
         <v>-8.5022522522522515E-2</v>
       </c>
-      <c r="AI45" s="68">
+      <c r="AF45" s="68">
         <f t="shared" si="158"/>
         <v>-8.5022522522522515E-2</v>
       </c>
-      <c r="AJ45" s="68">
-        <f t="shared" ref="AJ45:AL45" si="159">AJ22/$E22-1</f>
+      <c r="AG45" s="68">
+        <f t="shared" ref="AG45:AI45" si="159">AG22/$E22-1</f>
         <v>-8.2207207207207311E-2</v>
       </c>
-      <c r="AK45" s="68">
+      <c r="AH45" s="68">
         <f t="shared" si="159"/>
         <v>-8.7837837837837829E-2</v>
       </c>
-      <c r="AL45" s="68">
+      <c r="AI45" s="68">
         <f t="shared" si="159"/>
         <v>-4.8423423423423428E-2</v>
       </c>
-      <c r="AM45" s="68">
-        <f t="shared" ref="AM45:AN45" si="160">AM22/$E22-1</f>
+      <c r="AJ45" s="68">
+        <f t="shared" ref="AJ45:AK45" si="160">AJ22/$E22-1</f>
         <v>-6.5315315315315425E-2</v>
       </c>
-      <c r="AN45" s="68">
+      <c r="AK45" s="68">
         <f t="shared" si="160"/>
         <v>-6.5315315315315425E-2</v>
       </c>
-      <c r="AO45" s="68">
-        <f t="shared" ref="AO45:AP45" si="161">AO22/$E22-1</f>
+      <c r="AL45" s="68">
+        <f t="shared" ref="AL45:AM45" si="161">AL22/$E22-1</f>
         <v>-9.9099099099099086E-2</v>
       </c>
-      <c r="AP45" s="68">
+      <c r="AM45" s="68">
         <f t="shared" si="161"/>
         <v>-9.6283783783783772E-2</v>
       </c>
-      <c r="AQ45" s="68">
-        <f t="shared" ref="AQ45:AR45" si="162">AQ22/$E22-1</f>
+      <c r="AN45" s="68">
+        <f t="shared" ref="AN45:AO45" si="162">AN22/$E22-1</f>
         <v>-9.9099099099099086E-2</v>
       </c>
-      <c r="AR45" s="68">
+      <c r="AO45" s="68">
         <f t="shared" si="162"/>
         <v>-9.0653153153153143E-2</v>
       </c>
-      <c r="AS45" s="68">
-        <f t="shared" ref="AS45:AT45" si="163">AS22/$E22-1</f>
+      <c r="AP45" s="68">
+        <f t="shared" ref="AP45:AQ45" si="163">AP22/$E22-1</f>
         <v>-9.0653153153153143E-2</v>
       </c>
-      <c r="AT45" s="68">
+      <c r="AQ45" s="68">
         <f t="shared" si="163"/>
         <v>-9.0653153153153143E-2</v>
       </c>
-      <c r="AU45" s="68">
-        <f t="shared" ref="AU45" si="164">AU22/$E22-1</f>
+      <c r="AR45" s="68">
+        <f t="shared" ref="AR45" si="164">AR22/$E22-1</f>
         <v>-9.6283783783783772E-2</v>
       </c>
+      <c r="AS45" s="68"/>
+      <c r="AT45" s="68"/>
+      <c r="AU45" s="68"/>
       <c r="AV45" s="68"/>
       <c r="AW45" s="68"/>
       <c r="AX45" s="68"/>
       <c r="AY45" s="68"/>
       <c r="AZ45" s="68"/>
       <c r="BA45" s="68"/>
-      <c r="BB45" s="68"/>
-      <c r="BC45" s="68"/>
-      <c r="BD45" s="68"/>
     </row>
-    <row r="46" spans="4:56" x14ac:dyDescent="0.2">
+    <row r="46" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D46" s="14">
         <v>170</v>
       </c>
       <c r="E46" s="80"/>
       <c r="F46" s="68">
-        <f t="shared" ref="F46:R46" si="165">F23/$E23-1</f>
+        <f t="shared" ref="F46:P46" si="165">F23/$E23-1</f>
         <v>-7.6831447290053645E-2</v>
       </c>
       <c r="G46" s="68">
@@ -42036,173 +41667,161 @@
       </c>
       <c r="J46" s="68">
         <f t="shared" si="165"/>
-        <v>-7.9809410363311573E-2</v>
+        <v>-9.4699225729600989E-2</v>
       </c>
       <c r="K46" s="68">
         <f t="shared" si="165"/>
-        <v>-9.4699225729600989E-2</v>
+        <v>-9.1721262656343172E-2</v>
       </c>
       <c r="L46" s="68">
         <f t="shared" si="165"/>
-        <v>-9.4699225729600989E-2</v>
+        <v>-8.8743299583085133E-2</v>
       </c>
       <c r="M46" s="68">
         <f t="shared" si="165"/>
-        <v>-9.1721262656343172E-2</v>
+        <v>-8.5765336509827317E-2</v>
       </c>
       <c r="N46" s="68">
         <f t="shared" si="165"/>
-        <v>-8.8743299583085133E-2</v>
+        <v>-9.1721262656343172E-2</v>
       </c>
       <c r="O46" s="68">
         <f t="shared" si="165"/>
-        <v>-8.5765336509827317E-2</v>
+        <v>-9.1721262656343172E-2</v>
       </c>
       <c r="P46" s="68">
         <f t="shared" si="165"/>
-        <v>-9.1721262656343172E-2</v>
+        <v>-8.8743299583085133E-2</v>
       </c>
       <c r="Q46" s="68">
-        <f t="shared" si="165"/>
-        <v>-9.1721262656343172E-2</v>
+        <f t="shared" ref="Q46:R46" si="166">Q23/$E23-1</f>
+        <v>-8.8743299583085133E-2</v>
       </c>
       <c r="R46" s="68">
-        <f t="shared" si="165"/>
-        <v>-8.8743299583085133E-2</v>
-      </c>
-      <c r="S46" s="68">
-        <f t="shared" ref="S46:T46" si="166">S23/$E23-1</f>
-        <v>-8.8743299583085133E-2</v>
-      </c>
-      <c r="T46" s="68">
         <f t="shared" si="166"/>
         <v>-8.2787373436569389E-2</v>
       </c>
-      <c r="U46" s="68">
-        <f t="shared" ref="U46:V46" si="167">U23/$E23-1</f>
+      <c r="S46" s="68">
+        <f t="shared" ref="S46:T46" si="167">S23/$E23-1</f>
         <v>-8.8743299583085133E-2</v>
       </c>
-      <c r="V46" s="68">
+      <c r="T46" s="68">
         <f t="shared" si="167"/>
         <v>-8.8743299583085133E-2</v>
       </c>
-      <c r="W46" s="68">
-        <f t="shared" ref="W46:X46" si="168">W23/$E23-1</f>
+      <c r="U46" s="68">
+        <f t="shared" ref="U46:V46" si="168">U23/$E23-1</f>
         <v>-8.8743299583085133E-2</v>
       </c>
-      <c r="X46" s="68">
+      <c r="V46" s="68">
         <f t="shared" si="168"/>
         <v>-8.2787373436569389E-2</v>
       </c>
-      <c r="Y46" s="68">
-        <f t="shared" ref="Y46:Z46" si="169">Y23/$E23-1</f>
+      <c r="W46" s="68">
+        <f t="shared" ref="W46:X46" si="169">W23/$E23-1</f>
         <v>-7.9809410363311573E-2</v>
       </c>
-      <c r="Z46" s="68">
+      <c r="X46" s="68">
         <f t="shared" si="169"/>
         <v>-7.3853484216795828E-2</v>
       </c>
-      <c r="AA46" s="68">
-        <f t="shared" ref="AA46:AB46" si="170">AA23/$E23-1</f>
+      <c r="Y46" s="68">
+        <f t="shared" ref="Y46:Z46" si="170">Y23/$E23-1</f>
         <v>-8.5765336509827317E-2</v>
       </c>
-      <c r="AB46" s="68">
+      <c r="Z46" s="68">
         <f t="shared" si="170"/>
         <v>-7.6831447290053645E-2</v>
       </c>
+      <c r="AA46" s="68">
+        <f t="shared" ref="AA46" si="171">AA23/$E23-1</f>
+        <v>-0.10065515187611673</v>
+      </c>
+      <c r="AB46" s="68">
+        <f t="shared" ref="AB46:AC46" si="172">AB23/$E23-1</f>
+        <v>-9.4699225729600989E-2</v>
+      </c>
       <c r="AC46" s="68">
-        <f t="shared" ref="AC46:AD46" si="171">AC23/$E23-1</f>
-        <v>-0.10065515187611673</v>
-      </c>
-      <c r="AD46" s="68">
-        <f t="shared" si="171"/>
-        <v>-0.10065515187611673</v>
-      </c>
-      <c r="AE46" s="68">
-        <f t="shared" ref="AE46:AF46" si="172">AE23/$E23-1</f>
-        <v>-9.4699225729600989E-2</v>
-      </c>
-      <c r="AF46" s="68">
         <f t="shared" si="172"/>
         <v>-8.8743299583085133E-2</v>
       </c>
-      <c r="AG46" s="68">
-        <f t="shared" ref="AG46:AI46" si="173">AG23/$E23-1</f>
+      <c r="AD46" s="68">
+        <f t="shared" ref="AD46:AF46" si="173">AD23/$E23-1</f>
         <v>-9.1721262656343172E-2</v>
       </c>
-      <c r="AH46" s="68">
+      <c r="AE46" s="68">
         <f t="shared" si="173"/>
         <v>-7.9809410363311573E-2</v>
       </c>
-      <c r="AI46" s="68">
+      <c r="AF46" s="68">
         <f t="shared" si="173"/>
         <v>-8.5765336509827317E-2</v>
       </c>
-      <c r="AJ46" s="68">
-        <f t="shared" ref="AJ46:AL46" si="174">AJ23/$E23-1</f>
+      <c r="AG46" s="68">
+        <f t="shared" ref="AG46:AI46" si="174">AG23/$E23-1</f>
         <v>-8.5765336509827317E-2</v>
       </c>
-      <c r="AK46" s="68">
+      <c r="AH46" s="68">
         <f t="shared" si="174"/>
         <v>-9.1721262656343172E-2</v>
       </c>
-      <c r="AL46" s="68">
+      <c r="AI46" s="68">
         <f t="shared" si="174"/>
         <v>-4.7051816557474702E-2</v>
       </c>
-      <c r="AM46" s="68">
-        <f t="shared" ref="AM46:AN46" si="175">AM23/$E23-1</f>
+      <c r="AJ46" s="68">
+        <f t="shared" ref="AJ46:AK46" si="175">AJ23/$E23-1</f>
         <v>-6.7897558070279973E-2</v>
       </c>
-      <c r="AN46" s="68">
+      <c r="AK46" s="68">
         <f t="shared" si="175"/>
         <v>-6.1941631923764229E-2</v>
       </c>
-      <c r="AO46" s="68">
-        <f t="shared" ref="AO46:AP46" si="176">AO23/$E23-1</f>
+      <c r="AL46" s="68">
+        <f t="shared" ref="AL46:AM46" si="176">AL23/$E23-1</f>
         <v>-0.10363311494937477</v>
       </c>
-      <c r="AP46" s="68">
+      <c r="AM46" s="68">
         <f t="shared" si="176"/>
         <v>-0.10065515187611673</v>
       </c>
-      <c r="AQ46" s="68">
-        <f t="shared" ref="AQ46:AR46" si="177">AQ23/$E23-1</f>
+      <c r="AN46" s="68">
+        <f t="shared" ref="AN46:AO46" si="177">AN23/$E23-1</f>
         <v>-0.10363311494937477</v>
       </c>
-      <c r="AR46" s="68">
+      <c r="AO46" s="68">
         <f t="shared" si="177"/>
         <v>-9.1721262656343172E-2</v>
       </c>
-      <c r="AS46" s="68">
-        <f t="shared" ref="AS46:AT46" si="178">AS23/$E23-1</f>
+      <c r="AP46" s="68">
+        <f t="shared" ref="AP46:AQ46" si="178">AP23/$E23-1</f>
         <v>-9.4699225729600989E-2</v>
       </c>
-      <c r="AT46" s="68">
+      <c r="AQ46" s="68">
         <f t="shared" si="178"/>
         <v>-9.1721262656343172E-2</v>
       </c>
-      <c r="AU46" s="68">
-        <f t="shared" ref="AU46" si="179">AU23/$E23-1</f>
+      <c r="AR46" s="68">
+        <f t="shared" ref="AR46" si="179">AR23/$E23-1</f>
         <v>-9.4699225729600989E-2</v>
       </c>
+      <c r="AS46" s="68"/>
+      <c r="AT46" s="68"/>
+      <c r="AU46" s="68"/>
       <c r="AV46" s="68"/>
       <c r="AW46" s="68"/>
       <c r="AX46" s="68"/>
       <c r="AY46" s="68"/>
       <c r="AZ46" s="68"/>
       <c r="BA46" s="68"/>
-      <c r="BB46" s="68"/>
-      <c r="BC46" s="68"/>
-      <c r="BD46" s="68"/>
     </row>
-    <row r="47" spans="4:56" x14ac:dyDescent="0.2">
+    <row r="47" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D47" s="14">
         <v>180</v>
       </c>
       <c r="E47" s="80"/>
       <c r="F47" s="68">
-        <f t="shared" ref="F47:R47" si="180">F24/$E24-1</f>
+        <f t="shared" ref="F47:P47" si="180">F24/$E24-1</f>
         <v>-6.9624152803450357E-2</v>
       </c>
       <c r="G47" s="68">
@@ -42219,173 +41838,161 @@
       </c>
       <c r="J47" s="68">
         <f t="shared" si="180"/>
-        <v>-7.2704867529266859E-2</v>
+        <v>-9.4269870609981488E-2</v>
       </c>
       <c r="K47" s="68">
         <f t="shared" si="180"/>
-        <v>-9.4269870609981488E-2</v>
+        <v>-8.5027726432532313E-2</v>
       </c>
       <c r="L47" s="68">
         <f t="shared" si="180"/>
-        <v>-9.4269870609981488E-2</v>
+        <v>-8.1947011706715922E-2</v>
       </c>
       <c r="M47" s="68">
         <f t="shared" si="180"/>
-        <v>-8.5027726432532313E-2</v>
+        <v>-8.1947011706715922E-2</v>
       </c>
       <c r="N47" s="68">
         <f t="shared" si="180"/>
-        <v>-8.1947011706715922E-2</v>
+        <v>-9.1189155884165096E-2</v>
       </c>
       <c r="O47" s="68">
         <f t="shared" si="180"/>
-        <v>-8.1947011706715922E-2</v>
+        <v>-9.1189155884165096E-2</v>
       </c>
       <c r="P47" s="68">
         <f t="shared" si="180"/>
-        <v>-9.1189155884165096E-2</v>
+        <v>-8.5027726432532313E-2</v>
       </c>
       <c r="Q47" s="68">
-        <f t="shared" si="180"/>
-        <v>-9.1189155884165096E-2</v>
+        <f t="shared" ref="Q47:R47" si="181">Q24/$E24-1</f>
+        <v>-8.5027726432532313E-2</v>
       </c>
       <c r="R47" s="68">
-        <f t="shared" si="180"/>
-        <v>-8.5027726432532313E-2</v>
-      </c>
-      <c r="S47" s="68">
-        <f t="shared" ref="S47:T47" si="181">S24/$E24-1</f>
-        <v>-8.5027726432532313E-2</v>
-      </c>
-      <c r="T47" s="68">
         <f t="shared" si="181"/>
         <v>-7.8866296980899531E-2</v>
       </c>
-      <c r="U47" s="68">
-        <f t="shared" ref="U47:V47" si="182">U24/$E24-1</f>
+      <c r="S47" s="68">
+        <f t="shared" ref="S47:T47" si="182">S24/$E24-1</f>
         <v>-8.1947011706715922E-2</v>
       </c>
-      <c r="V47" s="68">
+      <c r="T47" s="68">
         <f t="shared" si="182"/>
         <v>-8.1947011706715922E-2</v>
       </c>
-      <c r="W47" s="68">
-        <f t="shared" ref="W47:X47" si="183">W24/$E24-1</f>
+      <c r="U47" s="68">
+        <f t="shared" ref="U47:V47" si="183">U24/$E24-1</f>
         <v>-7.8866296980899531E-2</v>
       </c>
-      <c r="X47" s="68">
+      <c r="V47" s="68">
         <f t="shared" si="183"/>
         <v>-6.9624152803450357E-2</v>
       </c>
-      <c r="Y47" s="68">
-        <f t="shared" ref="Y47:Z47" si="184">Y24/$E24-1</f>
+      <c r="W47" s="68">
+        <f t="shared" ref="W47:X47" si="184">W24/$E24-1</f>
         <v>-6.9624152803450357E-2</v>
       </c>
-      <c r="Z47" s="68">
+      <c r="X47" s="68">
         <f t="shared" si="184"/>
         <v>-6.9624152803450357E-2</v>
       </c>
-      <c r="AA47" s="68">
-        <f t="shared" ref="AA47:AB47" si="185">AA24/$E24-1</f>
+      <c r="Y47" s="68">
+        <f t="shared" ref="Y47:Z47" si="185">Y24/$E24-1</f>
         <v>-7.8866296980899531E-2</v>
       </c>
-      <c r="AB47" s="68">
+      <c r="Z47" s="68">
         <f t="shared" si="185"/>
         <v>-8.5027726432532313E-2</v>
       </c>
+      <c r="AA47" s="68">
+        <f t="shared" ref="AA47" si="186">AA24/$E24-1</f>
+        <v>-9.1189155884165096E-2</v>
+      </c>
+      <c r="AB47" s="68">
+        <f t="shared" ref="AB47:AC47" si="187">AB24/$E24-1</f>
+        <v>-8.8108441158348705E-2</v>
+      </c>
       <c r="AC47" s="68">
-        <f t="shared" ref="AC47:AD47" si="186">AC24/$E24-1</f>
-        <v>-9.7350585335797879E-2</v>
-      </c>
-      <c r="AD47" s="68">
-        <f t="shared" si="186"/>
-        <v>-9.1189155884165096E-2</v>
-      </c>
-      <c r="AE47" s="68">
-        <f t="shared" ref="AE47:AF47" si="187">AE24/$E24-1</f>
-        <v>-8.8108441158348705E-2</v>
-      </c>
-      <c r="AF47" s="68">
         <f t="shared" si="187"/>
         <v>-7.8866296980899531E-2</v>
       </c>
-      <c r="AG47" s="68">
-        <f t="shared" ref="AG47:AI47" si="188">AG24/$E24-1</f>
+      <c r="AD47" s="68">
+        <f t="shared" ref="AD47:AF47" si="188">AD24/$E24-1</f>
         <v>-8.1947011706715922E-2</v>
       </c>
-      <c r="AH47" s="68">
+      <c r="AE47" s="68">
         <f t="shared" si="188"/>
         <v>-6.6543438077634076E-2</v>
       </c>
-      <c r="AI47" s="68">
+      <c r="AF47" s="68">
         <f t="shared" si="188"/>
         <v>-6.6543438077634076E-2</v>
       </c>
-      <c r="AJ47" s="68">
-        <f t="shared" ref="AJ47:AL47" si="189">AJ24/$E24-1</f>
+      <c r="AG47" s="68">
+        <f t="shared" ref="AG47:AI47" si="189">AG24/$E24-1</f>
         <v>-7.2704867529266859E-2</v>
       </c>
-      <c r="AK47" s="68">
+      <c r="AH47" s="68">
         <f t="shared" si="189"/>
         <v>-8.8108441158348705E-2</v>
       </c>
-      <c r="AL47" s="68">
+      <c r="AI47" s="68">
         <f t="shared" si="189"/>
         <v>-3.8817005545286443E-2</v>
       </c>
-      <c r="AM47" s="68">
-        <f t="shared" ref="AM47:AN47" si="190">AM24/$E24-1</f>
+      <c r="AJ47" s="68">
+        <f t="shared" ref="AJ47:AK47" si="190">AJ24/$E24-1</f>
         <v>-4.8059149722735728E-2</v>
       </c>
-      <c r="AN47" s="68">
+      <c r="AK47" s="68">
         <f t="shared" si="190"/>
         <v>-4.1897720271102945E-2</v>
       </c>
-      <c r="AO47" s="68">
-        <f t="shared" ref="AO47:AP47" si="191">AO24/$E24-1</f>
+      <c r="AL47" s="68">
+        <f t="shared" ref="AL47:AM47" si="191">AL24/$E24-1</f>
         <v>-0.10043130006161427</v>
       </c>
-      <c r="AP47" s="68">
+      <c r="AM47" s="68">
         <f t="shared" si="191"/>
         <v>-9.4269870609981488E-2</v>
       </c>
-      <c r="AQ47" s="68">
-        <f t="shared" ref="AQ47:AR47" si="192">AQ24/$E24-1</f>
+      <c r="AN47" s="68">
+        <f t="shared" ref="AN47:AO47" si="192">AN24/$E24-1</f>
         <v>-9.4269870609981488E-2</v>
       </c>
-      <c r="AR47" s="68">
+      <c r="AO47" s="68">
         <f t="shared" si="192"/>
         <v>-7.8866296980899531E-2</v>
       </c>
-      <c r="AS47" s="68">
-        <f t="shared" ref="AS47:AT47" si="193">AS24/$E24-1</f>
+      <c r="AP47" s="68">
+        <f t="shared" ref="AP47:AQ47" si="193">AP24/$E24-1</f>
         <v>-9.1189155884165096E-2</v>
       </c>
-      <c r="AT47" s="68">
+      <c r="AQ47" s="68">
         <f t="shared" si="193"/>
         <v>-8.5027726432532313E-2</v>
       </c>
-      <c r="AU47" s="68">
-        <f t="shared" ref="AU47" si="194">AU24/$E24-1</f>
+      <c r="AR47" s="68">
+        <f t="shared" ref="AR47" si="194">AR24/$E24-1</f>
         <v>-8.8108441158348705E-2</v>
       </c>
+      <c r="AS47" s="68"/>
+      <c r="AT47" s="68"/>
+      <c r="AU47" s="68"/>
       <c r="AV47" s="68"/>
       <c r="AW47" s="68"/>
       <c r="AX47" s="68"/>
       <c r="AY47" s="68"/>
       <c r="AZ47" s="68"/>
       <c r="BA47" s="68"/>
-      <c r="BB47" s="68"/>
-      <c r="BC47" s="68"/>
-      <c r="BD47" s="68"/>
     </row>
-    <row r="48" spans="4:56" x14ac:dyDescent="0.2">
+    <row r="48" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D48" s="14">
         <v>190</v>
       </c>
       <c r="E48" s="80"/>
       <c r="F48" s="68">
-        <f t="shared" ref="F48:R48" si="195">F25/$E25-1</f>
+        <f t="shared" ref="F48:P48" si="195">F25/$E25-1</f>
         <v>-6.1107574793125341E-2</v>
       </c>
       <c r="G48" s="68">
@@ -42402,173 +42009,161 @@
       </c>
       <c r="J48" s="68">
         <f t="shared" si="195"/>
-        <v>-7.0655633354551273E-2</v>
+        <v>-6.4290260980267355E-2</v>
       </c>
       <c r="K48" s="68">
         <f t="shared" si="195"/>
-        <v>-6.4290260980267355E-2</v>
+        <v>-8.65690642902609E-2</v>
       </c>
       <c r="L48" s="68">
         <f t="shared" si="195"/>
-        <v>-6.4290260980267355E-2</v>
+        <v>-8.0203691915976982E-2</v>
       </c>
       <c r="M48" s="68">
         <f t="shared" si="195"/>
-        <v>-8.65690642902609E-2</v>
+        <v>-7.702100572883519E-2</v>
       </c>
       <c r="N48" s="68">
         <f t="shared" si="195"/>
-        <v>-8.0203691915976982E-2</v>
+        <v>-9.6117122851686831E-2</v>
       </c>
       <c r="O48" s="68">
         <f t="shared" si="195"/>
-        <v>-7.702100572883519E-2</v>
+        <v>-9.2934436664544817E-2</v>
       </c>
       <c r="P48" s="68">
         <f t="shared" si="195"/>
-        <v>-9.6117122851686831E-2</v>
+        <v>-8.3386378103118997E-2</v>
       </c>
       <c r="Q48" s="68">
-        <f t="shared" si="195"/>
-        <v>-9.2934436664544817E-2</v>
+        <f t="shared" ref="Q48:R48" si="196">Q25/$E25-1</f>
+        <v>-8.0203691915976982E-2</v>
       </c>
       <c r="R48" s="68">
-        <f t="shared" si="195"/>
-        <v>-8.3386378103118997E-2</v>
-      </c>
-      <c r="S48" s="68">
-        <f t="shared" ref="S48:T48" si="196">S25/$E25-1</f>
-        <v>-8.0203691915976982E-2</v>
-      </c>
-      <c r="T48" s="68">
         <f t="shared" si="196"/>
         <v>-7.702100572883519E-2</v>
       </c>
-      <c r="U48" s="68">
-        <f t="shared" ref="U48:V48" si="197">U25/$E25-1</f>
+      <c r="S48" s="68">
+        <f t="shared" ref="S48:T48" si="197">S25/$E25-1</f>
         <v>-7.702100572883519E-2</v>
       </c>
-      <c r="V48" s="68">
+      <c r="T48" s="68">
         <f t="shared" si="197"/>
         <v>-7.3838319541693065E-2</v>
       </c>
-      <c r="W48" s="68">
-        <f t="shared" ref="W48:X48" si="198">W25/$E25-1</f>
+      <c r="U48" s="68">
+        <f t="shared" ref="U48:V48" si="198">U25/$E25-1</f>
         <v>-7.702100572883519E-2</v>
       </c>
-      <c r="X48" s="68">
+      <c r="V48" s="68">
         <f t="shared" si="198"/>
         <v>-6.4290260980267355E-2</v>
       </c>
-      <c r="Y48" s="68">
-        <f t="shared" ref="Y48:Z48" si="199">Y25/$E25-1</f>
+      <c r="W48" s="68">
+        <f t="shared" ref="W48:X48" si="199">W25/$E25-1</f>
         <v>-6.4290260980267355E-2</v>
       </c>
-      <c r="Z48" s="68">
+      <c r="X48" s="68">
         <f t="shared" si="199"/>
         <v>-6.1107574793125341E-2</v>
       </c>
-      <c r="AA48" s="68">
-        <f t="shared" ref="AA48:AB48" si="200">AA25/$E25-1</f>
+      <c r="Y48" s="68">
+        <f t="shared" ref="Y48:Z48" si="200">Y25/$E25-1</f>
         <v>-7.702100572883519E-2</v>
       </c>
-      <c r="AB48" s="68">
+      <c r="Z48" s="68">
         <f t="shared" si="200"/>
         <v>-6.7472947167409258E-2</v>
       </c>
+      <c r="AA48" s="68">
+        <f t="shared" ref="AA48" si="201">AA25/$E25-1</f>
+        <v>-9.2934436664544817E-2</v>
+      </c>
+      <c r="AB48" s="68">
+        <f t="shared" ref="AB48:AC48" si="202">AB25/$E25-1</f>
+        <v>-8.65690642902609E-2</v>
+      </c>
       <c r="AC48" s="68">
-        <f t="shared" ref="AC48:AD48" si="201">AC25/$E25-1</f>
-        <v>-9.6117122851686831E-2</v>
-      </c>
-      <c r="AD48" s="68">
-        <f t="shared" si="201"/>
-        <v>-9.2934436664544817E-2</v>
-      </c>
-      <c r="AE48" s="68">
-        <f t="shared" ref="AE48:AF48" si="202">AE25/$E25-1</f>
-        <v>-8.65690642902609E-2</v>
-      </c>
-      <c r="AF48" s="68">
         <f t="shared" si="202"/>
         <v>-8.0203691915976982E-2</v>
       </c>
-      <c r="AG48" s="68">
-        <f t="shared" ref="AG48:AI48" si="203">AG25/$E25-1</f>
+      <c r="AD48" s="68">
+        <f t="shared" ref="AD48:AF48" si="203">AD25/$E25-1</f>
         <v>-7.3838319541693065E-2</v>
       </c>
-      <c r="AH48" s="68">
+      <c r="AE48" s="68">
         <f t="shared" si="203"/>
         <v>-6.4290260980267355E-2</v>
       </c>
-      <c r="AI48" s="68">
+      <c r="AF48" s="68">
         <f t="shared" si="203"/>
         <v>-5.4742202418841424E-2</v>
       </c>
-      <c r="AJ48" s="68">
-        <f t="shared" ref="AJ48:AL48" si="204">AJ25/$E25-1</f>
+      <c r="AG48" s="68">
+        <f t="shared" ref="AG48:AI48" si="204">AG25/$E25-1</f>
         <v>-6.4290260980267355E-2</v>
       </c>
-      <c r="AK48" s="68">
+      <c r="AH48" s="68">
         <f t="shared" si="204"/>
         <v>-8.65690642902609E-2</v>
       </c>
-      <c r="AL48" s="68">
+      <c r="AI48" s="68">
         <f t="shared" si="204"/>
         <v>-1.3367281985996127E-2</v>
       </c>
-      <c r="AM48" s="68">
-        <f t="shared" ref="AM48:AN48" si="205">AM25/$E25-1</f>
+      <c r="AJ48" s="68">
+        <f t="shared" ref="AJ48:AK48" si="205">AJ25/$E25-1</f>
         <v>-2.9280712921705976E-2</v>
       </c>
-      <c r="AN48" s="68">
+      <c r="AK48" s="68">
         <f t="shared" si="205"/>
         <v>-2.9280712921705976E-2</v>
       </c>
-      <c r="AO48" s="68">
-        <f t="shared" ref="AO48:AP48" si="206">AO25/$E25-1</f>
+      <c r="AL48" s="68">
+        <f t="shared" ref="AL48:AM48" si="206">AL25/$E25-1</f>
         <v>-0.10248249522597075</v>
       </c>
-      <c r="AP48" s="68">
+      <c r="AM48" s="68">
         <f t="shared" si="206"/>
         <v>-9.2934436664544817E-2</v>
       </c>
-      <c r="AQ48" s="68">
-        <f t="shared" ref="AQ48:AR48" si="207">AQ25/$E25-1</f>
+      <c r="AN48" s="68">
+        <f t="shared" ref="AN48:AO48" si="207">AN25/$E25-1</f>
         <v>-9.2934436664544817E-2</v>
       </c>
-      <c r="AR48" s="68">
+      <c r="AO48" s="68">
         <f t="shared" si="207"/>
         <v>-7.3838319541693065E-2</v>
       </c>
-      <c r="AS48" s="68">
-        <f t="shared" ref="AS48:AT48" si="208">AS25/$E25-1</f>
+      <c r="AP48" s="68">
+        <f t="shared" ref="AP48:AQ48" si="208">AP25/$E25-1</f>
         <v>-8.3386378103118997E-2</v>
       </c>
-      <c r="AT48" s="68">
+      <c r="AQ48" s="68">
         <f t="shared" si="208"/>
         <v>-8.0203691915976982E-2</v>
       </c>
-      <c r="AU48" s="68">
-        <f t="shared" ref="AU48" si="209">AU25/$E25-1</f>
+      <c r="AR48" s="68">
+        <f t="shared" ref="AR48" si="209">AR25/$E25-1</f>
         <v>-8.3386378103118997E-2</v>
       </c>
+      <c r="AS48" s="68"/>
+      <c r="AT48" s="68"/>
+      <c r="AU48" s="68"/>
       <c r="AV48" s="68"/>
       <c r="AW48" s="68"/>
       <c r="AX48" s="68"/>
       <c r="AY48" s="68"/>
       <c r="AZ48" s="68"/>
       <c r="BA48" s="68"/>
-      <c r="BB48" s="68"/>
-      <c r="BC48" s="68"/>
-      <c r="BD48" s="68"/>
     </row>
-    <row r="49" spans="4:56" x14ac:dyDescent="0.2">
+    <row r="49" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D49" s="14">
         <v>200</v>
       </c>
       <c r="E49" s="80"/>
       <c r="F49" s="68">
-        <f t="shared" ref="F49:R49" si="210">F26/$E26-1</f>
+        <f t="shared" ref="F49:P49" si="210">F26/$E26-1</f>
         <v>-4.8708728342595653E-2</v>
       </c>
       <c r="G49" s="68">
@@ -42585,173 +42180,161 @@
       </c>
       <c r="J49" s="68">
         <f t="shared" si="210"/>
-        <v>-6.8322981366459645E-2</v>
+        <v>-9.1206276560967803E-2</v>
       </c>
       <c r="K49" s="68">
         <f t="shared" si="210"/>
-        <v>-9.1206276560967803E-2</v>
+        <v>-8.139915004903564E-2</v>
       </c>
       <c r="L49" s="68">
         <f t="shared" si="210"/>
-        <v>-9.1206276560967803E-2</v>
+        <v>-7.4861065707747643E-2</v>
       </c>
       <c r="M49" s="68">
         <f t="shared" si="210"/>
-        <v>-8.139915004903564E-2</v>
+        <v>-7.8130107878391697E-2</v>
       </c>
       <c r="N49" s="68">
         <f t="shared" si="210"/>
-        <v>-7.4861065707747643E-2</v>
+        <v>-9.4475318731611635E-2</v>
       </c>
       <c r="O49" s="68">
         <f t="shared" si="210"/>
-        <v>-7.8130107878391697E-2</v>
+        <v>-9.77443609022558E-2</v>
       </c>
       <c r="P49" s="68">
         <f t="shared" si="210"/>
-        <v>-9.4475318731611635E-2</v>
+        <v>-8.139915004903564E-2</v>
       </c>
       <c r="Q49" s="68">
-        <f t="shared" si="210"/>
-        <v>-9.77443609022558E-2</v>
+        <f t="shared" ref="Q49:R49" si="211">Q26/$E26-1</f>
+        <v>-7.8130107878391697E-2</v>
       </c>
       <c r="R49" s="68">
-        <f t="shared" si="210"/>
-        <v>-8.139915004903564E-2</v>
-      </c>
-      <c r="S49" s="68">
-        <f t="shared" ref="S49:T49" si="211">S26/$E26-1</f>
-        <v>-7.8130107878391697E-2</v>
-      </c>
-      <c r="T49" s="68">
         <f t="shared" si="211"/>
         <v>-7.4861065707747643E-2</v>
       </c>
-      <c r="U49" s="68">
-        <f t="shared" ref="U49:V49" si="212">U26/$E26-1</f>
+      <c r="S49" s="68">
+        <f t="shared" ref="S49:T49" si="212">S26/$E26-1</f>
         <v>-6.8322981366459645E-2</v>
       </c>
-      <c r="V49" s="68">
+      <c r="T49" s="68">
         <f t="shared" si="212"/>
         <v>-6.8322981366459645E-2</v>
       </c>
-      <c r="W49" s="68">
-        <f t="shared" ref="W49:X49" si="213">W26/$E26-1</f>
+      <c r="U49" s="68">
+        <f t="shared" ref="U49:V49" si="213">U26/$E26-1</f>
         <v>-7.1592023537103699E-2</v>
       </c>
-      <c r="X49" s="68">
+      <c r="V49" s="68">
         <f t="shared" si="213"/>
         <v>-5.524681268388365E-2</v>
       </c>
-      <c r="Y49" s="68">
-        <f t="shared" ref="Y49:Z49" si="214">Y26/$E26-1</f>
+      <c r="W49" s="68">
+        <f t="shared" ref="W49:X49" si="214">W26/$E26-1</f>
         <v>-5.524681268388365E-2</v>
       </c>
-      <c r="Z49" s="68">
+      <c r="X49" s="68">
         <f t="shared" si="214"/>
         <v>-4.8708728342595653E-2</v>
       </c>
-      <c r="AA49" s="68">
-        <f t="shared" ref="AA49:AB49" si="215">AA26/$E26-1</f>
+      <c r="Y49" s="68">
+        <f t="shared" ref="Y49:Z49" si="215">Y26/$E26-1</f>
         <v>-7.4861065707747643E-2</v>
       </c>
-      <c r="AB49" s="68">
+      <c r="Z49" s="68">
         <f t="shared" si="215"/>
         <v>-6.1784897025171648E-2</v>
       </c>
+      <c r="AA49" s="68">
+        <f t="shared" ref="AA49" si="216">AA26/$E26-1</f>
+        <v>-9.4475318731611635E-2</v>
+      </c>
+      <c r="AB49" s="68">
+        <f t="shared" ref="AB49:AC49" si="217">AB26/$E26-1</f>
+        <v>-9.1206276560967803E-2</v>
+      </c>
       <c r="AC49" s="68">
-        <f t="shared" ref="AC49:AD49" si="216">AC26/$E26-1</f>
-        <v>-9.77443609022558E-2</v>
-      </c>
-      <c r="AD49" s="68">
-        <f t="shared" si="216"/>
-        <v>-9.4475318731611635E-2</v>
-      </c>
-      <c r="AE49" s="68">
-        <f t="shared" ref="AE49:AF49" si="217">AE26/$E26-1</f>
-        <v>-9.1206276560967803E-2</v>
-      </c>
-      <c r="AF49" s="68">
         <f t="shared" si="217"/>
         <v>-7.4861065707747643E-2</v>
       </c>
-      <c r="AG49" s="68">
-        <f t="shared" ref="AG49:AI49" si="218">AG26/$E26-1</f>
+      <c r="AD49" s="68">
+        <f t="shared" ref="AD49:AF49" si="218">AD26/$E26-1</f>
         <v>-7.1592023537103699E-2</v>
       </c>
-      <c r="AH49" s="68">
+      <c r="AE49" s="68">
         <f t="shared" si="218"/>
         <v>-5.1977770513239707E-2</v>
       </c>
-      <c r="AI49" s="68">
+      <c r="AF49" s="68">
         <f t="shared" si="218"/>
         <v>-4.543968617195171E-2</v>
       </c>
-      <c r="AJ49" s="68">
-        <f t="shared" ref="AJ49:AL49" si="219">AJ26/$E26-1</f>
+      <c r="AG49" s="68">
+        <f t="shared" ref="AG49:AI49" si="219">AG26/$E26-1</f>
         <v>-5.524681268388365E-2</v>
       </c>
-      <c r="AK49" s="68">
+      <c r="AH49" s="68">
         <f t="shared" si="219"/>
         <v>-8.4668192219679694E-2</v>
       </c>
-      <c r="AL49" s="68">
+      <c r="AI49" s="68">
         <f t="shared" si="219"/>
         <v>1.3403072899640378E-2</v>
       </c>
-      <c r="AM49" s="68">
-        <f t="shared" ref="AM49:AN49" si="220">AM26/$E26-1</f>
+      <c r="AJ49" s="68">
+        <f t="shared" ref="AJ49:AK49" si="220">AJ26/$E26-1</f>
         <v>6.8649885583522696E-3</v>
       </c>
-      <c r="AN49" s="68">
+      <c r="AK49" s="68">
         <f t="shared" si="220"/>
         <v>-2.942137953579671E-3</v>
       </c>
-      <c r="AO49" s="68">
-        <f t="shared" ref="AO49:AP49" si="221">AO26/$E26-1</f>
+      <c r="AL49" s="68">
+        <f t="shared" ref="AL49:AM49" si="221">AL26/$E26-1</f>
         <v>-0.10428244524354358</v>
       </c>
-      <c r="AP49" s="68">
+      <c r="AM49" s="68">
         <f t="shared" si="221"/>
         <v>-9.1206276560967803E-2</v>
       </c>
-      <c r="AQ49" s="68">
-        <f t="shared" ref="AQ49:AR49" si="222">AQ26/$E26-1</f>
+      <c r="AN49" s="68">
+        <f t="shared" ref="AN49:AO49" si="222">AN26/$E26-1</f>
         <v>-9.1206276560967803E-2</v>
       </c>
-      <c r="AR49" s="68">
+      <c r="AO49" s="68">
         <f t="shared" si="222"/>
         <v>-6.8322981366459645E-2</v>
       </c>
-      <c r="AS49" s="68">
-        <f t="shared" ref="AS49:AT49" si="223">AS26/$E26-1</f>
+      <c r="AP49" s="68">
+        <f t="shared" ref="AP49:AQ49" si="223">AP26/$E26-1</f>
         <v>-7.8130107878391697E-2</v>
       </c>
-      <c r="AT49" s="68">
+      <c r="AQ49" s="68">
         <f t="shared" si="223"/>
         <v>-7.1592023537103699E-2</v>
       </c>
-      <c r="AU49" s="68">
-        <f t="shared" ref="AU49" si="224">AU26/$E26-1</f>
+      <c r="AR49" s="68">
+        <f t="shared" ref="AR49" si="224">AR26/$E26-1</f>
         <v>-8.4668192219679694E-2</v>
       </c>
+      <c r="AS49" s="68"/>
+      <c r="AT49" s="68"/>
+      <c r="AU49" s="68"/>
       <c r="AV49" s="68"/>
       <c r="AW49" s="68"/>
       <c r="AX49" s="68"/>
       <c r="AY49" s="68"/>
       <c r="AZ49" s="68"/>
       <c r="BA49" s="68"/>
-      <c r="BB49" s="68"/>
-      <c r="BC49" s="68"/>
-      <c r="BD49" s="68"/>
     </row>
-    <row r="50" spans="4:56" x14ac:dyDescent="0.2">
+    <row r="50" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D50" s="14">
         <v>210</v>
       </c>
       <c r="E50" s="80"/>
       <c r="F50" s="68">
-        <f t="shared" ref="F50:R50" si="225">F27/$E27-1</f>
+        <f t="shared" ref="F50:P50" si="225">F27/$E27-1</f>
         <v>-3.0385797200409681E-2</v>
       </c>
       <c r="G50" s="68">
@@ -42768,173 +42351,161 @@
       </c>
       <c r="J50" s="68">
         <f t="shared" si="225"/>
-        <v>-5.7698873335609413E-2</v>
+        <v>-8.5011949470809034E-2</v>
       </c>
       <c r="K50" s="68">
         <f t="shared" si="225"/>
-        <v>-8.5011949470809034E-2</v>
+        <v>-6.4527142369409263E-2</v>
       </c>
       <c r="L50" s="68">
         <f t="shared" si="225"/>
-        <v>-8.5011949470809034E-2</v>
+        <v>-5.7698873335609413E-2</v>
       </c>
       <c r="M50" s="68">
         <f t="shared" si="225"/>
-        <v>-6.4527142369409263E-2</v>
+        <v>-6.7941276886309243E-2</v>
       </c>
       <c r="N50" s="68">
         <f t="shared" si="225"/>
-        <v>-5.7698873335609413E-2</v>
+        <v>-8.5011949470809034E-2</v>
       </c>
       <c r="O50" s="68">
         <f t="shared" si="225"/>
-        <v>-6.7941276886309243E-2</v>
+        <v>-9.1840218504608995E-2</v>
       </c>
       <c r="P50" s="68">
         <f t="shared" si="225"/>
-        <v>-8.5011949470809034E-2</v>
+        <v>-7.4769545920109204E-2</v>
       </c>
       <c r="Q50" s="68">
-        <f t="shared" si="225"/>
-        <v>-9.1840218504608995E-2</v>
+        <f t="shared" ref="Q50:R50" si="226">Q27/$E27-1</f>
+        <v>-6.7941276886309243E-2</v>
       </c>
       <c r="R50" s="68">
-        <f t="shared" si="225"/>
-        <v>-7.4769545920109204E-2</v>
-      </c>
-      <c r="S50" s="68">
-        <f t="shared" ref="S50:T50" si="226">S27/$E27-1</f>
-        <v>-6.7941276886309243E-2</v>
-      </c>
-      <c r="T50" s="68">
         <f t="shared" si="226"/>
         <v>-6.7941276886309243E-2</v>
       </c>
-      <c r="U50" s="68">
-        <f t="shared" ref="U50:V50" si="227">U27/$E27-1</f>
+      <c r="S50" s="68">
+        <f t="shared" ref="S50:T50" si="227">S27/$E27-1</f>
         <v>-6.4527142369409263E-2</v>
       </c>
-      <c r="V50" s="68">
+      <c r="T50" s="68">
         <f t="shared" si="227"/>
         <v>-5.7698873335609413E-2</v>
       </c>
-      <c r="W50" s="68">
-        <f t="shared" ref="W50:X50" si="228">W27/$E27-1</f>
+      <c r="U50" s="68">
+        <f t="shared" ref="U50:V50" si="228">U27/$E27-1</f>
         <v>-5.4284738818709433E-2</v>
       </c>
-      <c r="X50" s="68">
+      <c r="V50" s="68">
         <f t="shared" si="228"/>
         <v>-4.4042335268009603E-2</v>
       </c>
-      <c r="Y50" s="68">
-        <f t="shared" ref="Y50:Z50" si="229">Y27/$E27-1</f>
+      <c r="W50" s="68">
+        <f t="shared" ref="W50:X50" si="229">W27/$E27-1</f>
         <v>-4.0628200751109511E-2</v>
       </c>
-      <c r="Z50" s="68">
+      <c r="X50" s="68">
         <f t="shared" si="229"/>
         <v>-2.697166268350959E-2</v>
       </c>
-      <c r="AA50" s="68">
-        <f t="shared" ref="AA50:AB50" si="230">AA27/$E27-1</f>
+      <c r="Y50" s="68">
+        <f t="shared" ref="Y50:Z50" si="230">Y27/$E27-1</f>
         <v>-6.4527142369409263E-2</v>
       </c>
-      <c r="AB50" s="68">
+      <c r="Z50" s="68">
         <f t="shared" si="230"/>
         <v>-4.4042335268009603E-2</v>
       </c>
+      <c r="AA50" s="68">
+        <f t="shared" ref="AA50" si="231">AA27/$E27-1</f>
+        <v>-9.1840218504608995E-2</v>
+      </c>
+      <c r="AB50" s="68">
+        <f t="shared" ref="AB50:AC50" si="232">AB27/$E27-1</f>
+        <v>-8.5011949470809034E-2</v>
+      </c>
       <c r="AC50" s="68">
-        <f t="shared" ref="AC50:AD50" si="231">AC27/$E27-1</f>
-        <v>-9.1840218504608995E-2</v>
-      </c>
-      <c r="AD50" s="68">
-        <f t="shared" si="231"/>
-        <v>-9.1840218504608995E-2</v>
-      </c>
-      <c r="AE50" s="68">
-        <f t="shared" ref="AE50:AF50" si="232">AE27/$E27-1</f>
-        <v>-8.5011949470809034E-2</v>
-      </c>
-      <c r="AF50" s="68">
         <f t="shared" si="232"/>
         <v>-6.7941276886309243E-2</v>
       </c>
-      <c r="AG50" s="68">
-        <f t="shared" ref="AG50:AI50" si="233">AG27/$E27-1</f>
+      <c r="AD50" s="68">
+        <f t="shared" ref="AD50:AF50" si="233">AD27/$E27-1</f>
         <v>-6.1113007852509282E-2</v>
       </c>
-      <c r="AH50" s="68">
+      <c r="AE50" s="68">
         <f t="shared" si="233"/>
         <v>-3.379993171730955E-2</v>
       </c>
-      <c r="AI50" s="68">
+      <c r="AF50" s="68">
         <f t="shared" si="233"/>
         <v>-2.355752816660972E-2</v>
       </c>
-      <c r="AJ50" s="68">
-        <f t="shared" ref="AJ50:AL50" si="234">AJ27/$E27-1</f>
+      <c r="AG50" s="68">
+        <f t="shared" ref="AG50:AI50" si="234">AG27/$E27-1</f>
         <v>-3.7214066234209642E-2</v>
       </c>
-      <c r="AK50" s="68">
+      <c r="AH50" s="68">
         <f t="shared" si="234"/>
         <v>-8.1597814953909165E-2</v>
       </c>
-      <c r="AL50" s="68">
+      <c r="AI50" s="68">
         <f t="shared" si="234"/>
         <v>6.8624103789689306E-2</v>
       </c>
-      <c r="AM50" s="68">
-        <f t="shared" ref="AM50:AN50" si="235">AM27/$E27-1</f>
+      <c r="AJ50" s="68">
+        <f t="shared" ref="AJ50:AK50" si="235">AJ27/$E27-1</f>
         <v>5.1553431205189515E-2</v>
       </c>
-      <c r="AN50" s="68">
+      <c r="AK50" s="68">
         <f t="shared" si="235"/>
         <v>3.7896893137589593E-2</v>
       </c>
-      <c r="AO50" s="68">
-        <f t="shared" ref="AO50:AP50" si="236">AO27/$E27-1</f>
+      <c r="AL50" s="68">
+        <f t="shared" ref="AL50:AM50" si="236">AL27/$E27-1</f>
         <v>-0.10208262205530894</v>
       </c>
-      <c r="AP50" s="68">
+      <c r="AM50" s="68">
         <f t="shared" si="236"/>
         <v>-8.5011949470809034E-2</v>
       </c>
-      <c r="AQ50" s="68">
-        <f t="shared" ref="AQ50:AR50" si="237">AQ27/$E27-1</f>
+      <c r="AN50" s="68">
+        <f t="shared" ref="AN50:AO50" si="237">AN27/$E27-1</f>
         <v>-8.8426083987709125E-2</v>
       </c>
-      <c r="AR50" s="68">
+      <c r="AO50" s="68">
         <f t="shared" si="237"/>
         <v>-5.0870604301809452E-2</v>
       </c>
-      <c r="AS50" s="68">
-        <f t="shared" ref="AS50:AT50" si="238">AS27/$E27-1</f>
+      <c r="AP50" s="68">
+        <f t="shared" ref="AP50:AQ50" si="238">AP27/$E27-1</f>
         <v>-6.4527142369409263E-2</v>
       </c>
-      <c r="AT50" s="68">
+      <c r="AQ50" s="68">
         <f t="shared" si="238"/>
         <v>-5.7698873335609413E-2</v>
       </c>
-      <c r="AU50" s="68">
-        <f t="shared" ref="AU50" si="239">AU27/$E27-1</f>
+      <c r="AR50" s="68">
+        <f t="shared" ref="AR50" si="239">AR27/$E27-1</f>
         <v>-7.1355411403209112E-2</v>
       </c>
+      <c r="AS50" s="68"/>
+      <c r="AT50" s="68"/>
+      <c r="AU50" s="68"/>
       <c r="AV50" s="68"/>
       <c r="AW50" s="68"/>
       <c r="AX50" s="68"/>
       <c r="AY50" s="68"/>
       <c r="AZ50" s="68"/>
       <c r="BA50" s="68"/>
-      <c r="BB50" s="68"/>
-      <c r="BC50" s="68"/>
-      <c r="BD50" s="68"/>
     </row>
-    <row r="51" spans="4:56" x14ac:dyDescent="0.2">
+    <row r="51" spans="4:53" x14ac:dyDescent="0.2">
       <c r="D51" s="14">
         <v>220</v>
       </c>
       <c r="E51" s="80"/>
       <c r="F51" s="68">
-        <f t="shared" ref="F51:R51" si="240">F28/$E28-1</f>
+        <f t="shared" ref="F51:P51" si="240">F28/$E28-1</f>
         <v>-3.5323207347226493E-4</v>
       </c>
       <c r="G51" s="68">
@@ -42951,173 +42522,161 @@
       </c>
       <c r="J51" s="68">
         <f t="shared" si="240"/>
-        <v>-3.5676439420699424E-2</v>
+        <v>-7.4531967502649232E-2</v>
       </c>
       <c r="K51" s="68">
         <f t="shared" si="240"/>
-        <v>-7.4531967502649232E-2</v>
+        <v>-4.6273401624867483E-2</v>
       </c>
       <c r="L51" s="68">
         <f t="shared" si="240"/>
-        <v>-7.4531967502649232E-2</v>
+        <v>-3.2144118685976553E-2</v>
       </c>
       <c r="M51" s="68">
         <f t="shared" si="240"/>
-        <v>-4.6273401624867483E-2</v>
+        <v>-4.2741080890144834E-2</v>
       </c>
       <c r="N51" s="68">
         <f t="shared" si="240"/>
-        <v>-3.2144118685976553E-2</v>
+        <v>-7.4531967502649232E-2</v>
       </c>
       <c r="O51" s="68">
         <f t="shared" si="240"/>
-        <v>-4.2741080890144834E-2</v>
+        <v>-8.1596608972094642E-2</v>
       </c>
       <c r="P51" s="68">
         <f t="shared" si="240"/>
-        <v>-7.4531967502649232E-2</v>
+        <v>-5.6870363829035653E-2</v>
       </c>
       <c r="Q51" s="68">
-        <f t="shared" si="240"/>
-        <v>-8.1596608972094642E-2</v>
+        <f t="shared" ref="Q51:R51" si="241">Q28/$E28-1</f>
+        <v>-4.6273401624867483E-2</v>
       </c>
       <c r="R51" s="68">
-        <f t="shared" si="240"/>
-        <v>-5.6870363829035653E-2</v>
-      </c>
-      <c r="S51" s="68">
-        <f t="shared" ref="S51:T51" si="241">S28/$E28-1</f>
-        <v>-4.6273401624867483E-2</v>
-      </c>
-      <c r="T51" s="68">
         <f t="shared" si="241"/>
         <v>-4.9805722359590243E-2</v>
       </c>
-      <c r="U51" s="68">
-        <f t="shared" ref="U51:V51" si="242">U28/$E28-1</f>
+      <c r="S51" s="68">
+        <f t="shared" ref="S51:T51" si="242">S28/$E28-1</f>
         <v>-4.2741080890144834E-2</v>
       </c>
-      <c r="V51" s="68">
+      <c r="T51" s="68">
         <f t="shared" si="242"/>
         <v>-3.2144118685976553E-2</v>
       </c>
-      <c r="W51" s="68">
-        <f t="shared" ref="W51:X51" si="243">W28/$E28-1</f>
+      <c r="U51" s="68">
+        <f t="shared" ref="U51:V51" si="243">U28/$E28-1</f>
         <v>-2.8611797951254014E-2</v>
       </c>
-      <c r="X51" s="68">
+      <c r="V51" s="68">
         <f t="shared" si="243"/>
         <v>-1.8014835747085844E-2</v>
       </c>
-      <c r="Y51" s="68">
-        <f t="shared" ref="Y51:Z51" si="244">Y28/$E28-1</f>
+      <c r="W51" s="68">
+        <f t="shared" ref="W51:X51" si="244">W28/$E28-1</f>
         <v>-1.0950194277640435E-2</v>
       </c>
-      <c r="Z51" s="68">
+      <c r="X51" s="68">
         <f t="shared" si="244"/>
         <v>1.7308371600141204E-2</v>
       </c>
-      <c r="AA51" s="68">
-        <f t="shared" ref="AA51:AB51" si="245">AA28/$E28-1</f>
+      <c r="Y51" s="68">
+        <f t="shared" ref="Y51:Z51" si="245">Y28/$E28-1</f>
         <v>-4.9805722359590243E-2</v>
       </c>
-      <c r="AB51" s="68">
+      <c r="Z51" s="68">
         <f t="shared" si="245"/>
         <v>-1.8014835747085844E-2</v>
       </c>
+      <c r="AA51" s="68">
+        <f t="shared" ref="AA51" si="246">AA28/$E28-1</f>
+        <v>-8.5128929706817402E-2</v>
+      </c>
+      <c r="AB51" s="68">
+        <f t="shared" ref="AB51:AC51" si="247">AB28/$E28-1</f>
+        <v>-7.0999646767926583E-2</v>
+      </c>
       <c r="AC51" s="68">
-        <f t="shared" ref="AC51:AD51" si="246">AC28/$E28-1</f>
-        <v>-8.1596608972094642E-2</v>
-      </c>
-      <c r="AD51" s="68">
-        <f t="shared" si="246"/>
-        <v>-8.5128929706817402E-2</v>
-      </c>
-      <c r="AE51" s="68">
-        <f t="shared" ref="AE51:AF51" si="247">AE28/$E28-1</f>
-        <v>-7.0999646767926583E-2</v>
-      </c>
-      <c r="AF51" s="68">
         <f t="shared" si="247"/>
         <v>-4.6273401624867483E-2</v>
       </c>
-      <c r="AG51" s="68">
-        <f t="shared" ref="AG51:AI51" si="248">AG28/$E28-1</f>
+      <c r="AD51" s="68">
+        <f t="shared" ref="AD51:AF51" si="248">AD28/$E28-1</f>
         <v>-3.9208760155422073E-2</v>
       </c>
-      <c r="AH51" s="68">
+      <c r="AE51" s="68">
         <f t="shared" si="248"/>
         <v>3.1790886612503844E-3</v>
       </c>
-      <c r="AI51" s="68">
+      <c r="AF51" s="68">
         <f t="shared" si="248"/>
         <v>6.7114093959732557E-3</v>
       </c>
-      <c r="AJ51" s="68">
-        <f t="shared" ref="AJ51:AL51" si="249">AJ28/$E28-1</f>
+      <c r="AG51" s="68">
+        <f t="shared" ref="AG51:AI51" si="249">AG28/$E28-1</f>
         <v>-1.0950194277640435E-2</v>
       </c>
-      <c r="AK51" s="68">
+      <c r="AH51" s="68">
         <f t="shared" si="249"/>
         <v>-7.0999646767926583E-2</v>
       </c>
-      <c r="AL51" s="68">
+      <c r="AI51" s="68">
         <f t="shared" si="249"/>
         <v>0.15860120098904984</v>
       </c>
-      <c r="AM51" s="68">
-        <f t="shared" ref="AM51:AN51" si="250">AM28/$E28-1</f>
+      <c r="AJ51" s="68">
+        <f t="shared" ref="AJ51:AK51" si="250">AJ28/$E28-1</f>
         <v>0.14093959731543615</v>
       </c>
-      <c r="AN51" s="68">
+      <c r="AK51" s="68">
         <f t="shared" si="250"/>
         <v>0.11974567290710003</v>
       </c>
-      <c r="AO51" s="68">
-        <f t="shared" ref="AO51:AP51" si="251">AO28/$E28-1</f>
+      <c r="AL51" s="68">
+        <f t="shared" ref="AL51:AM51" si="251">AL28/$E28-1</f>
         <v>-7.8064288237371993E-2</v>
       </c>
-      <c r="AP51" s="68">
+      <c r="AM51" s="68">
         <f t="shared" si="251"/>
         <v>-5.3338043094312892E-2</v>
       </c>
-      <c r="AQ51" s="68">
-        <f t="shared" ref="AQ51:AR51" si="252">AQ28/$E28-1</f>
+      <c r="AN51" s="68">
+        <f t="shared" ref="AN51:AO51" si="252">AN28/$E28-1</f>
         <v>-6.0402684563758302E-2</v>
       </c>
-      <c r="AR51" s="68">
+      <c r="AO51" s="68">
         <f t="shared" si="252"/>
         <v>-2.5079477216531365E-2</v>
       </c>
-      <c r="AS51" s="68">
-        <f t="shared" ref="AS51:AT51" si="253">AS28/$E28-1</f>
+      <c r="AP51" s="68">
+        <f t="shared" ref="AP51:AQ51" si="253">AP28/$E28-1</f>
         <v>-3.5676439420699424E-2</v>
       </c>
-      <c r="AT51" s="68">
+      <c r="AQ51" s="68">
         <f t="shared" si="253"/>
         <v>-2.5079477216531365E-2</v>
       </c>
-      <c r="AU51" s="68">
-        <f t="shared" ref="AU51" si="254">AU28/$E28-1</f>
+      <c r="AR51" s="68">
+        <f t="shared" ref="AR51" si="254">AR28/$E28-1</f>
         <v>-5.3338043094312892E-2</v>
       </c>
+      <c r="AS51" s="68"/>
+      <c r="AT51" s="68"/>
+      <c r="AU51" s="68"/>
       <c r="AV51" s="68"/>
       <c r="AW51" s="68"/>
       <c r="AX51" s="68"/>
       <c r="AY51" s="68"/>
       <c r="AZ51" s="68"/>
       <c r="BA51" s="68"/>
-      <c r="BB51" s="68"/>
-      <c r="BC51" s="68"/>
-      <c r="BD51" s="68"/>
     </row>
-    <row r="52" spans="4:56" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:53" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D52" s="26">
         <v>226</v>
       </c>
       <c r="E52" s="81"/>
       <c r="F52" s="69">
-        <f t="shared" ref="F52:R52" si="255">F29/$E29-1</f>
+        <f t="shared" ref="F52:P52" si="255">F29/$E29-1</f>
         <v>3.6231884057971175E-3</v>
       </c>
       <c r="G52" s="69">
@@ -43134,167 +42693,155 @@
       </c>
       <c r="J52" s="69">
         <f t="shared" si="255"/>
-        <v>-3.6231884057970842E-2</v>
+        <v>-7.2463768115941907E-2</v>
       </c>
       <c r="K52" s="69">
         <f t="shared" si="255"/>
-        <v>-7.2463768115941907E-2</v>
+        <v>-3.9855072463768071E-2</v>
       </c>
       <c r="L52" s="69">
         <f t="shared" si="255"/>
-        <v>-7.2463768115941907E-2</v>
+        <v>-2.5362318840579601E-2</v>
       </c>
       <c r="M52" s="69">
         <f t="shared" si="255"/>
-        <v>-3.9855072463768071E-2</v>
+        <v>-3.6231884057970842E-2</v>
       </c>
       <c r="N52" s="69">
         <f t="shared" si="255"/>
-        <v>-2.5362318840579601E-2</v>
+        <v>-6.5217391304347783E-2</v>
       </c>
       <c r="O52" s="69">
         <f t="shared" si="255"/>
-        <v>-3.6231884057970842E-2</v>
+        <v>-7.9710144927536142E-2</v>
       </c>
       <c r="P52" s="69">
         <f t="shared" si="255"/>
-        <v>-6.5217391304347783E-2</v>
+        <v>-4.7101449275362306E-2</v>
       </c>
       <c r="Q52" s="69">
-        <f t="shared" si="255"/>
-        <v>-7.9710144927536142E-2</v>
+        <f t="shared" ref="Q52:R52" si="256">Q29/$E29-1</f>
+        <v>-3.6231884057970842E-2</v>
       </c>
       <c r="R52" s="69">
-        <f t="shared" si="255"/>
-        <v>-4.7101449275362306E-2</v>
-      </c>
-      <c r="S52" s="69">
-        <f t="shared" ref="S52:T52" si="256">S29/$E29-1</f>
-        <v>-3.6231884057970842E-2</v>
-      </c>
-      <c r="T52" s="69">
         <f t="shared" si="256"/>
         <v>-4.3478260869565077E-2</v>
       </c>
-      <c r="U52" s="69">
-        <f t="shared" ref="U52:V52" si="257">U29/$E29-1</f>
+      <c r="S52" s="69">
+        <f t="shared" ref="S52:T52" si="257">S29/$E29-1</f>
         <v>-3.2608695652173836E-2</v>
       </c>
-      <c r="V52" s="69">
+      <c r="T52" s="69">
         <f t="shared" si="257"/>
         <v>-2.8985507246376718E-2</v>
       </c>
-      <c r="W52" s="69">
-        <f t="shared" ref="W52:X52" si="258">W29/$E29-1</f>
+      <c r="U52" s="69">
+        <f t="shared" ref="U52:V52" si="258">U29/$E29-1</f>
         <v>-2.8985507246376718E-2</v>
       </c>
-      <c r="X52" s="69">
+      <c r="V52" s="69">
         <f t="shared" si="258"/>
         <v>-1.0869565217391242E-2</v>
       </c>
-      <c r="Y52" s="69">
-        <f t="shared" ref="Y52:Z52" si="259">Y29/$E29-1</f>
+      <c r="W52" s="69">
+        <f t="shared" ref="W52:X52" si="259">W29/$E29-1</f>
         <v>3.6231884057971175E-3</v>
       </c>
-      <c r="Z52" s="69">
+      <c r="X52" s="69">
         <f t="shared" si="259"/>
         <v>1.8115942028985588E-2</v>
       </c>
-      <c r="AA52" s="69">
-        <f t="shared" ref="AA52:AB52" si="260">AA29/$E29-1</f>
+      <c r="Y52" s="69">
+        <f t="shared" ref="Y52:Z52" si="260">Y29/$E29-1</f>
         <v>-7.246376811594013E-3</v>
       </c>
-      <c r="AB52" s="69">
+      <c r="Z52" s="69">
         <f t="shared" si="260"/>
         <v>-1.0869565217391242E-2</v>
       </c>
+      <c r="AA52" s="69">
+        <f t="shared" ref="AA52" si="261">AA29/$E29-1</f>
+        <v>-7.9710144927536142E-2</v>
+      </c>
+      <c r="AB52" s="69">
+        <f t="shared" ref="AB52:AC52" si="262">AB29/$E29-1</f>
+        <v>-7.2463768115941907E-2</v>
+      </c>
       <c r="AC52" s="69">
-        <f t="shared" ref="AC52:AD52" si="261">AC29/$E29-1</f>
-        <v>-8.333333333333337E-2</v>
-      </c>
-      <c r="AD52" s="69">
-        <f t="shared" si="261"/>
-        <v>-7.9710144927536142E-2</v>
-      </c>
-      <c r="AE52" s="69">
-        <f t="shared" ref="AE52:AF52" si="262">AE29/$E29-1</f>
-        <v>-7.2463768115941907E-2</v>
-      </c>
-      <c r="AF52" s="69">
         <f t="shared" si="262"/>
         <v>-4.3478260869565077E-2</v>
       </c>
-      <c r="AG52" s="69">
-        <f t="shared" ref="AG52:AI52" si="263">AG29/$E29-1</f>
+      <c r="AD52" s="69">
+        <f t="shared" ref="AD52:AF52" si="263">AD29/$E29-1</f>
         <v>-3.9855072463768071E-2</v>
       </c>
-      <c r="AH52" s="69">
+      <c r="AE52" s="69">
         <f t="shared" si="263"/>
         <v>0</v>
       </c>
-      <c r="AI52" s="69">
+      <c r="AF52" s="69">
         <f t="shared" si="263"/>
         <v>7.2463768115942351E-3</v>
       </c>
-      <c r="AJ52" s="69">
-        <f t="shared" ref="AJ52:AL52" si="264">AJ29/$E29-1</f>
+      <c r="AG52" s="69">
+        <f t="shared" ref="AG52:AI52" si="264">AG29/$E29-1</f>
         <v>-1.8115942028985477E-2</v>
       </c>
-      <c r="AK52" s="69">
+      <c r="AH52" s="69">
         <f t="shared" si="264"/>
         <v>-7.2463768115941907E-2</v>
       </c>
-      <c r="AL52" s="69">
+      <c r="AI52" s="69">
         <f t="shared" si="264"/>
         <v>0.17028985507246386</v>
       </c>
-      <c r="AM52" s="69">
-        <f t="shared" ref="AM52:AN52" si="265">AM29/$E29-1</f>
+      <c r="AJ52" s="69">
+        <f t="shared" ref="AJ52:AK52" si="265">AJ29/$E29-1</f>
         <v>0.14855072463768115</v>
       </c>
-      <c r="AN52" s="69">
+      <c r="AK52" s="69">
         <f t="shared" si="265"/>
         <v>0.13043478260869579</v>
       </c>
-      <c r="AO52" s="69">
-        <f t="shared" ref="AO52:AP52" si="266">AO29/$E29-1</f>
+      <c r="AL52" s="69">
+        <f t="shared" ref="AL52:AM52" si="266">AL29/$E29-1</f>
         <v>-7.9710144927536142E-2</v>
       </c>
-      <c r="AP52" s="69">
+      <c r="AM52" s="69">
         <f t="shared" si="266"/>
         <v>-5.0724637681159312E-2</v>
       </c>
-      <c r="AQ52" s="69">
-        <f t="shared" ref="AQ52:AR52" si="267">AQ29/$E29-1</f>
+      <c r="AN52" s="69">
+        <f t="shared" ref="AN52:AO52" si="267">AN29/$E29-1</f>
         <v>-5.4347826086956541E-2</v>
       </c>
-      <c r="AR52" s="69">
+      <c r="AO52" s="69">
         <f t="shared" si="267"/>
         <v>-2.1739130434782483E-2</v>
       </c>
-      <c r="AS52" s="69">
-        <f t="shared" ref="AS52:AT52" si="268">AS29/$E29-1</f>
+      <c r="AP52" s="69">
+        <f t="shared" ref="AP52:AQ52" si="268">AP29/$E29-1</f>
         <v>-3.2608695652173836E-2</v>
       </c>
-      <c r="AT52" s="69">
+      <c r="AQ52" s="69">
         <f t="shared" si="268"/>
         <v>-2.8985507246376718E-2</v>
       </c>
-      <c r="AU52" s="69">
-        <f t="shared" ref="AU52" si="269">AU29/$E29-1</f>
+      <c r="AR52" s="69">
+        <f t="shared" ref="AR52" si="269">AR29/$E29-1</f>
         <v>-5.4347826086956541E-2</v>
       </c>
+      <c r="AS52" s="69"/>
+      <c r="AT52" s="69"/>
+      <c r="AU52" s="69"/>
       <c r="AV52" s="69"/>
       <c r="AW52" s="69"/>
       <c r="AX52" s="69"/>
       <c r="AY52" s="69"/>
       <c r="AZ52" s="69"/>
       <c r="BA52" s="69"/>
-      <c r="BB52" s="69"/>
-      <c r="BC52" s="69"/>
-      <c r="BD52" s="69"/>
     </row>
-    <row r="53" spans="4:56" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="4:53" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="F53" s="75"/>
       <c r="G53" s="75"/>
     </row>
@@ -43305,40 +42852,26 @@
     <mergeCell ref="D32:D34"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
-  <conditionalFormatting sqref="A35:C52">
-    <cfRule type="cellIs" dxfId="11" priority="49" operator="greaterThanOrEqual">
+  <conditionalFormatting sqref="A35:C52 F35:XFD52">
+    <cfRule type="cellIs" dxfId="7" priority="49" operator="greaterThanOrEqual">
       <formula>0.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="50" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="6" priority="50" operator="lessThanOrEqual">
       <formula>-0.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="51" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="5" priority="51" operator="lessThanOrEqual">
       <formula>-0.08</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="52" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="52" operator="greaterThanOrEqual">
       <formula>0.08</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:J8">
-    <cfRule type="cellIs" dxfId="7" priority="53" operator="greaterThan">
+  <conditionalFormatting sqref="D1:I8">
+    <cfRule type="cellIs" dxfId="3" priority="53" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="54" operator="equal">
       <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F35:XFD52">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThanOrEqual">
-      <formula>0.1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThanOrEqual">
-      <formula>-0.1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThanOrEqual">
-      <formula>-0.08</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThanOrEqual">
-      <formula>0.08</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -43351,7 +42884,7 @@
   <dimension ref="A13:AS87"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <pane xSplit="3" ySplit="12" topLeftCell="AH51" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="12" topLeftCell="D66" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A13" sqref="A13"/>
       <selection pane="topRight" activeCell="D13" sqref="D13"/>
       <selection pane="bottomLeft" activeCell="A33" sqref="A33"/>
